--- a/Car_Wash_Advisory_Top_Acquisitions.xlsx
+++ b/Car_Wash_Advisory_Top_Acquisitions.xlsx
@@ -589,7 +589,7 @@
     <t>Clean Machine Car Wash</t>
   </si>
   <si>
-    <t>Jerry’s Car Wash</t>
+    <t>Jerry’s Car Wash (PA)</t>
   </si>
   <si>
     <t>PassiveInvesting.com</t>

--- a/Car_Wash_Advisory_Top_Acquisitions.xlsx
+++ b/Car_Wash_Advisory_Top_Acquisitions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="390">
   <si>
     <t>Purchasing Company</t>
   </si>
@@ -391,6 +391,9 @@
     <t>Snappy Express Car Wash</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Quicky Car Wash</t>
   </si>
   <si>
@@ -472,7 +475,7 @@
     <t>Quick N Clean</t>
   </si>
   <si>
-    <t>Thoroughbred Express</t>
+    <t>Thoroughbred Express Auto Wash</t>
   </si>
   <si>
     <t>5-Star Car Wash</t>
@@ -673,6 +676,9 @@
     <t>Jimmy Clean’s Express Car Wash</t>
   </si>
   <si>
+    <t>Spin Car Wash</t>
+  </si>
+  <si>
     <t>Bill's Car Wash</t>
   </si>
   <si>
@@ -973,6 +979,9 @@
     <t>Blue Penguin Car Wash</t>
   </si>
   <si>
+    <t>Sunset Car Wash</t>
+  </si>
+  <si>
     <t>Foamy's Car Wash</t>
   </si>
   <si>
@@ -1049,9 +1058,6 @@
   </si>
   <si>
     <t>Grand Prix Car Wash</t>
-  </si>
-  <si>
-    <t>Sunset Car Wash</t>
   </si>
   <si>
     <t>WaterWorks Express Car Wash</t>
@@ -3061,22 +3067,22 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="C68" s="2">
-        <v>44566.0</v>
+        <v>45700.0</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="E68" s="3">
         <v>6.0</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -3085,16 +3091,16 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C69" s="2">
-        <v>44265.0</v>
+        <v>44566.0</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="E69" s="3">
         <v>6.0</v>
@@ -3109,16 +3115,16 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C70" s="2">
-        <v>42779.0</v>
+        <v>44265.0</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E70" s="3">
         <v>6.0</v>
@@ -3133,16 +3139,16 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="C71" s="2">
-        <v>45448.0</v>
+        <v>42779.0</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E71" s="3">
         <v>6.0</v>
@@ -3157,16 +3163,16 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="C72" s="2">
-        <v>42401.0</v>
+        <v>45448.0</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="E72" s="3">
         <v>6.0</v>
@@ -3181,16 +3187,16 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C73" s="4">
-        <v>43762.0</v>
+      <c r="C73" s="2">
+        <v>42401.0</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="E73" s="3">
         <v>6.0</v>
@@ -3205,16 +3211,16 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C74" s="2">
-        <v>44830.0</v>
+      <c r="C74" s="4">
+        <v>43762.0</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E74" s="3">
         <v>6.0</v>
@@ -3229,19 +3235,19 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C75" s="4">
-        <v>44482.0</v>
+      <c r="C75" s="2">
+        <v>44830.0</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="E75" s="3">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>9</v>
@@ -3253,16 +3259,16 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C76" s="2">
-        <v>44322.0</v>
+      <c r="C76" s="4">
+        <v>44482.0</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E76" s="3">
         <v>5.0</v>
@@ -3277,13 +3283,13 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="C77" s="2">
-        <v>44684.0</v>
+        <v>44322.0</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>107</v>
@@ -3301,16 +3307,16 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C78" s="2">
-        <v>43636.0</v>
+        <v>44684.0</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="E78" s="3">
         <v>5.0</v>
@@ -3325,16 +3331,16 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="C79" s="2">
-        <v>44580.0</v>
+        <v>43636.0</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E79" s="3">
         <v>5.0</v>
@@ -3349,16 +3355,16 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C80" s="2">
-        <v>44712.0</v>
+        <v>44580.0</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="E80" s="3">
         <v>5.0</v>
@@ -3373,16 +3379,16 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C81" s="2">
-        <v>44566.0</v>
+        <v>44712.0</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E81" s="3">
         <v>5.0</v>
@@ -3403,10 +3409,10 @@
         <v>144</v>
       </c>
       <c r="C82" s="2">
-        <v>44818.0</v>
+        <v>44566.0</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E82" s="3">
         <v>5.0</v>
@@ -3421,16 +3427,16 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C83" s="2">
-        <v>44475.0</v>
+        <v>44818.0</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="E83" s="3">
         <v>5.0</v>
@@ -3445,16 +3451,16 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C84" s="2">
+        <v>44475.0</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C84" s="2">
-        <v>44477.0</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E84" s="3">
         <v>5.0</v>
@@ -3469,16 +3475,16 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C85" s="2">
-        <v>44539.0</v>
+        <v>44477.0</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E85" s="3">
         <v>5.0</v>
@@ -3499,7 +3505,7 @@
         <v>150</v>
       </c>
       <c r="C86" s="2">
-        <v>44377.0</v>
+        <v>44539.0</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>19</v>
@@ -3517,16 +3523,16 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C87" s="2">
-        <v>44140.0</v>
+        <v>44377.0</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E87" s="3">
         <v>5.0</v>
@@ -3541,16 +3547,16 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>152</v>
+        <v>26</v>
       </c>
       <c r="C88" s="2">
-        <v>44760.0</v>
+        <v>44140.0</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E88" s="3">
         <v>5.0</v>
@@ -3565,16 +3571,16 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="C89" s="2">
-        <v>44805.0</v>
+        <v>44760.0</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="E89" s="3">
         <v>5.0</v>
@@ -3589,16 +3595,16 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="C90" s="2">
-        <v>44042.0</v>
+        <v>44805.0</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="E90" s="3">
         <v>5.0</v>
@@ -3613,13 +3619,13 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="C91" s="2">
-        <v>44562.0</v>
+        <v>44042.0</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>12</v>
@@ -3637,16 +3643,16 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C92" s="2">
-        <v>45397.0</v>
+        <v>44562.0</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="E92" s="3">
         <v>5.0</v>
@@ -3661,13 +3667,13 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>159</v>
       </c>
       <c r="C93" s="2">
-        <v>44538.0</v>
+        <v>45397.0</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>46</v>
@@ -3685,16 +3691,16 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>160</v>
       </c>
       <c r="C94" s="2">
-        <v>42831.0</v>
+        <v>44538.0</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E94" s="3">
         <v>5.0</v>
@@ -3714,11 +3720,11 @@
       <c r="B95" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C95" s="4">
-        <v>44545.0</v>
+      <c r="C95" s="2">
+        <v>42831.0</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="E95" s="3">
         <v>5.0</v>
@@ -3736,13 +3742,13 @@
         <v>26</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C96" s="4">
+        <v>44545.0</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C96" s="2">
-        <v>42929.0</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E96" s="3">
         <v>5.0</v>
@@ -3760,13 +3766,13 @@
         <v>26</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="C97" s="2">
-        <v>42786.0</v>
+        <v>42929.0</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="E97" s="3">
         <v>5.0</v>
@@ -3784,13 +3790,13 @@
         <v>26</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="C98" s="2">
-        <v>44777.0</v>
+        <v>42786.0</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="E98" s="3">
         <v>5.0</v>
@@ -3805,19 +3811,19 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="C99" s="2">
-        <v>45009.0</v>
+        <v>44777.0</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E99" s="3">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>9</v>
@@ -3829,16 +3835,16 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="C100" s="2">
-        <v>44531.0</v>
+        <v>45009.0</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="E100" s="3">
         <v>4.0</v>
@@ -3853,16 +3859,16 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>9</v>
+        <v>169</v>
       </c>
       <c r="C101" s="2">
-        <v>45016.0</v>
+        <v>44531.0</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="E101" s="3">
         <v>4.0</v>
@@ -3877,16 +3883,16 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>170</v>
+        <v>9</v>
       </c>
       <c r="C102" s="2">
-        <v>44362.0</v>
+        <v>45016.0</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E102" s="3">
         <v>4.0</v>
@@ -3907,10 +3913,10 @@
         <v>171</v>
       </c>
       <c r="C103" s="2">
-        <v>43839.0</v>
+        <v>44362.0</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E103" s="3">
         <v>4.0</v>
@@ -3931,10 +3937,10 @@
         <v>172</v>
       </c>
       <c r="C104" s="2">
-        <v>44004.0</v>
+        <v>43839.0</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="E104" s="3">
         <v>4.0</v>
@@ -3955,10 +3961,10 @@
         <v>173</v>
       </c>
       <c r="C105" s="2">
-        <v>44334.0</v>
+        <v>44004.0</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="E105" s="3">
         <v>4.0</v>
@@ -3979,10 +3985,10 @@
         <v>174</v>
       </c>
       <c r="C106" s="2">
-        <v>43839.0</v>
+        <v>44334.0</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E106" s="3">
         <v>4.0</v>
@@ -4003,10 +4009,10 @@
         <v>175</v>
       </c>
       <c r="C107" s="2">
-        <v>44651.0</v>
+        <v>43839.0</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E107" s="3">
         <v>4.0</v>
@@ -4027,10 +4033,10 @@
         <v>176</v>
       </c>
       <c r="C108" s="2">
-        <v>44826.0</v>
+        <v>44651.0</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>177</v>
+        <v>46</v>
       </c>
       <c r="E108" s="3">
         <v>4.0</v>
@@ -4045,16 +4051,16 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C109" s="2">
+        <v>44826.0</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="C109" s="2">
-        <v>44678.0</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E109" s="3">
         <v>4.0</v>
@@ -4069,16 +4075,16 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C110" s="2">
-        <v>44803.0</v>
+        <v>44678.0</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="E110" s="3">
         <v>4.0</v>
@@ -4093,16 +4099,16 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C111" s="2">
+        <v>44803.0</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="C111" s="2">
-        <v>44937.0</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E111" s="3">
         <v>4.0</v>
@@ -4123,10 +4129,10 @@
         <v>182</v>
       </c>
       <c r="C112" s="2">
-        <v>44812.0</v>
+        <v>44937.0</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E112" s="3">
         <v>4.0</v>
@@ -4195,10 +4201,10 @@
         <v>185</v>
       </c>
       <c r="C115" s="2">
-        <v>44617.0</v>
+        <v>44812.0</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E115" s="3">
         <v>4.0</v>
@@ -4219,10 +4225,10 @@
         <v>186</v>
       </c>
       <c r="C116" s="2">
-        <v>44812.0</v>
+        <v>44617.0</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E116" s="3">
         <v>4.0</v>
@@ -4237,16 +4243,16 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>187</v>
       </c>
       <c r="C117" s="2">
-        <v>44567.0</v>
+        <v>44812.0</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E117" s="3">
         <v>4.0</v>
@@ -4266,11 +4272,11 @@
       <c r="B118" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C118" s="4">
-        <v>44546.0</v>
+      <c r="C118" s="2">
+        <v>44567.0</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="E118" s="3">
         <v>4.0</v>
@@ -4291,10 +4297,10 @@
         <v>189</v>
       </c>
       <c r="C119" s="4">
-        <v>43769.0</v>
+        <v>44546.0</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>162</v>
+        <v>92</v>
       </c>
       <c r="E119" s="3">
         <v>4.0</v>
@@ -4309,16 +4315,16 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C120" s="2">
-        <v>42877.0</v>
+      <c r="C120" s="4">
+        <v>43769.0</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="E120" s="3">
         <v>4.0</v>
@@ -4339,10 +4345,10 @@
         <v>191</v>
       </c>
       <c r="C121" s="2">
-        <v>43272.0</v>
+        <v>42877.0</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="E121" s="3">
         <v>4.0</v>
@@ -4360,13 +4366,13 @@
         <v>20</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="C122" s="2">
-        <v>44690.0</v>
+        <v>43272.0</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="E122" s="3">
         <v>4.0</v>
@@ -4381,16 +4387,16 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="C123" s="2">
-        <v>44467.0</v>
+        <v>44690.0</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="E123" s="3">
         <v>4.0</v>
@@ -4404,17 +4410,17 @@
       <c r="J123" s="1"/>
     </row>
     <row r="124">
-      <c r="A124" s="5" t="s">
+      <c r="A124" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="C124" s="2">
-        <v>45135.0</v>
+        <v>44467.0</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="E124" s="3">
         <v>4.0</v>
@@ -4428,17 +4434,17 @@
       <c r="J124" s="1"/>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="s">
-        <v>152</v>
+      <c r="A125" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>9</v>
+        <v>195</v>
       </c>
       <c r="C125" s="2">
-        <v>44697.0</v>
+        <v>45135.0</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E125" s="3">
         <v>4.0</v>
@@ -4453,16 +4459,16 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>196</v>
+        <v>9</v>
       </c>
       <c r="C126" s="2">
-        <v>44789.0</v>
+        <v>44697.0</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="E126" s="3">
         <v>4.0</v>
@@ -4477,16 +4483,16 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C127" s="4">
-        <v>44522.0</v>
+      <c r="C127" s="2">
+        <v>44789.0</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="E127" s="3">
         <v>4.0</v>
@@ -4501,16 +4507,16 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C128" s="2">
-        <v>45026.0</v>
+      <c r="C128" s="4">
+        <v>44522.0</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>201</v>
+        <v>70</v>
       </c>
       <c r="E128" s="3">
         <v>4.0</v>
@@ -4525,16 +4531,16 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>74</v>
+        <v>200</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C129" s="2">
+        <v>45026.0</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="C129" s="4">
-        <v>44552.0</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E129" s="3">
         <v>4.0</v>
@@ -4549,16 +4555,16 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C130" s="4">
-        <v>44497.0</v>
+        <v>44552.0</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="E130" s="3">
         <v>4.0</v>
@@ -4573,16 +4579,16 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C131" s="2">
-        <v>45455.0</v>
+      <c r="C131" s="4">
+        <v>44497.0</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="E131" s="3">
         <v>4.0</v>
@@ -4597,16 +4603,16 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="C132" s="2">
-        <v>44823.0</v>
+        <v>45455.0</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c r="E132" s="3">
         <v>4.0</v>
@@ -4621,16 +4627,16 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="B133" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C133" s="2">
+        <v>44823.0</v>
+      </c>
+      <c r="D133" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="C133" s="4">
-        <v>44552.0</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="E133" s="3">
         <v>4.0</v>
@@ -4650,11 +4656,11 @@
       <c r="B134" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C134" s="2">
-        <v>44606.0</v>
+      <c r="C134" s="4">
+        <v>44552.0</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E134" s="3">
         <v>4.0</v>
@@ -4675,10 +4681,10 @@
         <v>211</v>
       </c>
       <c r="C135" s="2">
-        <v>44781.0</v>
+        <v>44606.0</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E135" s="3">
         <v>4.0</v>
@@ -4693,16 +4699,16 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>212</v>
       </c>
       <c r="C136" s="2">
-        <v>44714.0</v>
+        <v>44781.0</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E136" s="3">
         <v>4.0</v>
@@ -4722,11 +4728,11 @@
       <c r="B137" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C137" s="4">
-        <v>43098.0</v>
+      <c r="C137" s="2">
+        <v>44714.0</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E137" s="3">
         <v>4.0</v>
@@ -4741,19 +4747,19 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C138" s="2">
-        <v>45030.0</v>
+      <c r="C138" s="4">
+        <v>43098.0</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E138" s="3">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>9</v>
@@ -4765,16 +4771,16 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="C139" s="2">
-        <v>45183.0</v>
+        <v>45030.0</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="E139" s="3">
         <v>3.0</v>
@@ -4789,16 +4795,16 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>9</v>
+        <v>217</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>218</v>
       </c>
       <c r="C140" s="2">
-        <v>44958.0</v>
+        <v>45183.0</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="E140" s="3">
         <v>3.0</v>
@@ -4813,16 +4819,16 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>219</v>
       </c>
       <c r="C141" s="2">
-        <v>44704.0</v>
+        <v>44958.0</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="E141" s="3">
         <v>3.0</v>
@@ -4837,16 +4843,16 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C142" s="2">
-        <v>44952.0</v>
+        <v>44704.0</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E142" s="3">
         <v>3.0</v>
@@ -4861,22 +4867,22 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="C143" s="2">
-        <v>45348.0</v>
+        <v>45700.0</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="E143" s="3">
         <v>3.0</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
@@ -4885,16 +4891,16 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
       <c r="C144" s="2">
-        <v>44299.0</v>
+        <v>44952.0</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E144" s="3">
         <v>3.0</v>
@@ -4909,16 +4915,16 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>50</v>
+        <v>223</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>222</v>
+        <v>138</v>
       </c>
       <c r="C145" s="2">
-        <v>44813.0</v>
+        <v>45348.0</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>223</v>
+        <v>107</v>
       </c>
       <c r="E145" s="3">
         <v>3.0</v>
@@ -4933,16 +4939,16 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="C146" s="2">
-        <v>45050.0</v>
+        <v>44299.0</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="E146" s="3">
         <v>3.0</v>
@@ -4957,16 +4963,16 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B147" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C147" s="2">
+        <v>44813.0</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="C147" s="2">
-        <v>44707.0</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="E147" s="3">
         <v>3.0</v>
@@ -4981,16 +4987,16 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C148" s="2">
-        <v>44683.0</v>
+        <v>45050.0</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="E148" s="3">
         <v>3.0</v>
@@ -5005,16 +5011,16 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>227</v>
       </c>
       <c r="C149" s="2">
-        <v>44750.0</v>
+        <v>44707.0</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="E149" s="3">
         <v>3.0</v>
@@ -5029,16 +5035,16 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="C150" s="2">
-        <v>44320.0</v>
+        <v>44683.0</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="E150" s="3">
         <v>3.0</v>
@@ -5053,22 +5059,22 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
-        <v>147</v>
+        <v>52</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="C151" s="2">
-        <v>43405.0</v>
+        <v>44750.0</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="E151" s="3">
         <v>3.0</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>230</v>
+        <v>9</v>
       </c>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
@@ -5077,16 +5083,16 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C152" s="4">
-        <v>44525.0</v>
+      <c r="C152" s="2">
+        <v>44320.0</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="E152" s="3">
         <v>3.0</v>
@@ -5101,22 +5107,22 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C153" s="4">
-        <v>44917.0</v>
+        <v>196</v>
+      </c>
+      <c r="C153" s="2">
+        <v>43405.0</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E153" s="3">
         <v>3.0</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>9</v>
+        <v>232</v>
       </c>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
@@ -5128,13 +5134,13 @@
         <v>20</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C154" s="2">
-        <v>44776.0</v>
+        <v>233</v>
+      </c>
+      <c r="C154" s="4">
+        <v>44525.0</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>233</v>
+        <v>25</v>
       </c>
       <c r="E154" s="3">
         <v>3.0</v>
@@ -5149,16 +5155,16 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C155" s="2">
-        <v>44795.0</v>
+        <v>32</v>
+      </c>
+      <c r="C155" s="4">
+        <v>44917.0</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E155" s="3">
         <v>3.0</v>
@@ -5173,16 +5179,16 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="B156" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C156" s="2">
+        <v>44776.0</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="C156" s="2">
-        <v>44424.0</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="E156" s="3">
         <v>3.0</v>
@@ -5197,16 +5203,16 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="C157" s="2">
-        <v>44978.0</v>
+        <v>44795.0</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E157" s="3">
         <v>3.0</v>
@@ -5221,16 +5227,16 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C158" s="2">
-        <v>44704.0</v>
+        <v>44424.0</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="E158" s="3">
         <v>3.0</v>
@@ -5245,16 +5251,16 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
-        <v>66</v>
+        <v>238</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C159" s="2">
-        <v>44454.0</v>
+        <v>44978.0</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="E159" s="3">
         <v>3.0</v>
@@ -5269,16 +5275,16 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C160" s="4">
-        <v>44847.0</v>
+      <c r="C160" s="2">
+        <v>44704.0</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="E160" s="3">
         <v>3.0</v>
@@ -5293,16 +5299,16 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>133</v>
+        <v>241</v>
       </c>
       <c r="C161" s="2">
-        <v>44379.0</v>
+        <v>44454.0</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="E161" s="3">
         <v>3.0</v>
@@ -5317,22 +5323,22 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
-        <v>241</v>
+        <v>66</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C162" s="2">
-        <v>45014.0</v>
+      <c r="C162" s="4">
+        <v>44847.0</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>243</v>
+        <v>70</v>
       </c>
       <c r="E162" s="3">
         <v>3.0</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>244</v>
+        <v>9</v>
       </c>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
@@ -5341,16 +5347,16 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>245</v>
+        <v>134</v>
       </c>
       <c r="C163" s="2">
-        <v>44305.0</v>
+        <v>44379.0</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="E163" s="3">
         <v>3.0</v>
@@ -5365,22 +5371,22 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
-        <v>48</v>
+        <v>243</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C164" s="2">
-        <v>45328.0</v>
+        <v>45014.0</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E164" s="3">
         <v>3.0</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>9</v>
+        <v>246</v>
       </c>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
@@ -5389,16 +5395,16 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C165" s="2">
-        <v>45301.0</v>
+        <v>44305.0</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E165" s="3">
         <v>3.0</v>
@@ -5413,16 +5419,16 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>248</v>
       </c>
       <c r="C166" s="2">
-        <v>43853.0</v>
+        <v>45328.0</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>25</v>
+        <v>245</v>
       </c>
       <c r="E166" s="3">
         <v>3.0</v>
@@ -5437,16 +5443,16 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C167" s="4">
-        <v>44887.0</v>
+      <c r="C167" s="2">
+        <v>45301.0</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="E167" s="3">
         <v>3.0</v>
@@ -5461,16 +5467,16 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="C168" s="2">
-        <v>44700.0</v>
+        <v>43853.0</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E168" s="3">
         <v>3.0</v>
@@ -5485,16 +5491,16 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C169" s="4">
-        <v>44855.0</v>
+        <v>44887.0</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="E169" s="3">
         <v>3.0</v>
@@ -5509,19 +5515,19 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
-        <v>9</v>
+        <v>252</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>253</v>
       </c>
       <c r="C170" s="2">
-        <v>45231.0</v>
+        <v>44700.0</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E170" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>9</v>
@@ -5533,19 +5539,19 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C171" s="2">
-        <v>44810.0</v>
+      <c r="C171" s="4">
+        <v>44855.0</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E171" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>9</v>
@@ -5557,16 +5563,16 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C172" s="4">
-        <v>44547.0</v>
+      <c r="C172" s="2">
+        <v>45231.0</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>201</v>
+        <v>25</v>
       </c>
       <c r="E172" s="3">
         <v>2.0</v>
@@ -5581,16 +5587,16 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B173" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="C173" s="2">
-        <v>43859.0</v>
+        <v>44810.0</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="E173" s="3">
         <v>2.0</v>
@@ -5605,16 +5611,16 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C174" s="2">
-        <v>45559.0</v>
+        <v>257</v>
+      </c>
+      <c r="C174" s="4">
+        <v>44547.0</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="E174" s="3">
         <v>2.0</v>
@@ -5629,16 +5635,16 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
-        <v>18</v>
+        <v>258</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C175" s="2">
-        <v>45021.0</v>
+        <v>43859.0</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="E175" s="3">
         <v>2.0</v>
@@ -5656,10 +5662,10 @@
         <v>18</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>259</v>
+        <v>150</v>
       </c>
       <c r="C176" s="2">
-        <v>45066.0</v>
+        <v>45559.0</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>19</v>
@@ -5682,8 +5688,8 @@
       <c r="B177" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C177" s="4">
-        <v>45247.0</v>
+      <c r="C177" s="2">
+        <v>45021.0</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>19</v>
@@ -5706,8 +5712,8 @@
       <c r="B178" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C178" s="4">
-        <v>44529.0</v>
+      <c r="C178" s="2">
+        <v>45066.0</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>19</v>
@@ -5725,16 +5731,16 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C179" s="2">
-        <v>45352.0</v>
+      <c r="C179" s="4">
+        <v>45247.0</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E179" s="3">
         <v>2.0</v>
@@ -5749,16 +5755,16 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C180" s="2">
-        <v>44778.0</v>
+      <c r="C180" s="4">
+        <v>44529.0</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E180" s="3">
         <v>2.0</v>
@@ -5773,16 +5779,16 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>264</v>
       </c>
       <c r="C181" s="2">
-        <v>44728.0</v>
+        <v>45352.0</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="E181" s="3">
         <v>2.0</v>
@@ -5797,16 +5803,16 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C182" s="4">
-        <v>45281.0</v>
+      <c r="C182" s="2">
+        <v>44778.0</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E182" s="3">
         <v>2.0</v>
@@ -5821,16 +5827,16 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>266</v>
       </c>
       <c r="C183" s="2">
-        <v>44693.0</v>
+        <v>44728.0</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="E183" s="3">
         <v>2.0</v>
@@ -5845,16 +5851,16 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C184" s="2">
-        <v>43636.0</v>
+      <c r="C184" s="4">
+        <v>45281.0</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="E184" s="3">
         <v>2.0</v>
@@ -5869,16 +5875,16 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>268</v>
       </c>
       <c r="C185" s="2">
-        <v>45530.0</v>
+        <v>44693.0</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="E185" s="3">
         <v>2.0</v>
@@ -5893,16 +5899,16 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C186" s="4">
-        <v>44123.0</v>
+      <c r="C186" s="2">
+        <v>43636.0</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="E186" s="3">
         <v>2.0</v>
@@ -5917,16 +5923,16 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B187" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="C187" s="2">
-        <v>44798.0</v>
+        <v>45530.0</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E187" s="3">
         <v>2.0</v>
@@ -5941,16 +5947,16 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>161</v>
+        <v>271</v>
       </c>
       <c r="C188" s="4">
-        <v>44552.0</v>
+        <v>44123.0</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="E188" s="3">
         <v>2.0</v>
@@ -5965,16 +5971,16 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="s">
-        <v>42</v>
+        <v>272</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C189" s="2">
-        <v>44802.0</v>
+        <v>44798.0</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E189" s="3">
         <v>2.0</v>
@@ -5989,16 +5995,16 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C190" s="2">
-        <v>44231.0</v>
+        <v>162</v>
+      </c>
+      <c r="C190" s="4">
+        <v>44552.0</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E190" s="3">
         <v>2.0</v>
@@ -6019,7 +6025,7 @@
         <v>274</v>
       </c>
       <c r="C191" s="2">
-        <v>43559.0</v>
+        <v>44802.0</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>44</v>
@@ -6037,16 +6043,16 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B192" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="C192" s="2">
-        <v>44821.0</v>
+        <v>44231.0</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>277</v>
+        <v>44</v>
       </c>
       <c r="E192" s="3">
         <v>2.0</v>
@@ -6061,16 +6067,16 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C193" s="2">
-        <v>44650.0</v>
+        <v>43559.0</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="E193" s="3">
         <v>2.0</v>
@@ -6085,16 +6091,16 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="s">
-        <v>66</v>
+        <v>277</v>
       </c>
       <c r="B194" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C194" s="2">
+        <v>44821.0</v>
+      </c>
+      <c r="D194" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="C194" s="2">
-        <v>44701.0</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="E194" s="3">
         <v>2.0</v>
@@ -6109,13 +6115,13 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C195" s="4">
-        <v>44847.0</v>
+      <c r="C195" s="2">
+        <v>44650.0</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>68</v>
@@ -6136,10 +6142,10 @@
         <v>66</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C196" s="2">
-        <v>44727.0</v>
+        <v>44701.0</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>68</v>
@@ -6157,16 +6163,16 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="s">
-        <v>66</v>
+        <v>282</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C197" s="2">
-        <v>44531.0</v>
+      <c r="C197" s="4">
+        <v>44847.0</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="E197" s="3">
         <v>2.0</v>
@@ -6181,16 +6187,16 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C198" s="4">
-        <v>43448.0</v>
+      <c r="C198" s="2">
+        <v>44727.0</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E198" s="3">
         <v>2.0</v>
@@ -6205,16 +6211,16 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C199" s="2">
-        <v>44274.0</v>
+        <v>44531.0</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="E199" s="3">
         <v>2.0</v>
@@ -6229,16 +6235,16 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C200" s="2">
-        <v>44539.0</v>
+      <c r="C200" s="4">
+        <v>43448.0</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>288</v>
+        <v>25</v>
       </c>
       <c r="E200" s="3">
         <v>2.0</v>
@@ -6253,16 +6259,16 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C201" s="2">
-        <v>45356.0</v>
+        <v>44274.0</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E201" s="3">
         <v>2.0</v>
@@ -6277,16 +6283,16 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="B202" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C202" s="2">
+        <v>44539.0</v>
+      </c>
+      <c r="D202" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="C202" s="2">
-        <v>45383.0</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E202" s="3">
         <v>2.0</v>
@@ -6301,16 +6307,16 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>291</v>
       </c>
       <c r="C203" s="2">
-        <v>44823.0</v>
+        <v>45356.0</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E203" s="3">
         <v>2.0</v>
@@ -6325,16 +6331,16 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="C204" s="2">
-        <v>45345.0</v>
+        <v>45383.0</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E204" s="3">
         <v>2.0</v>
@@ -6352,13 +6358,13 @@
         <v>26</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>9</v>
+        <v>293</v>
       </c>
       <c r="C205" s="2">
-        <v>44872.0</v>
+        <v>44823.0</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="E205" s="3">
         <v>2.0</v>
@@ -6373,19 +6379,19 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="C206" s="2">
-        <v>44592.0</v>
+        <v>45345.0</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="E206" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>9</v>
@@ -6397,19 +6403,19 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>293</v>
+        <v>9</v>
       </c>
       <c r="C207" s="2">
-        <v>44958.0</v>
+        <v>44872.0</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="E207" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>9</v>
@@ -6427,10 +6433,10 @@
         <v>294</v>
       </c>
       <c r="C208" s="2">
-        <v>44000.0</v>
+        <v>44592.0</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="E208" s="3">
         <v>1.0</v>
@@ -6451,7 +6457,7 @@
         <v>295</v>
       </c>
       <c r="C209" s="2">
-        <v>45139.0</v>
+        <v>44958.0</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>88</v>
@@ -6475,10 +6481,10 @@
         <v>296</v>
       </c>
       <c r="C210" s="2">
-        <v>44091.0</v>
+        <v>44000.0</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="E210" s="3">
         <v>1.0</v>
@@ -6498,11 +6504,11 @@
       <c r="B211" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C211" s="4">
-        <v>45282.0</v>
+      <c r="C211" s="2">
+        <v>45139.0</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="E211" s="3">
         <v>1.0</v>
@@ -6517,16 +6523,16 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B212" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="C212" s="2">
-        <v>45261.0</v>
+        <v>44091.0</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="E212" s="3">
         <v>1.0</v>
@@ -6541,16 +6547,16 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="s">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C213" s="2">
-        <v>44806.0</v>
+        <v>299</v>
+      </c>
+      <c r="C213" s="4">
+        <v>45282.0</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="E213" s="3">
         <v>1.0</v>
@@ -6565,16 +6571,16 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="s">
-        <v>167</v>
+        <v>300</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C214" s="4">
-        <v>44547.0</v>
+      <c r="C214" s="2">
+        <v>45261.0</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="E214" s="3">
         <v>1.0</v>
@@ -6589,16 +6595,16 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>302</v>
       </c>
       <c r="C215" s="2">
-        <v>45030.0</v>
+        <v>44806.0</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="E215" s="3">
         <v>1.0</v>
@@ -6613,16 +6619,16 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>303</v>
       </c>
       <c r="C216" s="4">
-        <v>44524.0</v>
+        <v>44547.0</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>122</v>
+        <v>202</v>
       </c>
       <c r="E216" s="3">
         <v>1.0</v>
@@ -6637,16 +6643,16 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="s">
-        <v>29</v>
+        <v>217</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>304</v>
       </c>
       <c r="C217" s="2">
-        <v>44208.0</v>
+        <v>45030.0</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="E217" s="3">
         <v>1.0</v>
@@ -6664,13 +6670,13 @@
         <v>29</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>176</v>
+        <v>305</v>
       </c>
       <c r="C218" s="4">
-        <v>44496.0</v>
+        <v>44524.0</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c r="E218" s="3">
         <v>1.0</v>
@@ -6688,13 +6694,13 @@
         <v>29</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C219" s="2">
-        <v>44112.0</v>
+        <v>44208.0</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="E219" s="3">
         <v>1.0</v>
@@ -6709,16 +6715,16 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C220" s="2">
-        <v>45121.0</v>
+        <v>177</v>
+      </c>
+      <c r="C220" s="4">
+        <v>44496.0</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="E220" s="3">
         <v>1.0</v>
@@ -6733,16 +6739,16 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>307</v>
       </c>
       <c r="C221" s="2">
-        <v>45559.0</v>
+        <v>44112.0</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E221" s="3">
         <v>1.0</v>
@@ -6757,16 +6763,16 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>166</v>
+        <v>308</v>
       </c>
       <c r="C222" s="2">
-        <v>45559.0</v>
+        <v>45121.0</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="E222" s="3">
         <v>1.0</v>
@@ -6784,10 +6790,10 @@
         <v>18</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C223" s="2">
-        <v>45365.0</v>
+        <v>45559.0</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>19</v>
@@ -6808,10 +6814,10 @@
         <v>18</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>309</v>
+        <v>167</v>
       </c>
       <c r="C224" s="2">
-        <v>44768.0</v>
+        <v>45559.0</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>19</v>
@@ -6853,16 +6859,16 @@
     </row>
     <row r="226">
       <c r="A226" s="1" t="s">
-        <v>221</v>
+        <v>18</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>311</v>
       </c>
       <c r="C226" s="2">
-        <v>44979.0</v>
+        <v>44768.0</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="E226" s="3">
         <v>1.0</v>
@@ -6877,16 +6883,16 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C227" s="2">
-        <v>44763.0</v>
+        <v>45365.0</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E227" s="3">
         <v>1.0</v>
@@ -6901,16 +6907,16 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="s">
-        <v>50</v>
+        <v>223</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>313</v>
       </c>
       <c r="C228" s="2">
-        <v>44957.0</v>
+        <v>44979.0</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="E228" s="3">
         <v>1.0</v>
@@ -6931,10 +6937,10 @@
         <v>314</v>
       </c>
       <c r="C229" s="2">
-        <v>44868.0</v>
+        <v>44763.0</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E229" s="3">
         <v>1.0</v>
@@ -6949,16 +6955,16 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>315</v>
       </c>
       <c r="C230" s="2">
-        <v>44681.0</v>
+        <v>44957.0</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="E230" s="3">
         <v>1.0</v>
@@ -6973,16 +6979,16 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>316</v>
       </c>
       <c r="C231" s="2">
-        <v>44953.0</v>
+        <v>44868.0</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E231" s="3">
         <v>1.0</v>
@@ -6997,16 +7003,16 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B232" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B232" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="C232" s="2">
-        <v>45532.0</v>
+        <v>44681.0</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="E232" s="3">
         <v>1.0</v>
@@ -7021,16 +7027,16 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="s">
-        <v>317</v>
+        <v>63</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C233" s="4">
-        <v>45611.0</v>
+        <v>318</v>
+      </c>
+      <c r="C233" s="2">
+        <v>44953.0</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E233" s="3">
         <v>1.0</v>
@@ -7045,16 +7051,16 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="s">
-        <v>74</v>
+        <v>319</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>320</v>
       </c>
       <c r="C234" s="2">
-        <v>44805.0</v>
+        <v>45532.0</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="E234" s="3">
         <v>1.0</v>
@@ -7069,16 +7075,16 @@
     </row>
     <row r="235">
       <c r="A235" s="1" t="s">
-        <v>7</v>
+        <v>319</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C235" s="2">
-        <v>44679.0</v>
+      <c r="C235" s="4">
+        <v>45611.0</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E235" s="3">
         <v>1.0</v>
@@ -7093,13 +7099,13 @@
     </row>
     <row r="236">
       <c r="A236" s="1" t="s">
-        <v>7</v>
+        <v>319</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>322</v>
       </c>
       <c r="C236" s="2">
-        <v>44707.0</v>
+        <v>45695.0</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>19</v>
@@ -7117,16 +7123,16 @@
     </row>
     <row r="237">
       <c r="A237" s="1" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>323</v>
       </c>
       <c r="C237" s="2">
-        <v>45568.0</v>
+        <v>44805.0</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="E237" s="3">
         <v>1.0</v>
@@ -7141,16 +7147,16 @@
     </row>
     <row r="238">
       <c r="A238" s="1" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C238" s="4">
-        <v>44861.0</v>
+      <c r="C238" s="2">
+        <v>44679.0</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E238" s="3">
         <v>1.0</v>
@@ -7165,13 +7171,13 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>325</v>
       </c>
       <c r="C239" s="2">
-        <v>44935.0</v>
+        <v>44707.0</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>19</v>
@@ -7192,13 +7198,13 @@
         <v>52</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>64</v>
+        <v>326</v>
       </c>
       <c r="C240" s="2">
-        <v>44784.0</v>
+        <v>45568.0</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E240" s="3">
         <v>1.0</v>
@@ -7216,10 +7222,10 @@
         <v>52</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C241" s="2">
-        <v>44784.0</v>
+        <v>327</v>
+      </c>
+      <c r="C241" s="4">
+        <v>44861.0</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>19</v>
@@ -7240,13 +7246,13 @@
         <v>52</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C242" s="4">
-        <v>44551.0</v>
+        <v>328</v>
+      </c>
+      <c r="C242" s="2">
+        <v>44935.0</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="E242" s="3">
         <v>1.0</v>
@@ -7264,10 +7270,10 @@
         <v>52</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>328</v>
+        <v>64</v>
       </c>
       <c r="C243" s="2">
-        <v>44750.0</v>
+        <v>44784.0</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>19</v>
@@ -7285,22 +7291,22 @@
     </row>
     <row r="244">
       <c r="A244" s="1" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>329</v>
       </c>
       <c r="C244" s="2">
-        <v>45200.0</v>
+        <v>44784.0</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E244" s="3">
         <v>1.0</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>330</v>
+        <v>9</v>
       </c>
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
@@ -7309,16 +7315,16 @@
     </row>
     <row r="245">
       <c r="A245" s="1" t="s">
-        <v>228</v>
+        <v>52</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C245" s="2">
-        <v>44609.0</v>
+        <v>330</v>
+      </c>
+      <c r="C245" s="4">
+        <v>44551.0</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="E245" s="3">
         <v>1.0</v>
@@ -7333,16 +7339,16 @@
     </row>
     <row r="246">
       <c r="A246" s="1" t="s">
-        <v>332</v>
+        <v>52</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C246" s="2">
-        <v>45052.0</v>
+        <v>44750.0</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E246" s="3">
         <v>1.0</v>
@@ -7357,22 +7363,22 @@
     </row>
     <row r="247">
       <c r="A247" s="1" t="s">
-        <v>334</v>
+        <v>9</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C247" s="4">
-        <v>44915.0</v>
+        <v>332</v>
+      </c>
+      <c r="C247" s="2">
+        <v>45200.0</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E247" s="3">
         <v>1.0</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>9</v>
+        <v>333</v>
       </c>
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
@@ -7381,16 +7387,16 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="s">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C248" s="2">
-        <v>44669.0</v>
+        <v>44609.0</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="E248" s="3">
         <v>1.0</v>
@@ -7405,16 +7411,16 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="s">
-        <v>20</v>
+        <v>335</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>336</v>
       </c>
       <c r="C249" s="2">
-        <v>44398.0</v>
+        <v>45052.0</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E249" s="3">
         <v>1.0</v>
@@ -7429,16 +7435,16 @@
     </row>
     <row r="250">
       <c r="A250" s="1" t="s">
-        <v>129</v>
+        <v>337</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>337</v>
+        <v>9</v>
       </c>
       <c r="C250" s="4">
-        <v>44557.0</v>
+        <v>44915.0</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="E250" s="3">
         <v>1.0</v>
@@ -7453,16 +7459,16 @@
     </row>
     <row r="251">
       <c r="A251" s="1" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C251" s="4">
-        <v>45281.0</v>
+      <c r="C251" s="2">
+        <v>44669.0</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="E251" s="3">
         <v>1.0</v>
@@ -7477,16 +7483,16 @@
     </row>
     <row r="252">
       <c r="A252" s="1" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>339</v>
       </c>
       <c r="C252" s="2">
-        <v>44742.0</v>
+        <v>44398.0</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="E252" s="3">
         <v>1.0</v>
@@ -7501,13 +7507,13 @@
     </row>
     <row r="253">
       <c r="A253" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C253" s="2">
-        <v>44446.0</v>
+      <c r="C253" s="4">
+        <v>44557.0</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>88</v>
@@ -7525,13 +7531,13 @@
     </row>
     <row r="254">
       <c r="A254" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C254" s="2">
-        <v>44756.0</v>
+      <c r="C254" s="4">
+        <v>45281.0</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>88</v>
@@ -7549,13 +7555,13 @@
     </row>
     <row r="255">
       <c r="A255" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>342</v>
       </c>
       <c r="C255" s="2">
-        <v>45092.0</v>
+        <v>44742.0</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>88</v>
@@ -7573,16 +7579,16 @@
     </row>
     <row r="256">
       <c r="A256" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B256" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B256" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="C256" s="2">
-        <v>44532.0</v>
+        <v>44446.0</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E256" s="3">
         <v>1.0</v>
@@ -7597,16 +7603,16 @@
     </row>
     <row r="257">
       <c r="A257" s="1" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>283</v>
+        <v>344</v>
       </c>
       <c r="C257" s="2">
-        <v>44958.0</v>
+        <v>44756.0</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="E257" s="3">
         <v>1.0</v>
@@ -7621,16 +7627,16 @@
     </row>
     <row r="258">
       <c r="A258" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>345</v>
       </c>
       <c r="C258" s="2">
-        <v>45524.0</v>
+        <v>45092.0</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="E258" s="3">
         <v>1.0</v>
@@ -7645,16 +7651,16 @@
     </row>
     <row r="259">
       <c r="A259" s="1" t="s">
-        <v>131</v>
+        <v>346</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C259" s="2">
-        <v>45530.0</v>
+        <v>44532.0</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E259" s="3">
         <v>1.0</v>
@@ -7669,13 +7675,13 @@
     </row>
     <row r="260">
       <c r="A260" s="1" t="s">
-        <v>131</v>
+        <v>196</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>347</v>
+        <v>285</v>
       </c>
       <c r="C260" s="2">
-        <v>44833.0</v>
+        <v>44958.0</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>39</v>
@@ -7693,16 +7699,16 @@
     </row>
     <row r="261">
       <c r="A261" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>348</v>
       </c>
       <c r="C261" s="2">
-        <v>45141.0</v>
+        <v>45524.0</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="E261" s="3">
         <v>1.0</v>
@@ -7717,16 +7723,16 @@
     </row>
     <row r="262">
       <c r="A262" s="1" t="s">
-        <v>349</v>
+        <v>132</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="C262" s="2">
-        <v>42026.0</v>
+        <v>45530.0</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="E262" s="3">
         <v>1.0</v>
@@ -7741,13 +7747,13 @@
     </row>
     <row r="263">
       <c r="A263" s="1" t="s">
-        <v>199</v>
+        <v>132</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C263" s="2">
-        <v>45064.0</v>
+        <v>44833.0</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>39</v>
@@ -7765,16 +7771,16 @@
     </row>
     <row r="264">
       <c r="A264" s="1" t="s">
-        <v>352</v>
+        <v>132</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C264" s="2">
-        <v>44873.0</v>
+        <v>45141.0</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>354</v>
+        <v>98</v>
       </c>
       <c r="E264" s="3">
         <v>1.0</v>
@@ -7789,16 +7795,16 @@
     </row>
     <row r="265">
       <c r="A265" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C265" s="2">
-        <v>43770.0</v>
+        <v>42026.0</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E265" s="3">
         <v>1.0</v>
@@ -7813,16 +7819,16 @@
     </row>
     <row r="266">
       <c r="A266" s="1" t="s">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C266" s="2">
-        <v>44763.0</v>
+        <v>45064.0</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E266" s="3">
         <v>1.0</v>
@@ -7837,16 +7843,16 @@
     </row>
     <row r="267">
       <c r="A267" s="1" t="s">
-        <v>42</v>
+        <v>354</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C267" s="2">
-        <v>44781.0</v>
+        <v>44873.0</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>44</v>
+        <v>356</v>
       </c>
       <c r="E267" s="3">
         <v>1.0</v>
@@ -7861,16 +7867,16 @@
     </row>
     <row r="268">
       <c r="A268" s="1" t="s">
-        <v>42</v>
+        <v>357</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C268" s="2">
-        <v>44978.0</v>
+        <v>43770.0</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E268" s="3">
         <v>1.0</v>
@@ -7888,10 +7894,10 @@
         <v>42</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C269" s="4">
-        <v>44515.0</v>
+        <v>359</v>
+      </c>
+      <c r="C269" s="2">
+        <v>44763.0</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>44</v>
@@ -7912,10 +7918,10 @@
         <v>42</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C270" s="2">
-        <v>43598.0</v>
+        <v>44781.0</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>44</v>
@@ -7936,13 +7942,13 @@
         <v>42</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C271" s="2">
-        <v>44231.0</v>
+        <v>44978.0</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>363</v>
+        <v>44</v>
       </c>
       <c r="E271" s="3">
         <v>1.0</v>
@@ -7957,16 +7963,16 @@
     </row>
     <row r="272">
       <c r="A272" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C272" s="4">
-        <v>44923.0</v>
+        <v>44515.0</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="E272" s="3">
         <v>1.0</v>
@@ -7981,16 +7987,16 @@
     </row>
     <row r="273">
       <c r="A273" s="1" t="s">
-        <v>365</v>
+        <v>42</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C273" s="2">
-        <v>44767.0</v>
+        <v>43598.0</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="E273" s="3">
         <v>1.0</v>
@@ -8005,16 +8011,16 @@
     </row>
     <row r="274">
       <c r="A274" s="1" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C274" s="2">
-        <v>45413.0</v>
+        <v>44231.0</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>44</v>
+        <v>365</v>
       </c>
       <c r="E274" s="3">
         <v>1.0</v>
@@ -8029,16 +8035,16 @@
     </row>
     <row r="275">
       <c r="A275" s="1" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C275" s="2">
-        <v>44753.0</v>
+        <v>366</v>
+      </c>
+      <c r="C275" s="4">
+        <v>44923.0</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="E275" s="3">
         <v>1.0</v>
@@ -8053,16 +8059,16 @@
     </row>
     <row r="276">
       <c r="A276" s="1" t="s">
-        <v>9</v>
+        <v>367</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C276" s="2">
-        <v>45539.0</v>
+        <v>44767.0</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="E276" s="3">
         <v>1.0</v>
@@ -8080,10 +8086,10 @@
         <v>9</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C277" s="2">
-        <v>44208.0</v>
+        <v>45413.0</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>44</v>
@@ -8101,16 +8107,16 @@
     </row>
     <row r="278">
       <c r="A278" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C278" s="2">
-        <v>44236.0</v>
+        <v>44753.0</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="E278" s="3">
         <v>1.0</v>
@@ -8128,13 +8134,13 @@
         <v>9</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C279" s="2">
-        <v>44291.0</v>
+        <v>45539.0</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="E279" s="3">
         <v>1.0</v>
@@ -8149,16 +8155,16 @@
     </row>
     <row r="280">
       <c r="A280" s="1" t="s">
-        <v>373</v>
+        <v>9</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C280" s="2">
-        <v>44435.0</v>
+        <v>44208.0</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="E280" s="3">
         <v>1.0</v>
@@ -8173,16 +8179,16 @@
     </row>
     <row r="281">
       <c r="A281" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B281" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B281" s="1" t="s">
-        <v>375</v>
-      </c>
       <c r="C281" s="2">
-        <v>43314.0</v>
+        <v>44236.0</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E281" s="3">
         <v>1.0</v>
@@ -8197,13 +8203,13 @@
     </row>
     <row r="282">
       <c r="A282" s="1" t="s">
-        <v>376</v>
+        <v>9</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C282" s="2">
-        <v>45182.0</v>
+        <v>44291.0</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>37</v>
@@ -8221,16 +8227,16 @@
     </row>
     <row r="283">
       <c r="A283" s="1" t="s">
-        <v>48</v>
+        <v>375</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C283" s="2">
-        <v>45356.0</v>
+        <v>44435.0</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="E283" s="3">
         <v>1.0</v>
@@ -8245,16 +8251,16 @@
     </row>
     <row r="284">
       <c r="A284" s="1" t="s">
-        <v>48</v>
+        <v>375</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C284" s="2">
-        <v>45328.0</v>
+        <v>43314.0</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="E284" s="3">
         <v>1.0</v>
@@ -8269,16 +8275,16 @@
     </row>
     <row r="285">
       <c r="A285" s="1" t="s">
-        <v>24</v>
+        <v>378</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C285" s="2">
-        <v>45091.0</v>
+        <v>45182.0</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="E285" s="3">
         <v>1.0</v>
@@ -8293,16 +8299,16 @@
     </row>
     <row r="286">
       <c r="A286" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C286" s="2">
-        <v>45001.0</v>
+        <v>45356.0</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E286" s="3">
         <v>1.0</v>
@@ -8317,16 +8323,16 @@
     </row>
     <row r="287">
       <c r="A287" s="1" t="s">
-        <v>382</v>
+        <v>48</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C287" s="2">
-        <v>45055.0</v>
+        <v>45328.0</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E287" s="3">
         <v>1.0</v>
@@ -8341,16 +8347,16 @@
     </row>
     <row r="288">
       <c r="A288" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C288" s="2">
-        <v>45121.0</v>
+        <v>45091.0</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="E288" s="3">
         <v>1.0</v>
@@ -8365,13 +8371,13 @@
     </row>
     <row r="289">
       <c r="A289" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>160</v>
+        <v>383</v>
       </c>
       <c r="C289" s="2">
-        <v>42916.0</v>
+        <v>45001.0</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>25</v>
@@ -8389,16 +8395,16 @@
     </row>
     <row r="290">
       <c r="A290" s="1" t="s">
-        <v>26</v>
+        <v>384</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>33</v>
+        <v>385</v>
       </c>
       <c r="C290" s="2">
-        <v>42958.0</v>
+        <v>45055.0</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="E290" s="3">
         <v>1.0</v>
@@ -8413,13 +8419,13 @@
     </row>
     <row r="291">
       <c r="A291" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C291" s="2">
-        <v>44750.0</v>
+        <v>45121.0</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>25</v>
@@ -8440,13 +8446,13 @@
         <v>26</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>386</v>
+        <v>161</v>
       </c>
       <c r="C292" s="2">
-        <v>43126.0</v>
+        <v>42916.0</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>387</v>
+        <v>25</v>
       </c>
       <c r="E292" s="3">
         <v>1.0</v>
@@ -8460,36 +8466,72 @@
       <c r="J292" s="1"/>
     </row>
     <row r="293">
-      <c r="A293" s="1"/>
-      <c r="B293" s="1"/>
-      <c r="C293" s="1"/>
-      <c r="D293" s="1"/>
-      <c r="E293" s="1"/>
-      <c r="F293" s="1"/>
+      <c r="A293" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C293" s="2">
+        <v>42958.0</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E293" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
       <c r="I293" s="1"/>
       <c r="J293" s="1"/>
     </row>
     <row r="294">
-      <c r="A294" s="1"/>
-      <c r="B294" s="1"/>
-      <c r="C294" s="1"/>
-      <c r="D294" s="1"/>
-      <c r="E294" s="1"/>
-      <c r="F294" s="1"/>
+      <c r="A294" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C294" s="2">
+        <v>44750.0</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E294" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
       <c r="I294" s="1"/>
       <c r="J294" s="1"/>
     </row>
     <row r="295">
-      <c r="A295" s="1"/>
-      <c r="B295" s="1"/>
-      <c r="C295" s="1"/>
-      <c r="D295" s="1"/>
-      <c r="E295" s="1"/>
-      <c r="F295" s="1"/>
+      <c r="A295" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C295" s="2">
+        <v>43126.0</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E295" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
       <c r="I295" s="1"/>
@@ -16957,7 +16999,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A124"/>
+    <hyperlink r:id="rId1" ref="A125"/>
   </hyperlinks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/Car_Wash_Advisory_Top_Acquisitions.xlsx
+++ b/Car_Wash_Advisory_Top_Acquisitions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="389">
   <si>
     <t>Purchasing Company</t>
   </si>
@@ -389,9 +389,6 @@
   </si>
   <si>
     <t>Snappy Express Car Wash</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>Quicky Car Wash</t>
@@ -3082,7 +3079,7 @@
         <v>6.0</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -3094,7 +3091,7 @@
         <v>74</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C69" s="2">
         <v>44566.0</v>
@@ -3118,7 +3115,7 @@
         <v>52</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C70" s="2">
         <v>44265.0</v>
@@ -3142,7 +3139,7 @@
         <v>20</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C71" s="2">
         <v>42779.0</v>
@@ -3163,10 +3160,10 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C72" s="2">
         <v>45448.0</v>
@@ -3187,10 +3184,10 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C73" s="2">
         <v>42401.0</v>
@@ -3214,7 +3211,7 @@
         <v>11</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C74" s="4">
         <v>43762.0</v>
@@ -3238,7 +3235,7 @@
         <v>26</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C75" s="2">
         <v>44830.0</v>
@@ -3262,7 +3259,7 @@
         <v>29</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C76" s="4">
         <v>44482.0</v>
@@ -3283,10 +3280,10 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="C77" s="2">
         <v>44322.0</v>
@@ -3307,10 +3304,10 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="C78" s="2">
         <v>44684.0</v>
@@ -3334,7 +3331,7 @@
         <v>50</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C79" s="2">
         <v>43636.0</v>
@@ -3355,10 +3352,10 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C80" s="2">
         <v>44580.0</v>
@@ -3382,7 +3379,7 @@
         <v>63</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C81" s="2">
         <v>44712.0</v>
@@ -3406,7 +3403,7 @@
         <v>74</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C82" s="2">
         <v>44566.0</v>
@@ -3430,7 +3427,7 @@
         <v>74</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C83" s="2">
         <v>44818.0</v>
@@ -3454,13 +3451,13 @@
         <v>7</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C84" s="2">
         <v>44475.0</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E84" s="3">
         <v>5.0</v>
@@ -3475,10 +3472,10 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="C85" s="2">
         <v>44477.0</v>
@@ -3502,7 +3499,7 @@
         <v>20</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C86" s="2">
         <v>44539.0</v>
@@ -3526,7 +3523,7 @@
         <v>20</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C87" s="2">
         <v>44377.0</v>
@@ -3547,7 +3544,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>26</v>
@@ -3574,7 +3571,7 @@
         <v>94</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C89" s="2">
         <v>44760.0</v>
@@ -3595,16 +3592,16 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="C90" s="2">
         <v>44805.0</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E90" s="3">
         <v>5.0</v>
@@ -3622,7 +3619,7 @@
         <v>11</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C91" s="2">
         <v>44042.0</v>
@@ -3643,10 +3640,10 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="C92" s="2">
         <v>44562.0</v>
@@ -3670,7 +3667,7 @@
         <v>48</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C93" s="2">
         <v>45397.0</v>
@@ -3694,7 +3691,7 @@
         <v>24</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C94" s="2">
         <v>44538.0</v>
@@ -3718,7 +3715,7 @@
         <v>26</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C95" s="2">
         <v>42831.0</v>
@@ -3742,13 +3739,13 @@
         <v>26</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C96" s="4">
         <v>44545.0</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E96" s="3">
         <v>5.0</v>
@@ -3766,7 +3763,7 @@
         <v>26</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C97" s="2">
         <v>42929.0</v>
@@ -3796,7 +3793,7 @@
         <v>42786.0</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E98" s="3">
         <v>5.0</v>
@@ -3814,7 +3811,7 @@
         <v>26</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C99" s="2">
         <v>44777.0</v>
@@ -3835,10 +3832,10 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="C100" s="2">
         <v>45009.0</v>
@@ -3859,16 +3856,16 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="C101" s="2">
         <v>44531.0</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E101" s="3">
         <v>4.0</v>
@@ -3910,7 +3907,7 @@
         <v>29</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C103" s="2">
         <v>44362.0</v>
@@ -3934,7 +3931,7 @@
         <v>29</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C104" s="2">
         <v>43839.0</v>
@@ -3958,13 +3955,13 @@
         <v>29</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C105" s="2">
         <v>44004.0</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E105" s="3">
         <v>4.0</v>
@@ -3982,7 +3979,7 @@
         <v>29</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C106" s="2">
         <v>44334.0</v>
@@ -4006,7 +4003,7 @@
         <v>29</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C107" s="2">
         <v>43839.0</v>
@@ -4030,7 +4027,7 @@
         <v>29</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C108" s="2">
         <v>44651.0</v>
@@ -4054,13 +4051,13 @@
         <v>29</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C109" s="2">
         <v>44826.0</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E109" s="3">
         <v>4.0</v>
@@ -4078,7 +4075,7 @@
         <v>50</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C110" s="2">
         <v>44678.0</v>
@@ -4102,13 +4099,13 @@
         <v>63</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C111" s="2">
         <v>44803.0</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E111" s="3">
         <v>4.0</v>
@@ -4126,7 +4123,7 @@
         <v>7</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C112" s="2">
         <v>44937.0</v>
@@ -4150,7 +4147,7 @@
         <v>7</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C113" s="2">
         <v>44812.0</v>
@@ -4174,7 +4171,7 @@
         <v>7</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C114" s="2">
         <v>44812.0</v>
@@ -4198,7 +4195,7 @@
         <v>7</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C115" s="2">
         <v>44812.0</v>
@@ -4222,7 +4219,7 @@
         <v>7</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C116" s="2">
         <v>44617.0</v>
@@ -4246,7 +4243,7 @@
         <v>7</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C117" s="2">
         <v>44812.0</v>
@@ -4270,7 +4267,7 @@
         <v>52</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C118" s="2">
         <v>44567.0</v>
@@ -4294,7 +4291,7 @@
         <v>52</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C119" s="4">
         <v>44546.0</v>
@@ -4318,13 +4315,13 @@
         <v>52</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C120" s="4">
         <v>43769.0</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E120" s="3">
         <v>4.0</v>
@@ -4342,7 +4339,7 @@
         <v>20</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C121" s="2">
         <v>42877.0</v>
@@ -4366,13 +4363,13 @@
         <v>20</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C122" s="2">
         <v>43272.0</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E122" s="3">
         <v>4.0</v>
@@ -4390,7 +4387,7 @@
         <v>20</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C123" s="2">
         <v>44690.0</v>
@@ -4411,10 +4408,10 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C124" s="2">
         <v>44467.0</v>
@@ -4435,10 +4432,10 @@
     </row>
     <row r="125">
       <c r="A125" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="C125" s="2">
         <v>45135.0</v>
@@ -4459,7 +4456,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>9</v>
@@ -4483,16 +4480,16 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="C127" s="2">
         <v>44789.0</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E127" s="3">
         <v>4.0</v>
@@ -4507,10 +4504,10 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="C128" s="4">
         <v>44522.0</v>
@@ -4531,16 +4528,16 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="C129" s="2">
         <v>45026.0</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E129" s="3">
         <v>4.0</v>
@@ -4558,7 +4555,7 @@
         <v>74</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C130" s="4">
         <v>44552.0</v>
@@ -4582,7 +4579,7 @@
         <v>42</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C131" s="4">
         <v>44497.0</v>
@@ -4603,16 +4600,16 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="C132" s="2">
         <v>45455.0</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E132" s="3">
         <v>4.0</v>
@@ -4627,16 +4624,16 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="C133" s="2">
         <v>44823.0</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E133" s="3">
         <v>4.0</v>
@@ -4654,7 +4651,7 @@
         <v>24</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C134" s="4">
         <v>44552.0</v>
@@ -4678,7 +4675,7 @@
         <v>24</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C135" s="2">
         <v>44606.0</v>
@@ -4702,7 +4699,7 @@
         <v>24</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C136" s="2">
         <v>44781.0</v>
@@ -4726,7 +4723,7 @@
         <v>26</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C137" s="2">
         <v>44714.0</v>
@@ -4750,7 +4747,7 @@
         <v>26</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C138" s="4">
         <v>43098.0</v>
@@ -4771,10 +4768,10 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="C139" s="2">
         <v>45030.0</v>
@@ -4795,10 +4792,10 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="C140" s="2">
         <v>45183.0</v>
@@ -4822,13 +4819,13 @@
         <v>9</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C141" s="2">
         <v>44958.0</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E141" s="3">
         <v>3.0</v>
@@ -4846,7 +4843,7 @@
         <v>29</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C142" s="2">
         <v>44704.0</v>
@@ -4870,7 +4867,7 @@
         <v>18</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C143" s="2">
         <v>45700.0</v>
@@ -4882,7 +4879,7 @@
         <v>3.0</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
@@ -4894,7 +4891,7 @@
         <v>18</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C144" s="2">
         <v>44952.0</v>
@@ -4915,10 +4912,10 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C145" s="2">
         <v>45348.0</v>
@@ -4942,7 +4939,7 @@
         <v>50</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C146" s="2">
         <v>44299.0</v>
@@ -4966,13 +4963,13 @@
         <v>50</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C147" s="2">
         <v>44813.0</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E147" s="3">
         <v>3.0</v>
@@ -4990,13 +4987,13 @@
         <v>108</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C148" s="2">
         <v>45050.0</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E148" s="3">
         <v>3.0</v>
@@ -5014,7 +5011,7 @@
         <v>7</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C149" s="2">
         <v>44707.0</v>
@@ -5038,7 +5035,7 @@
         <v>52</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C150" s="2">
         <v>44683.0</v>
@@ -5062,7 +5059,7 @@
         <v>52</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C151" s="2">
         <v>44750.0</v>
@@ -5083,10 +5080,10 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="C152" s="2">
         <v>44320.0</v>
@@ -5107,10 +5104,10 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C153" s="2">
         <v>43405.0</v>
@@ -5122,7 +5119,7 @@
         <v>3.0</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
@@ -5134,7 +5131,7 @@
         <v>20</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C154" s="4">
         <v>44525.0</v>
@@ -5182,13 +5179,13 @@
         <v>20</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C156" s="2">
         <v>44776.0</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E156" s="3">
         <v>3.0</v>
@@ -5203,10 +5200,10 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C157" s="2">
         <v>44795.0</v>
@@ -5227,16 +5224,16 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C158" s="2">
         <v>44424.0</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E158" s="3">
         <v>3.0</v>
@@ -5251,10 +5248,10 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="C159" s="2">
         <v>44978.0</v>
@@ -5278,7 +5275,7 @@
         <v>42</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C160" s="2">
         <v>44704.0</v>
@@ -5302,7 +5299,7 @@
         <v>66</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C161" s="2">
         <v>44454.0</v>
@@ -5326,7 +5323,7 @@
         <v>66</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C162" s="4">
         <v>44847.0</v>
@@ -5350,7 +5347,7 @@
         <v>11</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C163" s="2">
         <v>44379.0</v>
@@ -5371,22 +5368,22 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C164" s="2">
         <v>45014.0</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E164" s="3">
         <v>3.0</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
@@ -5398,7 +5395,7 @@
         <v>9</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C165" s="2">
         <v>44305.0</v>
@@ -5422,13 +5419,13 @@
         <v>48</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C166" s="2">
         <v>45328.0</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E166" s="3">
         <v>3.0</v>
@@ -5446,7 +5443,7 @@
         <v>48</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C167" s="2">
         <v>45301.0</v>
@@ -5470,7 +5467,7 @@
         <v>24</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C168" s="2">
         <v>43853.0</v>
@@ -5494,7 +5491,7 @@
         <v>24</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C169" s="4">
         <v>44887.0</v>
@@ -5515,10 +5512,10 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="C170" s="2">
         <v>44700.0</v>
@@ -5542,7 +5539,7 @@
         <v>26</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C171" s="4">
         <v>44855.0</v>
@@ -5566,7 +5563,7 @@
         <v>9</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C172" s="2">
         <v>45231.0</v>
@@ -5590,7 +5587,7 @@
         <v>61</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C173" s="2">
         <v>44810.0</v>
@@ -5611,16 +5608,16 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C174" s="4">
         <v>44547.0</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E174" s="3">
         <v>2.0</v>
@@ -5635,16 +5632,16 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="C175" s="2">
         <v>43859.0</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E175" s="3">
         <v>2.0</v>
@@ -5662,7 +5659,7 @@
         <v>18</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C176" s="2">
         <v>45559.0</v>
@@ -5686,7 +5683,7 @@
         <v>18</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C177" s="2">
         <v>45021.0</v>
@@ -5710,7 +5707,7 @@
         <v>18</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C178" s="2">
         <v>45066.0</v>
@@ -5734,7 +5731,7 @@
         <v>18</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C179" s="4">
         <v>45247.0</v>
@@ -5758,7 +5755,7 @@
         <v>18</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C180" s="4">
         <v>44529.0</v>
@@ -5779,10 +5776,10 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C181" s="2">
         <v>45352.0</v>
@@ -5806,7 +5803,7 @@
         <v>74</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C182" s="2">
         <v>44778.0</v>
@@ -5830,13 +5827,13 @@
         <v>7</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C183" s="2">
         <v>44728.0</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E183" s="3">
         <v>2.0</v>
@@ -5854,7 +5851,7 @@
         <v>52</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C184" s="4">
         <v>45281.0</v>
@@ -5878,7 +5875,7 @@
         <v>52</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C185" s="2">
         <v>44693.0</v>
@@ -5902,13 +5899,13 @@
         <v>20</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C186" s="2">
         <v>43636.0</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E186" s="3">
         <v>2.0</v>
@@ -5923,10 +5920,10 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C187" s="2">
         <v>45530.0</v>
@@ -5947,10 +5944,10 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C188" s="4">
         <v>44123.0</v>
@@ -5971,10 +5968,10 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="C189" s="2">
         <v>44798.0</v>
@@ -5998,7 +5995,7 @@
         <v>74</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C190" s="4">
         <v>44552.0</v>
@@ -6022,7 +6019,7 @@
         <v>42</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C191" s="2">
         <v>44802.0</v>
@@ -6046,7 +6043,7 @@
         <v>42</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C192" s="2">
         <v>44231.0</v>
@@ -6070,7 +6067,7 @@
         <v>42</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C193" s="2">
         <v>43559.0</v>
@@ -6091,16 +6088,16 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="C194" s="2">
         <v>44821.0</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E194" s="3">
         <v>2.0</v>
@@ -6118,7 +6115,7 @@
         <v>66</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C195" s="2">
         <v>44650.0</v>
@@ -6142,7 +6139,7 @@
         <v>66</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C196" s="2">
         <v>44701.0</v>
@@ -6163,10 +6160,10 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="C197" s="4">
         <v>44847.0</v>
@@ -6190,7 +6187,7 @@
         <v>66</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C198" s="2">
         <v>44727.0</v>
@@ -6214,7 +6211,7 @@
         <v>66</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C199" s="2">
         <v>44531.0</v>
@@ -6235,10 +6232,10 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="C200" s="4">
         <v>43448.0</v>
@@ -6262,7 +6259,7 @@
         <v>33</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C201" s="2">
         <v>44274.0</v>
@@ -6283,16 +6280,16 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C202" s="2">
         <v>44539.0</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E202" s="3">
         <v>2.0</v>
@@ -6310,7 +6307,7 @@
         <v>48</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C203" s="2">
         <v>45356.0</v>
@@ -6334,7 +6331,7 @@
         <v>24</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C204" s="2">
         <v>45383.0</v>
@@ -6358,7 +6355,7 @@
         <v>26</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C205" s="2">
         <v>44823.0</v>
@@ -6382,7 +6379,7 @@
         <v>26</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C206" s="2">
         <v>45345.0</v>
@@ -6412,7 +6409,7 @@
         <v>44872.0</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E207" s="3">
         <v>2.0</v>
@@ -6430,7 +6427,7 @@
         <v>9</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C208" s="2">
         <v>44592.0</v>
@@ -6454,7 +6451,7 @@
         <v>9</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C209" s="2">
         <v>44958.0</v>
@@ -6478,7 +6475,7 @@
         <v>9</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C210" s="2">
         <v>44000.0</v>
@@ -6502,7 +6499,7 @@
         <v>9</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C211" s="2">
         <v>45139.0</v>
@@ -6526,7 +6523,7 @@
         <v>9</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C212" s="2">
         <v>44091.0</v>
@@ -6550,7 +6547,7 @@
         <v>9</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C213" s="4">
         <v>45282.0</v>
@@ -6571,10 +6568,10 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="C214" s="2">
         <v>45261.0</v>
@@ -6595,16 +6592,16 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C215" s="2">
         <v>44806.0</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E215" s="3">
         <v>1.0</v>
@@ -6619,16 +6616,16 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C216" s="4">
         <v>44547.0</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E216" s="3">
         <v>1.0</v>
@@ -6643,16 +6640,16 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C217" s="2">
         <v>45030.0</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E217" s="3">
         <v>1.0</v>
@@ -6670,7 +6667,7 @@
         <v>29</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C218" s="4">
         <v>44524.0</v>
@@ -6694,7 +6691,7 @@
         <v>29</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C219" s="2">
         <v>44208.0</v>
@@ -6718,13 +6715,13 @@
         <v>29</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C220" s="4">
         <v>44496.0</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E220" s="3">
         <v>1.0</v>
@@ -6742,7 +6739,7 @@
         <v>29</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C221" s="2">
         <v>44112.0</v>
@@ -6766,7 +6763,7 @@
         <v>9</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C222" s="2">
         <v>45121.0</v>
@@ -6790,7 +6787,7 @@
         <v>18</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C223" s="2">
         <v>45559.0</v>
@@ -6814,7 +6811,7 @@
         <v>18</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C224" s="2">
         <v>45559.0</v>
@@ -6838,7 +6835,7 @@
         <v>18</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C225" s="2">
         <v>45365.0</v>
@@ -6862,7 +6859,7 @@
         <v>18</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C226" s="2">
         <v>44768.0</v>
@@ -6886,7 +6883,7 @@
         <v>18</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C227" s="2">
         <v>45365.0</v>
@@ -6907,10 +6904,10 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C228" s="2">
         <v>44979.0</v>
@@ -6934,7 +6931,7 @@
         <v>50</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C229" s="2">
         <v>44763.0</v>
@@ -6958,7 +6955,7 @@
         <v>50</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C230" s="2">
         <v>44957.0</v>
@@ -6982,7 +6979,7 @@
         <v>50</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C231" s="2">
         <v>44868.0</v>
@@ -7006,7 +7003,7 @@
         <v>9</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C232" s="2">
         <v>44681.0</v>
@@ -7030,7 +7027,7 @@
         <v>63</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C233" s="2">
         <v>44953.0</v>
@@ -7051,10 +7048,10 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="C234" s="2">
         <v>45532.0</v>
@@ -7075,10 +7072,10 @@
     </row>
     <row r="235">
       <c r="A235" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C235" s="4">
         <v>45611.0</v>
@@ -7099,10 +7096,10 @@
     </row>
     <row r="236">
       <c r="A236" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C236" s="2">
         <v>45695.0</v>
@@ -7126,7 +7123,7 @@
         <v>74</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C237" s="2">
         <v>44805.0</v>
@@ -7150,7 +7147,7 @@
         <v>7</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C238" s="2">
         <v>44679.0</v>
@@ -7174,7 +7171,7 @@
         <v>7</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C239" s="2">
         <v>44707.0</v>
@@ -7198,7 +7195,7 @@
         <v>52</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C240" s="2">
         <v>45568.0</v>
@@ -7222,7 +7219,7 @@
         <v>52</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C241" s="4">
         <v>44861.0</v>
@@ -7246,7 +7243,7 @@
         <v>52</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C242" s="2">
         <v>44935.0</v>
@@ -7294,7 +7291,7 @@
         <v>52</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C244" s="2">
         <v>44784.0</v>
@@ -7318,13 +7315,13 @@
         <v>52</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C245" s="4">
         <v>44551.0</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E245" s="3">
         <v>1.0</v>
@@ -7342,7 +7339,7 @@
         <v>52</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C246" s="2">
         <v>44750.0</v>
@@ -7366,7 +7363,7 @@
         <v>9</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C247" s="2">
         <v>45200.0</v>
@@ -7378,7 +7375,7 @@
         <v>1.0</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
@@ -7387,10 +7384,10 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C248" s="2">
         <v>44609.0</v>
@@ -7411,10 +7408,10 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B249" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="C249" s="2">
         <v>45052.0</v>
@@ -7435,7 +7432,7 @@
     </row>
     <row r="250">
       <c r="A250" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>9</v>
@@ -7462,7 +7459,7 @@
         <v>20</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C251" s="2">
         <v>44669.0</v>
@@ -7486,7 +7483,7 @@
         <v>20</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C252" s="2">
         <v>44398.0</v>
@@ -7507,10 +7504,10 @@
     </row>
     <row r="253">
       <c r="A253" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C253" s="4">
         <v>44557.0</v>
@@ -7531,10 +7528,10 @@
     </row>
     <row r="254">
       <c r="A254" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C254" s="4">
         <v>45281.0</v>
@@ -7555,10 +7552,10 @@
     </row>
     <row r="255">
       <c r="A255" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C255" s="2">
         <v>44742.0</v>
@@ -7579,10 +7576,10 @@
     </row>
     <row r="256">
       <c r="A256" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C256" s="2">
         <v>44446.0</v>
@@ -7603,10 +7600,10 @@
     </row>
     <row r="257">
       <c r="A257" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C257" s="2">
         <v>44756.0</v>
@@ -7627,10 +7624,10 @@
     </row>
     <row r="258">
       <c r="A258" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C258" s="2">
         <v>45092.0</v>
@@ -7651,10 +7648,10 @@
     </row>
     <row r="259">
       <c r="A259" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B259" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="C259" s="2">
         <v>44532.0</v>
@@ -7675,10 +7672,10 @@
     </row>
     <row r="260">
       <c r="A260" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C260" s="2">
         <v>44958.0</v>
@@ -7699,10 +7696,10 @@
     </row>
     <row r="261">
       <c r="A261" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C261" s="2">
         <v>45524.0</v>
@@ -7723,10 +7720,10 @@
     </row>
     <row r="262">
       <c r="A262" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C262" s="2">
         <v>45530.0</v>
@@ -7747,10 +7744,10 @@
     </row>
     <row r="263">
       <c r="A263" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C263" s="2">
         <v>44833.0</v>
@@ -7771,10 +7768,10 @@
     </row>
     <row r="264">
       <c r="A264" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C264" s="2">
         <v>45141.0</v>
@@ -7795,10 +7792,10 @@
     </row>
     <row r="265">
       <c r="A265" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B265" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="C265" s="2">
         <v>42026.0</v>
@@ -7819,10 +7816,10 @@
     </row>
     <row r="266">
       <c r="A266" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C266" s="2">
         <v>45064.0</v>
@@ -7843,16 +7840,16 @@
     </row>
     <row r="267">
       <c r="A267" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B267" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="C267" s="2">
         <v>44873.0</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E267" s="3">
         <v>1.0</v>
@@ -7867,10 +7864,10 @@
     </row>
     <row r="268">
       <c r="A268" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B268" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="C268" s="2">
         <v>43770.0</v>
@@ -7894,7 +7891,7 @@
         <v>42</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C269" s="2">
         <v>44763.0</v>
@@ -7918,7 +7915,7 @@
         <v>42</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C270" s="2">
         <v>44781.0</v>
@@ -7942,7 +7939,7 @@
         <v>42</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C271" s="2">
         <v>44978.0</v>
@@ -7966,7 +7963,7 @@
         <v>42</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C272" s="4">
         <v>44515.0</v>
@@ -7990,7 +7987,7 @@
         <v>42</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C273" s="2">
         <v>43598.0</v>
@@ -8014,13 +8011,13 @@
         <v>42</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C274" s="2">
         <v>44231.0</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E274" s="3">
         <v>1.0</v>
@@ -8038,13 +8035,13 @@
         <v>66</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C275" s="4">
         <v>44923.0</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E275" s="3">
         <v>1.0</v>
@@ -8059,16 +8056,16 @@
     </row>
     <row r="276">
       <c r="A276" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B276" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="C276" s="2">
         <v>44767.0</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E276" s="3">
         <v>1.0</v>
@@ -8086,7 +8083,7 @@
         <v>9</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C277" s="2">
         <v>45413.0</v>
@@ -8110,7 +8107,7 @@
         <v>11</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C278" s="2">
         <v>44753.0</v>
@@ -8134,7 +8131,7 @@
         <v>9</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C279" s="2">
         <v>45539.0</v>
@@ -8158,7 +8155,7 @@
         <v>9</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C280" s="2">
         <v>44208.0</v>
@@ -8182,7 +8179,7 @@
         <v>9</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C281" s="2">
         <v>44236.0</v>
@@ -8206,7 +8203,7 @@
         <v>9</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C282" s="2">
         <v>44291.0</v>
@@ -8227,10 +8224,10 @@
     </row>
     <row r="283">
       <c r="A283" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B283" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="C283" s="2">
         <v>44435.0</v>
@@ -8251,10 +8248,10 @@
     </row>
     <row r="284">
       <c r="A284" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C284" s="2">
         <v>43314.0</v>
@@ -8275,10 +8272,10 @@
     </row>
     <row r="285">
       <c r="A285" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B285" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="C285" s="2">
         <v>45182.0</v>
@@ -8302,7 +8299,7 @@
         <v>48</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C286" s="2">
         <v>45356.0</v>
@@ -8326,7 +8323,7 @@
         <v>48</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C287" s="2">
         <v>45328.0</v>
@@ -8350,7 +8347,7 @@
         <v>24</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C288" s="2">
         <v>45091.0</v>
@@ -8374,7 +8371,7 @@
         <v>24</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C289" s="2">
         <v>45001.0</v>
@@ -8395,10 +8392,10 @@
     </row>
     <row r="290">
       <c r="A290" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B290" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="C290" s="2">
         <v>45055.0</v>
@@ -8422,7 +8419,7 @@
         <v>9</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C291" s="2">
         <v>45121.0</v>
@@ -8446,7 +8443,7 @@
         <v>26</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C292" s="2">
         <v>42916.0</v>
@@ -8494,7 +8491,7 @@
         <v>26</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C294" s="2">
         <v>44750.0</v>
@@ -8518,13 +8515,13 @@
         <v>26</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C295" s="2">
         <v>43126.0</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E295" s="3">
         <v>1.0</v>

--- a/Car_Wash_Advisory_Top_Acquisitions.xlsx
+++ b/Car_Wash_Advisory_Top_Acquisitions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="757">
   <si>
     <t>Title -- Who Bought What?</t>
   </si>
@@ -1705,6 +1705,12 @@
     <t>Rapid Shine Car Wash</t>
   </si>
   <si>
+    <t>Club Car Wash Acquires Slyde’s Car Wash Wylie, TX Location</t>
+  </si>
+  <si>
+    <t>Slyde's Car Wash</t>
+  </si>
+  <si>
     <t>Driven Brands Acquires Mr. Bee’s Car Wash</t>
   </si>
   <si>
@@ -1843,6 +1849,12 @@
     <t>LUV Car Wash Acquired Tommy's Express Car Wash Bellflower Location</t>
   </si>
   <si>
+    <t>LUV Car Wash Acquires American Canyon Car Wash</t>
+  </si>
+  <si>
+    <t>American Canyon Car Wash</t>
+  </si>
+  <si>
     <t>LUV Car Wash Acquires Big Ben Express Car Wash</t>
   </si>
   <si>
@@ -1859,6 +1871,12 @@
   </si>
   <si>
     <t>Green Forest Express</t>
+  </si>
+  <si>
+    <t>LUV Car Wash Acquires La Cienega Car Wash</t>
+  </si>
+  <si>
+    <t>La Cienega Car Wash</t>
   </si>
   <si>
     <t>LUV Car Wash Completes Las Vegas acquisition and rebranding of All Vegas Locations</t>
@@ -8445,22 +8463,22 @@
         <v>564</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>565</v>
       </c>
       <c r="D237" s="4">
-        <v>44524.0</v>
+        <v>45943.0</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>201</v>
+        <v>43</v>
       </c>
       <c r="F237" s="3">
         <v>1.0</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
@@ -8475,11 +8493,11 @@
       <c r="C238" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D238" s="2">
-        <v>44208.0</v>
+      <c r="D238" s="4">
+        <v>44524.0</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="F238" s="3">
         <v>1.0</v>
@@ -8498,13 +8516,13 @@
         <v>9</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D239" s="4">
-        <v>44496.0</v>
+        <v>569</v>
+      </c>
+      <c r="D239" s="2">
+        <v>44208.0</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>306</v>
+        <v>10</v>
       </c>
       <c r="F239" s="3">
         <v>1.0</v>
@@ -8517,19 +8535,19 @@
     </row>
     <row r="240">
       <c r="A240" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D240" s="2">
-        <v>44112.0</v>
+        <v>305</v>
+      </c>
+      <c r="D240" s="4">
+        <v>44496.0</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>72</v>
+        <v>306</v>
       </c>
       <c r="F240" s="3">
         <v>1.0</v>
@@ -8545,16 +8563,16 @@
         <v>571</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>572</v>
       </c>
       <c r="D241" s="2">
-        <v>45121.0</v>
+        <v>44112.0</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="F241" s="3">
         <v>1.0</v>
@@ -8570,16 +8588,16 @@
         <v>573</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>574</v>
       </c>
       <c r="D242" s="2">
-        <v>45559.0</v>
+        <v>45121.0</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F242" s="3">
         <v>1.0</v>
@@ -8598,7 +8616,7 @@
         <v>34</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>286</v>
+        <v>576</v>
       </c>
       <c r="D243" s="2">
         <v>45559.0</v>
@@ -8617,16 +8635,16 @@
     </row>
     <row r="244">
       <c r="A244" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>577</v>
+        <v>286</v>
       </c>
       <c r="D244" s="2">
-        <v>45365.0</v>
+        <v>45559.0</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>35</v>
@@ -8651,7 +8669,7 @@
         <v>579</v>
       </c>
       <c r="D245" s="2">
-        <v>44768.0</v>
+        <v>45365.0</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>35</v>
@@ -8676,7 +8694,7 @@
         <v>581</v>
       </c>
       <c r="D246" s="2">
-        <v>45365.0</v>
+        <v>44768.0</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>35</v>
@@ -8695,22 +8713,22 @@
         <v>582</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>231</v>
+        <v>34</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>583</v>
       </c>
       <c r="D247" s="2">
-        <v>45917.0</v>
+        <v>45365.0</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="F247" s="3">
         <v>1.0</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H247" s="1"/>
       <c r="I247" s="1"/>
@@ -8720,22 +8738,22 @@
         <v>584</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>392</v>
+        <v>231</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>585</v>
       </c>
       <c r="D248" s="2">
-        <v>44979.0</v>
+        <v>45917.0</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="F248" s="3">
         <v>1.0</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H248" s="1"/>
       <c r="I248" s="1"/>
@@ -8745,22 +8763,22 @@
         <v>586</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>205</v>
+        <v>392</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>587</v>
       </c>
       <c r="D249" s="2">
-        <v>45765.0</v>
+        <v>44979.0</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F249" s="3">
         <v>1.0</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H249" s="1"/>
       <c r="I249" s="1"/>
@@ -8770,22 +8788,22 @@
         <v>588</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>589</v>
       </c>
       <c r="D250" s="2">
-        <v>44763.0</v>
+        <v>45765.0</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F250" s="3">
         <v>1.0</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H250" s="1"/>
       <c r="I250" s="1"/>
@@ -8801,10 +8819,10 @@
         <v>591</v>
       </c>
       <c r="D251" s="2">
-        <v>44957.0</v>
+        <v>44763.0</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F251" s="3">
         <v>1.0</v>
@@ -8826,10 +8844,10 @@
         <v>593</v>
       </c>
       <c r="D252" s="2">
-        <v>44868.0</v>
+        <v>44957.0</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F252" s="3">
         <v>1.0</v>
@@ -8845,16 +8863,16 @@
         <v>594</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>595</v>
       </c>
       <c r="D253" s="2">
-        <v>44681.0</v>
+        <v>44868.0</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="F253" s="3">
         <v>1.0</v>
@@ -8870,16 +8888,16 @@
         <v>596</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>597</v>
       </c>
       <c r="D254" s="2">
-        <v>44953.0</v>
+        <v>44681.0</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="F254" s="3">
         <v>1.0</v>
@@ -8901,7 +8919,7 @@
         <v>599</v>
       </c>
       <c r="D255" s="2">
-        <v>45870.0</v>
+        <v>44953.0</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>59</v>
@@ -8910,7 +8928,7 @@
         <v>1.0</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H255" s="1"/>
       <c r="I255" s="1"/>
@@ -8920,16 +8938,16 @@
         <v>600</v>
       </c>
       <c r="B256" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C256" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="C256" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="D256" s="4">
-        <v>45637.0</v>
+      <c r="D256" s="2">
+        <v>45870.0</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="F256" s="3">
         <v>1.0</v>
@@ -8942,16 +8960,16 @@
     </row>
     <row r="257">
       <c r="A257" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B257" s="1" t="s">
         <v>603</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="D257" s="2">
-        <v>45532.0</v>
+      <c r="D257" s="4">
+        <v>45637.0</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>35</v>
@@ -8960,7 +8978,7 @@
         <v>1.0</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H257" s="1"/>
       <c r="I257" s="1"/>
@@ -8970,13 +8988,13 @@
         <v>605</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="D258" s="4">
-        <v>45611.0</v>
+      <c r="D258" s="2">
+        <v>45532.0</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>35</v>
@@ -8995,13 +9013,13 @@
         <v>607</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="D259" s="2">
-        <v>45695.0</v>
+      <c r="D259" s="4">
+        <v>45611.0</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>35</v>
@@ -9020,38 +9038,38 @@
         <v>609</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>116</v>
+        <v>603</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>94</v>
+        <v>610</v>
       </c>
       <c r="D260" s="2">
-        <v>45894.0</v>
+        <v>45695.0</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F260" s="3">
         <v>1.0</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H260" s="1"/>
       <c r="I260" s="1"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>611</v>
+        <v>94</v>
       </c>
       <c r="D261" s="2">
-        <v>45874.0</v>
+        <v>45894.0</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>62</v>
@@ -9076,7 +9094,7 @@
         <v>613</v>
       </c>
       <c r="D262" s="2">
-        <v>45750.0</v>
+        <v>45922.0</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>62</v>
@@ -9101,7 +9119,7 @@
         <v>615</v>
       </c>
       <c r="D263" s="2">
-        <v>45737.0</v>
+        <v>45874.0</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>62</v>
@@ -9126,16 +9144,16 @@
         <v>617</v>
       </c>
       <c r="D264" s="2">
-        <v>44805.0</v>
+        <v>45750.0</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="F264" s="3">
         <v>1.0</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H264" s="1"/>
       <c r="I264" s="1"/>
@@ -9145,22 +9163,22 @@
         <v>618</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>619</v>
       </c>
       <c r="D265" s="2">
-        <v>44679.0</v>
+        <v>45737.0</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="F265" s="3">
         <v>1.0</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H265" s="1"/>
       <c r="I265" s="1"/>
@@ -9170,22 +9188,22 @@
         <v>620</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>621</v>
       </c>
       <c r="D266" s="2">
-        <v>44707.0</v>
+        <v>45924.0</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F266" s="3">
         <v>1.0</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H266" s="1"/>
       <c r="I266" s="1"/>
@@ -9195,16 +9213,16 @@
         <v>622</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>623</v>
       </c>
       <c r="D267" s="2">
-        <v>45568.0</v>
+        <v>44805.0</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="F267" s="3">
         <v>1.0</v>
@@ -9220,16 +9238,16 @@
         <v>624</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="D268" s="4">
-        <v>44861.0</v>
+      <c r="D268" s="2">
+        <v>44679.0</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F268" s="3">
         <v>1.0</v>
@@ -9245,13 +9263,13 @@
         <v>626</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>627</v>
       </c>
       <c r="D269" s="2">
-        <v>44935.0</v>
+        <v>44707.0</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>35</v>
@@ -9273,13 +9291,13 @@
         <v>84</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>101</v>
+        <v>629</v>
       </c>
       <c r="D270" s="2">
-        <v>44784.0</v>
+        <v>45568.0</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F270" s="3">
         <v>1.0</v>
@@ -9292,16 +9310,16 @@
     </row>
     <row r="271">
       <c r="A271" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="D271" s="2">
-        <v>44784.0</v>
+        <v>631</v>
+      </c>
+      <c r="D271" s="4">
+        <v>44861.0</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>35</v>
@@ -9317,19 +9335,19 @@
     </row>
     <row r="272">
       <c r="A272" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="D272" s="4">
-        <v>44551.0</v>
+        <v>633</v>
+      </c>
+      <c r="D272" s="2">
+        <v>44935.0</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>278</v>
+        <v>35</v>
       </c>
       <c r="F272" s="3">
         <v>1.0</v>
@@ -9342,16 +9360,16 @@
     </row>
     <row r="273">
       <c r="A273" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>634</v>
+        <v>101</v>
       </c>
       <c r="D273" s="2">
-        <v>44750.0</v>
+        <v>44784.0</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>35</v>
@@ -9370,41 +9388,41 @@
         <v>635</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>636</v>
       </c>
       <c r="D274" s="2">
-        <v>45200.0</v>
+        <v>44784.0</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F274" s="3">
         <v>1.0</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>637</v>
+        <v>15</v>
       </c>
       <c r="H274" s="1"/>
       <c r="I274" s="1"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C275" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="B275" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="D275" s="2">
-        <v>44609.0</v>
+      <c r="D275" s="4">
+        <v>44551.0</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>156</v>
+        <v>278</v>
       </c>
       <c r="F275" s="3">
         <v>1.0</v>
@@ -9417,19 +9435,19 @@
     </row>
     <row r="276">
       <c r="A276" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C276" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="B276" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>642</v>
-      </c>
       <c r="D276" s="2">
-        <v>45052.0</v>
+        <v>44750.0</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="F276" s="3">
         <v>1.0</v>
@@ -9442,44 +9460,44 @@
     </row>
     <row r="277">
       <c r="A277" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>644</v>
+        <v>15</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D277" s="4">
-        <v>44915.0</v>
+        <v>642</v>
+      </c>
+      <c r="D277" s="2">
+        <v>45200.0</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F277" s="3">
         <v>1.0</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>15</v>
+        <v>643</v>
       </c>
       <c r="H277" s="1"/>
       <c r="I277" s="1"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C278" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="B278" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>646</v>
-      </c>
       <c r="D278" s="2">
-        <v>44669.0</v>
+        <v>44609.0</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="F278" s="3">
         <v>1.0</v>
@@ -9492,19 +9510,19 @@
     </row>
     <row r="279">
       <c r="A279" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B279" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>648</v>
       </c>
       <c r="D279" s="2">
-        <v>44398.0</v>
+        <v>45052.0</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="F279" s="3">
         <v>1.0</v>
@@ -9520,16 +9538,16 @@
         <v>649</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>217</v>
+        <v>650</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>650</v>
+        <v>15</v>
       </c>
       <c r="D280" s="4">
-        <v>44557.0</v>
+        <v>44915.0</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="F280" s="3">
         <v>1.0</v>
@@ -9545,16 +9563,16 @@
         <v>651</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>217</v>
+        <v>37</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="D281" s="4">
-        <v>45281.0</v>
+      <c r="D281" s="2">
+        <v>44669.0</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="F281" s="3">
         <v>1.0</v>
@@ -9570,16 +9588,16 @@
         <v>653</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>217</v>
+        <v>37</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>654</v>
       </c>
       <c r="D282" s="2">
-        <v>44742.0</v>
+        <v>44398.0</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="F282" s="3">
         <v>1.0</v>
@@ -9600,8 +9618,8 @@
       <c r="C283" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="D283" s="2">
-        <v>44446.0</v>
+      <c r="D283" s="4">
+        <v>44557.0</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>144</v>
@@ -9625,8 +9643,8 @@
       <c r="C284" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="D284" s="2">
-        <v>44756.0</v>
+      <c r="D284" s="4">
+        <v>45281.0</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>144</v>
@@ -9651,7 +9669,7 @@
         <v>660</v>
       </c>
       <c r="D285" s="2">
-        <v>45092.0</v>
+        <v>44742.0</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>144</v>
@@ -9670,16 +9688,16 @@
         <v>661</v>
       </c>
       <c r="B286" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C286" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="C286" s="1" t="s">
-        <v>663</v>
-      </c>
       <c r="D286" s="2">
-        <v>44532.0</v>
+        <v>44446.0</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="F286" s="3">
         <v>1.0</v>
@@ -9692,19 +9710,19 @@
     </row>
     <row r="287">
       <c r="A287" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C287" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="B287" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>519</v>
-      </c>
       <c r="D287" s="2">
-        <v>44958.0</v>
+        <v>44756.0</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="F287" s="3">
         <v>1.0</v>
@@ -9720,22 +9738,22 @@
         <v>665</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>666</v>
       </c>
       <c r="D288" s="2">
-        <v>45740.0</v>
+        <v>45092.0</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="F288" s="3">
         <v>1.0</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H288" s="1"/>
       <c r="I288" s="1"/>
@@ -9745,16 +9763,16 @@
         <v>667</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>220</v>
+        <v>668</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D289" s="2">
-        <v>45524.0</v>
+        <v>44532.0</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="F289" s="3">
         <v>1.0</v>
@@ -9767,19 +9785,19 @@
     </row>
     <row r="290">
       <c r="A290" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>220</v>
+        <v>342</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>608</v>
+        <v>519</v>
       </c>
       <c r="D290" s="2">
-        <v>45530.0</v>
+        <v>44958.0</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="F290" s="3">
         <v>1.0</v>
@@ -9792,16 +9810,16 @@
     </row>
     <row r="291">
       <c r="A291" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D291" s="2">
-        <v>44833.0</v>
+        <v>45740.0</v>
       </c>
       <c r="E291" s="1" t="s">
         <v>62</v>
@@ -9810,26 +9828,26 @@
         <v>1.0</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H291" s="1"/>
       <c r="I291" s="1"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D292" s="2">
-        <v>45141.0</v>
+        <v>45524.0</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="F292" s="3">
         <v>1.0</v>
@@ -9842,16 +9860,16 @@
     </row>
     <row r="293">
       <c r="A293" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>675</v>
+        <v>610</v>
       </c>
       <c r="D293" s="2">
-        <v>45852.0</v>
+        <v>45530.0</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>43</v>
@@ -9860,7 +9878,7 @@
         <v>1.0</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H293" s="1"/>
       <c r="I293" s="1"/>
@@ -9870,16 +9888,16 @@
         <v>676</v>
       </c>
       <c r="B294" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C294" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="C294" s="1" t="s">
-        <v>678</v>
-      </c>
       <c r="D294" s="2">
-        <v>42026.0</v>
+        <v>44833.0</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F294" s="3">
         <v>1.0</v>
@@ -9892,19 +9910,19 @@
     </row>
     <row r="295">
       <c r="A295" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C295" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="B295" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>680</v>
-      </c>
       <c r="D295" s="2">
-        <v>45064.0</v>
+        <v>45141.0</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c r="F295" s="3">
         <v>1.0</v>
@@ -9917,44 +9935,44 @@
     </row>
     <row r="296">
       <c r="A296" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C296" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="B296" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>683</v>
-      </c>
       <c r="D296" s="2">
-        <v>44873.0</v>
+        <v>45852.0</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="F296" s="3">
         <v>1.0</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H296" s="1"/>
       <c r="I296" s="1"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C297" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="B297" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>686</v>
-      </c>
       <c r="D297" s="2">
-        <v>43770.0</v>
+        <v>42026.0</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F297" s="3">
         <v>1.0</v>
@@ -9967,16 +9985,16 @@
     </row>
     <row r="298">
       <c r="A298" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>688</v>
+        <v>348</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="D298" s="2">
-        <v>45903.0</v>
+        <v>45064.0</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>62</v>
@@ -9985,26 +10003,26 @@
         <v>1.0</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H298" s="1"/>
       <c r="I298" s="1"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>67</v>
+        <v>688</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D299" s="2">
-        <v>44763.0</v>
+        <v>44873.0</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F299" s="3">
         <v>1.0</v>
@@ -10017,19 +10035,19 @@
     </row>
     <row r="300">
       <c r="A300" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C300" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="B300" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>693</v>
-      </c>
       <c r="D300" s="2">
-        <v>44781.0</v>
+        <v>43770.0</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F300" s="3">
         <v>1.0</v>
@@ -10042,25 +10060,25 @@
     </row>
     <row r="301">
       <c r="A301" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B301" s="1" t="s">
         <v>694</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>695</v>
       </c>
       <c r="D301" s="2">
-        <v>44978.0</v>
+        <v>45903.0</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F301" s="3">
         <v>1.0</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H301" s="1"/>
       <c r="I301" s="1"/>
@@ -10075,8 +10093,8 @@
       <c r="C302" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="D302" s="4">
-        <v>44515.0</v>
+      <c r="D302" s="2">
+        <v>44763.0</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>69</v>
@@ -10101,7 +10119,7 @@
         <v>699</v>
       </c>
       <c r="D303" s="2">
-        <v>45870.0</v>
+        <v>44781.0</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>69</v>
@@ -10110,7 +10128,7 @@
         <v>1.0</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H303" s="1"/>
       <c r="I303" s="1"/>
@@ -10126,7 +10144,7 @@
         <v>701</v>
       </c>
       <c r="D304" s="2">
-        <v>43598.0</v>
+        <v>44978.0</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>69</v>
@@ -10150,11 +10168,11 @@
       <c r="C305" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="D305" s="2">
-        <v>44231.0</v>
+      <c r="D305" s="4">
+        <v>44515.0</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>433</v>
+        <v>69</v>
       </c>
       <c r="F305" s="3">
         <v>1.0</v>
@@ -10170,22 +10188,22 @@
         <v>704</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="D306" s="4">
-        <v>44923.0</v>
+      <c r="D306" s="2">
+        <v>45870.0</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>248</v>
+        <v>69</v>
       </c>
       <c r="F306" s="3">
         <v>1.0</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H306" s="1"/>
       <c r="I306" s="1"/>
@@ -10195,22 +10213,22 @@
         <v>706</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>521</v>
+        <v>67</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="D307" s="4">
-        <v>45643.0</v>
+      <c r="D307" s="2">
+        <v>43598.0</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="F307" s="3">
         <v>1.0</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H307" s="1"/>
       <c r="I307" s="1"/>
@@ -10220,16 +10238,16 @@
         <v>708</v>
       </c>
       <c r="B308" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C308" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="C308" s="1" t="s">
-        <v>710</v>
-      </c>
       <c r="D308" s="2">
-        <v>44767.0</v>
+        <v>44231.0</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>278</v>
+        <v>433</v>
       </c>
       <c r="F308" s="3">
         <v>1.0</v>
@@ -10242,19 +10260,19 @@
     </row>
     <row r="309">
       <c r="A309" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C309" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="B309" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C309" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="D309" s="2">
-        <v>45413.0</v>
+      <c r="D309" s="4">
+        <v>44923.0</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="F309" s="3">
         <v>1.0</v>
@@ -10267,44 +10285,44 @@
     </row>
     <row r="310">
       <c r="A310" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C310" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="B310" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="D310" s="2">
-        <v>44753.0</v>
+      <c r="D310" s="4">
+        <v>45643.0</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F310" s="3">
         <v>1.0</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H310" s="1"/>
       <c r="I310" s="1"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B311" s="1" t="s">
         <v>715</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>716</v>
       </c>
       <c r="D311" s="2">
-        <v>45539.0</v>
+        <v>44767.0</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>144</v>
+        <v>278</v>
       </c>
       <c r="F311" s="3">
         <v>1.0</v>
@@ -10326,7 +10344,7 @@
         <v>718</v>
       </c>
       <c r="D312" s="2">
-        <v>44208.0</v>
+        <v>45413.0</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>69</v>
@@ -10345,16 +10363,16 @@
         <v>719</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>720</v>
       </c>
       <c r="D313" s="2">
-        <v>44236.0</v>
+        <v>44753.0</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="F313" s="3">
         <v>1.0</v>
@@ -10376,10 +10394,10 @@
         <v>722</v>
       </c>
       <c r="D314" s="2">
-        <v>44291.0</v>
+        <v>45539.0</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="F314" s="3">
         <v>1.0</v>
@@ -10395,16 +10413,16 @@
         <v>723</v>
       </c>
       <c r="B315" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C315" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="C315" s="1" t="s">
-        <v>725</v>
-      </c>
       <c r="D315" s="2">
-        <v>44435.0</v>
+        <v>44208.0</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="F315" s="3">
         <v>1.0</v>
@@ -10417,19 +10435,19 @@
     </row>
     <row r="316">
       <c r="A316" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C316" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="B316" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>727</v>
-      </c>
       <c r="D316" s="2">
-        <v>43314.0</v>
+        <v>44236.0</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="F316" s="3">
         <v>1.0</v>
@@ -10442,16 +10460,16 @@
     </row>
     <row r="317">
       <c r="A317" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C317" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="B317" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>730</v>
-      </c>
       <c r="D317" s="2">
-        <v>45182.0</v>
+        <v>44291.0</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>59</v>
@@ -10467,19 +10485,19 @@
     </row>
     <row r="318">
       <c r="A318" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C318" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="B318" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>732</v>
-      </c>
       <c r="D318" s="2">
-        <v>45356.0</v>
+        <v>44435.0</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="F318" s="3">
         <v>1.0</v>
@@ -10492,19 +10510,19 @@
     </row>
     <row r="319">
       <c r="A319" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C319" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="B319" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>734</v>
-      </c>
       <c r="D319" s="2">
-        <v>45328.0</v>
+        <v>43314.0</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="F319" s="3">
         <v>1.0</v>
@@ -10517,19 +10535,19 @@
     </row>
     <row r="320">
       <c r="A320" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B320" s="1" t="s">
         <v>735</v>
-      </c>
-      <c r="B320" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>736</v>
       </c>
       <c r="D320" s="2">
-        <v>45091.0</v>
+        <v>45182.0</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>201</v>
+        <v>59</v>
       </c>
       <c r="F320" s="3">
         <v>1.0</v>
@@ -10545,16 +10563,16 @@
         <v>737</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>738</v>
       </c>
       <c r="D321" s="2">
-        <v>45001.0</v>
+        <v>45356.0</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F321" s="3">
         <v>1.0</v>
@@ -10570,16 +10588,16 @@
         <v>739</v>
       </c>
       <c r="B322" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C322" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C322" s="1" t="s">
-        <v>741</v>
-      </c>
       <c r="D322" s="2">
-        <v>45055.0</v>
+        <v>45328.0</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="F322" s="3">
         <v>1.0</v>
@@ -10592,19 +10610,19 @@
     </row>
     <row r="323">
       <c r="A323" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C323" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="B323" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>743</v>
-      </c>
       <c r="D323" s="2">
-        <v>45121.0</v>
+        <v>45091.0</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>43</v>
+        <v>201</v>
       </c>
       <c r="F323" s="3">
         <v>1.0</v>
@@ -10617,16 +10635,16 @@
     </row>
     <row r="324">
       <c r="A324" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C324" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="B324" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="D324" s="2">
-        <v>42916.0</v>
+        <v>45001.0</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>43</v>
@@ -10645,16 +10663,16 @@
         <v>745</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>45</v>
+        <v>746</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>54</v>
+        <v>747</v>
       </c>
       <c r="D325" s="2">
-        <v>42958.0</v>
+        <v>45055.0</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="F325" s="3">
         <v>1.0</v>
@@ -10667,16 +10685,16 @@
     </row>
     <row r="326">
       <c r="A326" s="1" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="D326" s="2">
-        <v>44750.0</v>
+        <v>45121.0</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>43</v>
@@ -10692,19 +10710,19 @@
     </row>
     <row r="327">
       <c r="A327" s="1" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>749</v>
+        <v>275</v>
       </c>
       <c r="D327" s="2">
-        <v>43126.0</v>
+        <v>42916.0</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>750</v>
+        <v>43</v>
       </c>
       <c r="F327" s="3">
         <v>1.0</v>
@@ -10716,35 +10734,77 @@
       <c r="I327" s="1"/>
     </row>
     <row r="328">
-      <c r="A328" s="1"/>
-      <c r="B328" s="1"/>
-      <c r="C328" s="1"/>
-      <c r="D328" s="1"/>
-      <c r="E328" s="1"/>
-      <c r="F328" s="1"/>
-      <c r="G328" s="1"/>
+      <c r="A328" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D328" s="2">
+        <v>42958.0</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F328" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G328" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H328" s="1"/>
       <c r="I328" s="1"/>
     </row>
     <row r="329">
-      <c r="A329" s="1"/>
-      <c r="B329" s="1"/>
-      <c r="C329" s="1"/>
-      <c r="D329" s="1"/>
-      <c r="E329" s="1"/>
-      <c r="F329" s="1"/>
-      <c r="G329" s="1"/>
+      <c r="A329" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="D329" s="2">
+        <v>44750.0</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F329" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G329" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H329" s="1"/>
       <c r="I329" s="1"/>
     </row>
     <row r="330">
-      <c r="A330" s="1"/>
-      <c r="B330" s="1"/>
-      <c r="C330" s="1"/>
-      <c r="D330" s="1"/>
-      <c r="E330" s="1"/>
-      <c r="F330" s="1"/>
-      <c r="G330" s="1"/>
+      <c r="A330" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="D330" s="2">
+        <v>43126.0</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="F330" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G330" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H330" s="1"/>
       <c r="I330" s="1"/>
     </row>

--- a/Car_Wash_Advisory_Top_Acquisitions.xlsx
+++ b/Car_Wash_Advisory_Top_Acquisitions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="761">
   <si>
     <t>Title -- Who Bought What?</t>
   </si>
@@ -775,6 +775,9 @@
     <t>Downtowner Car Wash</t>
   </si>
   <si>
+    <t>Mister Car Wash Acquires Five Whistle Express Sites</t>
+  </si>
+  <si>
     <t>Mister Car Wash Acquires Superwash Express</t>
   </si>
   <si>
@@ -1699,6 +1702,12 @@
     <t>Cleanland Car Wash</t>
   </si>
   <si>
+    <t>Club Car Wash Acquires Groove Carwash in Hurst, Texas</t>
+  </si>
+  <si>
+    <t>Groove Car Wash</t>
+  </si>
+  <si>
     <t>Club Car Wash Acquires Rapid Shine Car Wash</t>
   </si>
   <si>
@@ -1769,6 +1778,9 @@
   </si>
   <si>
     <t>Royalton Car Wash</t>
+  </si>
+  <si>
+    <t>Express Wash Concepts Acquires ZIPS Car Wash Site in Cincinnati</t>
   </si>
   <si>
     <t>Flagstop Car Wash acquires Hogwash Express Car Wash</t>
@@ -4891,38 +4903,38 @@
         <v>37</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D94" s="2">
-        <v>44377.0</v>
+        <v>8</v>
+      </c>
+      <c r="D94" s="4">
+        <v>45951.0</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F94" s="3">
         <v>5.0</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="D95" s="2">
-        <v>44140.0</v>
+        <v>44377.0</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F95" s="3">
         <v>5.0</v>
@@ -4935,69 +4947,69 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="C96" s="1" t="s">
-        <v>259</v>
+        <v>45</v>
       </c>
       <c r="D96" s="2">
-        <v>45747.0</v>
+        <v>44140.0</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="F96" s="3">
         <v>5.0</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="D97" s="2">
-        <v>44760.0</v>
+        <v>45747.0</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="F97" s="3">
         <v>5.0</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="D98" s="2">
-        <v>44805.0</v>
+        <v>44760.0</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>265</v>
+        <v>43</v>
       </c>
       <c r="F98" s="3">
         <v>5.0</v>
@@ -5010,19 +5022,19 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D99" s="2">
+        <v>44805.0</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D99" s="2">
-        <v>44042.0</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F99" s="3">
         <v>5.0</v>
@@ -5038,13 +5050,13 @@
         <v>267</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>268</v>
+        <v>18</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="D100" s="2">
-        <v>44562.0</v>
+        <v>44042.0</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>19</v>
@@ -5060,19 +5072,19 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="D101" s="2">
-        <v>45397.0</v>
+        <v>44562.0</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="F101" s="3">
         <v>5.0</v>
@@ -5085,16 +5097,16 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="D102" s="2">
-        <v>44538.0</v>
+        <v>45397.0</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>72</v>
@@ -5110,19 +5122,19 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="D103" s="2">
-        <v>42831.0</v>
+        <v>44538.0</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="F103" s="3">
         <v>5.0</v>
@@ -5135,19 +5147,19 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D104" s="4">
-        <v>44545.0</v>
+        <v>276</v>
+      </c>
+      <c r="D104" s="2">
+        <v>42831.0</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>278</v>
+        <v>43</v>
       </c>
       <c r="F104" s="3">
         <v>5.0</v>
@@ -5160,19 +5172,19 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D105" s="2">
-        <v>42929.0</v>
+        <v>278</v>
+      </c>
+      <c r="D105" s="4">
+        <v>44545.0</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>35</v>
+        <v>279</v>
       </c>
       <c r="F105" s="3">
         <v>5.0</v>
@@ -5185,19 +5197,19 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>167</v>
+        <v>281</v>
       </c>
       <c r="D106" s="2">
-        <v>42786.0</v>
+        <v>42929.0</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>248</v>
+        <v>35</v>
       </c>
       <c r="F106" s="3">
         <v>5.0</v>
@@ -5216,13 +5228,13 @@
         <v>45</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>283</v>
+        <v>167</v>
       </c>
       <c r="D107" s="2">
-        <v>44777.0</v>
+        <v>42786.0</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="F107" s="3">
         <v>5.0</v>
@@ -5235,22 +5247,22 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="D108" s="2">
-        <v>45009.0</v>
+        <v>44777.0</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F108" s="3">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>15</v>
@@ -5260,19 +5272,19 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="D109" s="2">
-        <v>44531.0</v>
+        <v>45009.0</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>290</v>
+        <v>19</v>
       </c>
       <c r="F109" s="3">
         <v>4.0</v>
@@ -5285,19 +5297,19 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D110" s="2">
+        <v>44531.0</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D110" s="2">
-        <v>45016.0</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="F110" s="3">
         <v>4.0</v>
@@ -5313,16 +5325,16 @@
         <v>292</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>293</v>
+        <v>15</v>
       </c>
       <c r="D111" s="2">
-        <v>44362.0</v>
+        <v>45016.0</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F111" s="3">
         <v>4.0</v>
@@ -5335,19 +5347,19 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D112" s="2">
-        <v>43839.0</v>
+        <v>44362.0</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F112" s="3">
         <v>4.0</v>
@@ -5360,19 +5372,19 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D113" s="2">
-        <v>44004.0</v>
+        <v>43839.0</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>248</v>
+        <v>43</v>
       </c>
       <c r="F113" s="3">
         <v>4.0</v>
@@ -5385,19 +5397,19 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D114" s="2">
-        <v>44334.0</v>
+        <v>44004.0</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>110</v>
+        <v>248</v>
       </c>
       <c r="F114" s="3">
         <v>4.0</v>
@@ -5410,19 +5422,19 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D115" s="2">
-        <v>43839.0</v>
+        <v>44334.0</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="F115" s="3">
         <v>4.0</v>
@@ -5435,19 +5447,19 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D116" s="2">
-        <v>44651.0</v>
+        <v>43839.0</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="F116" s="3">
         <v>4.0</v>
@@ -5460,19 +5472,19 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D117" s="2">
-        <v>44826.0</v>
+        <v>44651.0</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>306</v>
+        <v>72</v>
       </c>
       <c r="F117" s="3">
         <v>4.0</v>
@@ -5485,19 +5497,19 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D118" s="2">
+        <v>44826.0</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D118" s="2">
-        <v>44678.0</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="F118" s="3">
         <v>4.0</v>
@@ -5510,19 +5522,19 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="D119" s="2">
-        <v>44803.0</v>
+        <v>44678.0</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>311</v>
+        <v>62</v>
       </c>
       <c r="F119" s="3">
         <v>4.0</v>
@@ -5535,19 +5547,19 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D120" s="2">
+        <v>44803.0</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D120" s="2">
-        <v>44937.0</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F120" s="3">
         <v>4.0</v>
@@ -5560,19 +5572,19 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D121" s="2">
-        <v>44812.0</v>
+        <v>44937.0</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F121" s="3">
         <v>4.0</v>
@@ -5585,13 +5597,13 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D122" s="2">
         <v>44812.0</v>
@@ -5610,13 +5622,13 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D123" s="2">
         <v>44812.0</v>
@@ -5635,19 +5647,19 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D124" s="2">
-        <v>44617.0</v>
+        <v>44812.0</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F124" s="3">
         <v>4.0</v>
@@ -5660,19 +5672,19 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D125" s="2">
-        <v>44812.0</v>
+        <v>44617.0</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="F125" s="3">
         <v>4.0</v>
@@ -5685,19 +5697,19 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="D126" s="2">
-        <v>44567.0</v>
+        <v>44812.0</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="F126" s="3">
         <v>4.0</v>
@@ -5710,19 +5722,19 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D127" s="4">
-        <v>44546.0</v>
+        <v>326</v>
+      </c>
+      <c r="D127" s="2">
+        <v>44567.0</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>151</v>
+        <v>24</v>
       </c>
       <c r="F127" s="3">
         <v>4.0</v>
@@ -5735,19 +5747,19 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D128" s="4">
-        <v>43769.0</v>
+        <v>44546.0</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>278</v>
+        <v>151</v>
       </c>
       <c r="F128" s="3">
         <v>4.0</v>
@@ -5760,19 +5772,19 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D129" s="2">
-        <v>42877.0</v>
+      <c r="D129" s="4">
+        <v>43769.0</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>59</v>
+        <v>279</v>
       </c>
       <c r="F129" s="3">
         <v>4.0</v>
@@ -5785,19 +5797,19 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D130" s="2">
-        <v>43272.0</v>
+        <v>42877.0</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>290</v>
+        <v>59</v>
       </c>
       <c r="F130" s="3">
         <v>4.0</v>
@@ -5810,19 +5822,19 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>243</v>
+        <v>334</v>
       </c>
       <c r="D131" s="2">
-        <v>44690.0</v>
+        <v>43272.0</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>62</v>
+        <v>291</v>
       </c>
       <c r="F131" s="3">
         <v>4.0</v>
@@ -5838,16 +5850,16 @@
         <v>335</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>217</v>
+        <v>37</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>336</v>
+        <v>243</v>
       </c>
       <c r="D132" s="2">
-        <v>44467.0</v>
+        <v>44690.0</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="F132" s="3">
         <v>4.0</v>
@@ -5860,19 +5872,19 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B133" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="D133" s="2">
-        <v>45135.0</v>
+        <v>44467.0</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="F133" s="3">
         <v>4.0</v>
@@ -5885,19 +5897,19 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D134" s="2">
-        <v>44697.0</v>
+        <v>45135.0</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="F134" s="3">
         <v>4.0</v>
@@ -5913,16 +5925,16 @@
         <v>341</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>342</v>
+        <v>262</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>343</v>
+        <v>15</v>
       </c>
       <c r="D135" s="2">
-        <v>44789.0</v>
+        <v>44697.0</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>278</v>
+        <v>43</v>
       </c>
       <c r="F135" s="3">
         <v>4.0</v>
@@ -5935,19 +5947,19 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D136" s="4">
-        <v>44522.0</v>
+      <c r="D136" s="2">
+        <v>44789.0</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>110</v>
+        <v>279</v>
       </c>
       <c r="F136" s="3">
         <v>4.0</v>
@@ -5960,19 +5972,19 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D137" s="2">
-        <v>45026.0</v>
+      <c r="D137" s="4">
+        <v>44522.0</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>350</v>
+        <v>110</v>
       </c>
       <c r="F137" s="3">
         <v>4.0</v>
@@ -5985,19 +5997,19 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D138" s="2">
+        <v>45026.0</v>
+      </c>
+      <c r="E138" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D138" s="4">
-        <v>44552.0</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="F138" s="3">
         <v>4.0</v>
@@ -6010,19 +6022,19 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="D139" s="4">
-        <v>44497.0</v>
+        <v>44552.0</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="F139" s="3">
         <v>4.0</v>
@@ -6035,19 +6047,19 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D140" s="2">
-        <v>45455.0</v>
+      <c r="D140" s="4">
+        <v>44497.0</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>248</v>
+        <v>69</v>
       </c>
       <c r="F140" s="3">
         <v>4.0</v>
@@ -6060,19 +6072,19 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="D141" s="2">
-        <v>44823.0</v>
+        <v>45455.0</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>361</v>
+        <v>248</v>
       </c>
       <c r="F141" s="3">
         <v>4.0</v>
@@ -6085,19 +6097,19 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D142" s="2">
+        <v>44823.0</v>
+      </c>
+      <c r="E142" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D142" s="4">
-        <v>44552.0</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="F142" s="3">
         <v>4.0</v>
@@ -6110,19 +6122,19 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D143" s="2">
-        <v>44606.0</v>
+        <v>364</v>
+      </c>
+      <c r="D143" s="4">
+        <v>44552.0</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="F143" s="3">
         <v>4.0</v>
@@ -6135,19 +6147,19 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D144" s="2">
-        <v>44781.0</v>
+        <v>44606.0</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="F144" s="3">
         <v>4.0</v>
@@ -6160,19 +6172,19 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>369</v>
-      </c>
       <c r="D145" s="2">
-        <v>44714.0</v>
+        <v>44781.0</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="F145" s="3">
         <v>4.0</v>
@@ -6185,19 +6197,19 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D146" s="4">
-        <v>43098.0</v>
+        <v>370</v>
+      </c>
+      <c r="D146" s="2">
+        <v>44714.0</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="F146" s="3">
         <v>4.0</v>
@@ -6210,22 +6222,22 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D147" s="2">
-        <v>45030.0</v>
+      <c r="D147" s="4">
+        <v>43098.0</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="F147" s="3">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>15</v>
@@ -6235,69 +6247,69 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="D148" s="2">
-        <v>45750.0</v>
+        <v>45030.0</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="F148" s="3">
         <v>3.0</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>380</v>
-      </c>
       <c r="D149" s="2">
-        <v>45183.0</v>
+        <v>45750.0</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="F149" s="3">
         <v>3.0</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="D150" s="2">
-        <v>44958.0</v>
+        <v>45183.0</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>248</v>
+        <v>151</v>
       </c>
       <c r="F150" s="3">
         <v>3.0</v>
@@ -6310,91 +6322,91 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="D151" s="2">
-        <v>45798.0</v>
+        <v>44958.0</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
       <c r="F151" s="3">
         <v>3.0</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="D152" s="2">
-        <v>44704.0</v>
+        <v>45798.0</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="F152" s="3">
         <v>3.0</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>388</v>
-      </c>
       <c r="D153" s="2">
-        <v>45700.0</v>
+        <v>44704.0</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F153" s="3">
         <v>3.0</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D154" s="2">
-        <v>44952.0</v>
+        <v>45700.0</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>35</v>
@@ -6403,26 +6415,26 @@
         <v>3.0</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="D155" s="2">
-        <v>45348.0</v>
+        <v>44952.0</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F155" s="3">
         <v>3.0</v>
@@ -6435,50 +6447,50 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>394</v>
-      </c>
       <c r="C156" s="1" t="s">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="D156" s="2">
-        <v>45870.0</v>
+        <v>45348.0</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="F156" s="3">
         <v>3.0</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="C157" s="1" t="s">
-        <v>317</v>
+        <v>45</v>
       </c>
       <c r="D157" s="2">
-        <v>44299.0</v>
+        <v>45870.0</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="F157" s="3">
         <v>3.0</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
@@ -6491,13 +6503,13 @@
         <v>81</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>397</v>
+        <v>318</v>
       </c>
       <c r="D158" s="2">
-        <v>44813.0</v>
+        <v>44299.0</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>398</v>
+        <v>43</v>
       </c>
       <c r="F158" s="3">
         <v>3.0</v>
@@ -6510,19 +6522,19 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D159" s="2">
+        <v>44813.0</v>
+      </c>
+      <c r="E159" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D159" s="2">
-        <v>45050.0</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="F159" s="3">
         <v>3.0</v>
@@ -6535,19 +6547,19 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>402</v>
-      </c>
       <c r="D160" s="2">
-        <v>44707.0</v>
+        <v>45050.0</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>10</v>
+        <v>248</v>
       </c>
       <c r="F160" s="3">
         <v>3.0</v>
@@ -6560,19 +6572,19 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>404</v>
-      </c>
       <c r="D161" s="2">
-        <v>44683.0</v>
+        <v>44707.0</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F161" s="3">
         <v>3.0</v>
@@ -6585,19 +6597,19 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D162" s="2">
-        <v>44750.0</v>
+        <v>44683.0</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>186</v>
+        <v>35</v>
       </c>
       <c r="F162" s="3">
         <v>3.0</v>
@@ -6610,19 +6622,19 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>409</v>
-      </c>
       <c r="D163" s="2">
-        <v>44320.0</v>
+        <v>44750.0</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="F163" s="3">
         <v>3.0</v>
@@ -6635,41 +6647,41 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="D164" s="2">
-        <v>43405.0</v>
+        <v>44320.0</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="F164" s="3">
         <v>3.0</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>411</v>
+        <v>15</v>
       </c>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>37</v>
+        <v>250</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D165" s="4">
-        <v>44525.0</v>
+        <v>343</v>
+      </c>
+      <c r="D165" s="2">
+        <v>43405.0</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>43</v>
@@ -6678,26 +6690,26 @@
         <v>3.0</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>15</v>
+        <v>412</v>
       </c>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>52</v>
+        <v>414</v>
       </c>
       <c r="D166" s="4">
-        <v>44917.0</v>
+        <v>44525.0</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F166" s="3">
         <v>3.0</v>
@@ -6716,13 +6728,13 @@
         <v>37</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="D167" s="2">
-        <v>44776.0</v>
+        <v>52</v>
+      </c>
+      <c r="D167" s="4">
+        <v>44917.0</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>417</v>
+        <v>62</v>
       </c>
       <c r="F167" s="3">
         <v>3.0</v>
@@ -6735,19 +6747,19 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D168" s="2">
+        <v>44776.0</v>
+      </c>
+      <c r="E168" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D168" s="2">
-        <v>44795.0</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F168" s="3">
         <v>3.0</v>
@@ -6760,19 +6772,19 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B169" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>421</v>
-      </c>
       <c r="D169" s="2">
-        <v>44424.0</v>
+        <v>44795.0</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>248</v>
+        <v>35</v>
       </c>
       <c r="F169" s="3">
         <v>3.0</v>
@@ -6785,19 +6797,19 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B170" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>424</v>
-      </c>
       <c r="D170" s="2">
-        <v>44978.0</v>
+        <v>44424.0</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>59</v>
+        <v>248</v>
       </c>
       <c r="F170" s="3">
         <v>3.0</v>
@@ -6810,19 +6822,19 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>426</v>
-      </c>
       <c r="D171" s="2">
-        <v>44704.0</v>
+        <v>44978.0</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F171" s="3">
         <v>3.0</v>
@@ -6835,19 +6847,19 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>428</v>
-      </c>
       <c r="D172" s="2">
-        <v>44454.0</v>
+        <v>44704.0</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="F172" s="3">
         <v>3.0</v>
@@ -6860,19 +6872,19 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="D173" s="4">
-        <v>44847.0</v>
+        <v>429</v>
+      </c>
+      <c r="D173" s="2">
+        <v>44454.0</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F173" s="3">
         <v>3.0</v>
@@ -6885,19 +6897,19 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="D174" s="2">
-        <v>45733.0</v>
+      <c r="D174" s="4">
+        <v>44847.0</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>433</v>
+        <v>110</v>
       </c>
       <c r="F174" s="3">
         <v>3.0</v>
@@ -6910,19 +6922,19 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D175" s="2">
+        <v>45733.0</v>
+      </c>
+      <c r="E175" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D175" s="2">
-        <v>44379.0</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F175" s="3">
         <v>3.0</v>
@@ -6938,66 +6950,66 @@
         <v>435</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>436</v>
+        <v>223</v>
       </c>
       <c r="D176" s="2">
-        <v>45014.0</v>
+        <v>44379.0</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>437</v>
+        <v>19</v>
       </c>
       <c r="F176" s="3">
         <v>3.0</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>438</v>
+        <v>15</v>
       </c>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D177" s="2">
-        <v>44305.0</v>
+        <v>45014.0</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="F177" s="3">
         <v>3.0</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>15</v>
+        <v>439</v>
       </c>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B178" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>442</v>
-      </c>
       <c r="D178" s="2">
-        <v>45328.0</v>
+        <v>44305.0</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>437</v>
+        <v>31</v>
       </c>
       <c r="F178" s="3">
         <v>3.0</v>
@@ -7010,19 +7022,19 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D179" s="2">
-        <v>45301.0</v>
+        <v>45328.0</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>151</v>
+        <v>438</v>
       </c>
       <c r="F179" s="3">
         <v>3.0</v>
@@ -7035,19 +7047,19 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B180" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>446</v>
-      </c>
       <c r="D180" s="2">
-        <v>43853.0</v>
+        <v>45301.0</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>43</v>
+        <v>151</v>
       </c>
       <c r="F180" s="3">
         <v>3.0</v>
@@ -7060,19 +7072,19 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="D181" s="4">
-        <v>44887.0</v>
+        <v>447</v>
+      </c>
+      <c r="D181" s="2">
+        <v>43853.0</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>201</v>
+        <v>43</v>
       </c>
       <c r="F181" s="3">
         <v>3.0</v>
@@ -7085,19 +7097,19 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B182" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="D182" s="2">
-        <v>44700.0</v>
+      <c r="D182" s="4">
+        <v>44887.0</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>35</v>
+        <v>201</v>
       </c>
       <c r="F182" s="3">
         <v>3.0</v>
@@ -7110,19 +7122,19 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B183" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D183" s="4">
-        <v>44855.0</v>
+      <c r="D183" s="2">
+        <v>44700.0</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F183" s="3">
         <v>3.0</v>
@@ -7135,22 +7147,22 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C184" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B184" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="D184" s="2">
-        <v>45231.0</v>
+      <c r="D184" s="4">
+        <v>44855.0</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F184" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>15</v>
@@ -7160,19 +7172,19 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C185" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B185" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>457</v>
-      </c>
       <c r="D185" s="2">
-        <v>44810.0</v>
+        <v>45231.0</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F185" s="3">
         <v>2.0</v>
@@ -7185,19 +7197,19 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B186" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="D186" s="4">
-        <v>44547.0</v>
+      <c r="D186" s="2">
+        <v>44810.0</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>350</v>
+        <v>24</v>
       </c>
       <c r="F186" s="3">
         <v>2.0</v>
@@ -7210,19 +7222,19 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C187" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B187" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="D187" s="2">
-        <v>43859.0</v>
+      <c r="D187" s="4">
+        <v>44547.0</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F187" s="3">
         <v>2.0</v>
@@ -7235,44 +7247,44 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B188" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>464</v>
-      </c>
       <c r="D188" s="2">
-        <v>45910.0</v>
+        <v>43859.0</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F188" s="3">
         <v>2.0</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B189" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>467</v>
-      </c>
       <c r="D189" s="2">
-        <v>45839.0</v>
+        <v>45910.0</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>19</v>
+        <v>351</v>
       </c>
       <c r="F189" s="3">
         <v>2.0</v>
@@ -7285,25 +7297,25 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B190" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="D190" s="2">
-        <v>45559.0</v>
+        <v>45839.0</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F190" s="3">
         <v>2.0</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
@@ -7316,10 +7328,10 @@
         <v>34</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>470</v>
+        <v>253</v>
       </c>
       <c r="D191" s="2">
-        <v>45021.0</v>
+        <v>45559.0</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>35</v>
@@ -7335,16 +7347,16 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D192" s="2">
-        <v>45066.0</v>
+        <v>45021.0</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>35</v>
@@ -7360,16 +7372,16 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="D193" s="4">
-        <v>45247.0</v>
+        <v>473</v>
+      </c>
+      <c r="D193" s="2">
+        <v>45066.0</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>35</v>
@@ -7385,16 +7397,16 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D194" s="4">
-        <v>44529.0</v>
+        <v>45247.0</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>35</v>
@@ -7410,19 +7422,19 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C195" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="D195" s="2">
-        <v>45352.0</v>
+      <c r="D195" s="4">
+        <v>44529.0</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="F195" s="3">
         <v>2.0</v>
@@ -7435,19 +7447,19 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C196" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B196" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>480</v>
-      </c>
       <c r="D196" s="2">
-        <v>44778.0</v>
+        <v>45352.0</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F196" s="3">
         <v>2.0</v>
@@ -7460,19 +7472,19 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B197" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>482</v>
-      </c>
       <c r="D197" s="2">
-        <v>44728.0</v>
+        <v>44778.0</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>248</v>
+        <v>62</v>
       </c>
       <c r="F197" s="3">
         <v>2.0</v>
@@ -7485,19 +7497,19 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C198" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="D198" s="4">
-        <v>45281.0</v>
+      <c r="D198" s="2">
+        <v>44728.0</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>43</v>
+        <v>248</v>
       </c>
       <c r="F198" s="3">
         <v>2.0</v>
@@ -7510,19 +7522,19 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="D199" s="2">
-        <v>44693.0</v>
+        <v>485</v>
+      </c>
+      <c r="D199" s="4">
+        <v>45281.0</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>201</v>
+        <v>43</v>
       </c>
       <c r="F199" s="3">
         <v>2.0</v>
@@ -7535,19 +7547,19 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C200" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B200" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>488</v>
-      </c>
       <c r="D200" s="2">
-        <v>43636.0</v>
+        <v>44693.0</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>311</v>
+        <v>201</v>
       </c>
       <c r="F200" s="3">
         <v>2.0</v>
@@ -7560,19 +7572,19 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B201" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="D201" s="2">
-        <v>45530.0</v>
+        <v>43636.0</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>43</v>
+        <v>312</v>
       </c>
       <c r="F201" s="3">
         <v>2.0</v>
@@ -7585,19 +7597,19 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="D202" s="4">
-        <v>44123.0</v>
+        <v>491</v>
+      </c>
+      <c r="D202" s="2">
+        <v>45530.0</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>163</v>
+        <v>43</v>
       </c>
       <c r="F202" s="3">
         <v>2.0</v>
@@ -7610,19 +7622,19 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C203" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B203" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D203" s="2">
-        <v>44798.0</v>
+      <c r="D203" s="4">
+        <v>44123.0</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="F203" s="3">
         <v>2.0</v>
@@ -7635,19 +7647,19 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C204" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B204" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D204" s="4">
-        <v>44552.0</v>
+      <c r="D204" s="2">
+        <v>44798.0</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="F204" s="3">
         <v>2.0</v>
@@ -7663,38 +7675,38 @@
         <v>497</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="D205" s="2">
-        <v>45881.0</v>
+        <v>278</v>
+      </c>
+      <c r="D205" s="4">
+        <v>44552.0</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="F205" s="3">
         <v>2.0</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D206" s="2">
-        <v>44802.0</v>
+        <v>45881.0</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>69</v>
@@ -7703,23 +7715,23 @@
         <v>2.0</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D207" s="2">
-        <v>44231.0</v>
+        <v>44802.0</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>69</v>
@@ -7735,16 +7747,16 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D208" s="2">
-        <v>43559.0</v>
+        <v>44231.0</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>69</v>
@@ -7760,19 +7772,19 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C209" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="B209" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>507</v>
-      </c>
       <c r="D209" s="2">
-        <v>44821.0</v>
+        <v>43559.0</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>508</v>
+        <v>69</v>
       </c>
       <c r="F209" s="3">
         <v>2.0</v>
@@ -7785,19 +7797,19 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D210" s="2">
+        <v>44821.0</v>
+      </c>
+      <c r="E210" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="D210" s="2">
-        <v>44650.0</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="F210" s="3">
         <v>2.0</v>
@@ -7810,16 +7822,16 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D211" s="2">
-        <v>44701.0</v>
+        <v>44650.0</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>107</v>
@@ -7835,16 +7847,16 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B212" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="D212" s="4">
-        <v>44847.0</v>
+      <c r="D212" s="2">
+        <v>44701.0</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>107</v>
@@ -7860,16 +7872,16 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B213" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="D213" s="2">
-        <v>44727.0</v>
+      <c r="D213" s="4">
+        <v>44847.0</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>107</v>
@@ -7885,19 +7897,19 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D214" s="2">
-        <v>44531.0</v>
+        <v>44727.0</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="F214" s="3">
         <v>2.0</v>
@@ -7910,69 +7922,69 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C215" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B215" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D215" s="4">
-        <v>45643.0</v>
+      <c r="D215" s="2">
+        <v>44531.0</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F215" s="3">
         <v>2.0</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B216" s="1" t="s">
-        <v>523</v>
-      </c>
       <c r="C216" s="1" t="s">
-        <v>524</v>
+        <v>287</v>
       </c>
       <c r="D216" s="4">
-        <v>43448.0</v>
+        <v>45643.0</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F216" s="3">
         <v>2.0</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C217" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B217" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="D217" s="2">
-        <v>44274.0</v>
+      <c r="D217" s="4">
+        <v>43448.0</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="F217" s="3">
         <v>2.0</v>
@@ -7985,19 +7997,19 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B218" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>528</v>
-      </c>
       <c r="D218" s="2">
-        <v>44539.0</v>
+        <v>44274.0</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>529</v>
+        <v>69</v>
       </c>
       <c r="F218" s="3">
         <v>2.0</v>
@@ -8010,19 +8022,19 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D219" s="2">
+        <v>44539.0</v>
+      </c>
+      <c r="E219" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="D219" s="2">
-        <v>45356.0</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="F219" s="3">
         <v>2.0</v>
@@ -8035,19 +8047,19 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C220" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="B220" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>533</v>
-      </c>
       <c r="D220" s="2">
-        <v>45383.0</v>
+        <v>45356.0</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="F220" s="3">
         <v>2.0</v>
@@ -8060,16 +8072,16 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C221" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B221" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>535</v>
-      </c>
       <c r="D221" s="2">
-        <v>44823.0</v>
+        <v>45383.0</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>43</v>
@@ -8085,19 +8097,19 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>450</v>
+        <v>536</v>
       </c>
       <c r="D222" s="2">
-        <v>45345.0</v>
+        <v>44823.0</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F222" s="3">
         <v>2.0</v>
@@ -8116,13 +8128,13 @@
         <v>45</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>15</v>
+        <v>451</v>
       </c>
       <c r="D223" s="2">
-        <v>44872.0</v>
+        <v>45345.0</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>248</v>
+        <v>35</v>
       </c>
       <c r="F223" s="3">
         <v>2.0</v>
@@ -8138,19 +8150,19 @@
         <v>538</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>539</v>
+        <v>15</v>
       </c>
       <c r="D224" s="2">
-        <v>44592.0</v>
+        <v>44872.0</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>144</v>
+        <v>248</v>
       </c>
       <c r="F224" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G224" s="1" t="s">
         <v>15</v>
@@ -8160,16 +8172,16 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C225" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="B225" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>541</v>
-      </c>
       <c r="D225" s="2">
-        <v>44958.0</v>
+        <v>44592.0</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>144</v>
@@ -8185,19 +8197,19 @@
     </row>
     <row r="226">
       <c r="A226" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B226" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>543</v>
-      </c>
       <c r="D226" s="2">
-        <v>44000.0</v>
+        <v>44958.0</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="F226" s="3">
         <v>1.0</v>
@@ -8210,19 +8222,19 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C227" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="B227" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>545</v>
-      </c>
       <c r="D227" s="2">
-        <v>45139.0</v>
+        <v>44000.0</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="F227" s="3">
         <v>1.0</v>
@@ -8235,16 +8247,16 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C228" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B228" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>547</v>
-      </c>
       <c r="D228" s="2">
-        <v>44091.0</v>
+        <v>45139.0</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>144</v>
@@ -8260,19 +8272,19 @@
     </row>
     <row r="229">
       <c r="A229" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C229" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="B229" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="D229" s="4">
-        <v>45282.0</v>
+      <c r="D229" s="2">
+        <v>44091.0</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="F229" s="3">
         <v>1.0</v>
@@ -8285,16 +8297,16 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C230" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="B230" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D230" s="2">
-        <v>45261.0</v>
+      <c r="D230" s="4">
+        <v>45282.0</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>35</v>
@@ -8310,19 +8322,19 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="B231" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="C231" s="1" t="s">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="D231" s="2">
-        <v>44806.0</v>
+        <v>45261.0</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>350</v>
+        <v>35</v>
       </c>
       <c r="F231" s="3">
         <v>1.0</v>
@@ -8335,19 +8347,19 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C232" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B232" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="D232" s="4">
-        <v>44547.0</v>
+      <c r="D232" s="2">
+        <v>44806.0</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F232" s="3">
         <v>1.0</v>
@@ -8360,19 +8372,19 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C233" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="B233" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="D233" s="2">
-        <v>45030.0</v>
+      <c r="D233" s="4">
+        <v>44547.0</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>248</v>
+        <v>351</v>
       </c>
       <c r="F233" s="3">
         <v>1.0</v>
@@ -8385,44 +8397,44 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C234" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="B234" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>559</v>
-      </c>
       <c r="D234" s="2">
-        <v>45840.0</v>
+        <v>45030.0</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>151</v>
+        <v>248</v>
       </c>
       <c r="F234" s="3">
         <v>1.0</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C235" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="B235" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>561</v>
-      </c>
       <c r="D235" s="2">
-        <v>45810.0</v>
+        <v>45840.0</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="F235" s="3">
         <v>1.0</v>
@@ -8435,19 +8447,19 @@
     </row>
     <row r="236">
       <c r="A236" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C236" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B236" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>563</v>
-      </c>
       <c r="D236" s="2">
-        <v>45912.0</v>
+        <v>45810.0</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="F236" s="3">
         <v>1.0</v>
@@ -8460,16 +8472,16 @@
     </row>
     <row r="237">
       <c r="A237" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D237" s="4">
-        <v>45943.0</v>
+        <v>45946.0</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>43</v>
@@ -8485,69 +8497,69 @@
     </row>
     <row r="238">
       <c r="A238" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C238" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="B238" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="D238" s="4">
-        <v>44524.0</v>
+      <c r="D238" s="2">
+        <v>45912.0</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>201</v>
+        <v>47</v>
       </c>
       <c r="F238" s="3">
         <v>1.0</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C239" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="B239" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="D239" s="2">
-        <v>44208.0</v>
+      <c r="D239" s="4">
+        <v>45943.0</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F239" s="3">
         <v>1.0</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H239" s="1"/>
       <c r="I239" s="1"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>305</v>
+        <v>570</v>
       </c>
       <c r="D240" s="4">
-        <v>44496.0</v>
+        <v>44524.0</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>306</v>
+        <v>201</v>
       </c>
       <c r="F240" s="3">
         <v>1.0</v>
@@ -8569,10 +8581,10 @@
         <v>572</v>
       </c>
       <c r="D241" s="2">
-        <v>44112.0</v>
+        <v>44208.0</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F241" s="3">
         <v>1.0</v>
@@ -8588,16 +8600,16 @@
         <v>573</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="D242" s="2">
-        <v>45121.0</v>
+        <v>306</v>
+      </c>
+      <c r="D242" s="4">
+        <v>44496.0</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>27</v>
+        <v>307</v>
       </c>
       <c r="F242" s="3">
         <v>1.0</v>
@@ -8610,19 +8622,19 @@
     </row>
     <row r="243">
       <c r="A243" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C243" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="B243" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>576</v>
-      </c>
       <c r="D243" s="2">
-        <v>45559.0</v>
+        <v>44112.0</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="F243" s="3">
         <v>1.0</v>
@@ -8635,19 +8647,19 @@
     </row>
     <row r="244">
       <c r="A244" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="B244" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="D244" s="2">
-        <v>45559.0</v>
+        <v>45121.0</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F244" s="3">
         <v>1.0</v>
@@ -8669,7 +8681,7 @@
         <v>579</v>
       </c>
       <c r="D245" s="2">
-        <v>45365.0</v>
+        <v>45559.0</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>35</v>
@@ -8691,10 +8703,10 @@
         <v>34</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>581</v>
+        <v>287</v>
       </c>
       <c r="D246" s="2">
-        <v>44768.0</v>
+        <v>45559.0</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>35</v>
@@ -8710,13 +8722,13 @@
     </row>
     <row r="247">
       <c r="A247" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D247" s="2">
         <v>45365.0</v>
@@ -8735,44 +8747,44 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C248" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="B248" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>585</v>
-      </c>
       <c r="D248" s="2">
-        <v>45917.0</v>
+        <v>44768.0</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="F248" s="3">
         <v>1.0</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H248" s="1"/>
       <c r="I248" s="1"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C249" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="B249" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="D249" s="2">
-        <v>44979.0</v>
+        <v>45365.0</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F249" s="3">
         <v>1.0</v>
@@ -8785,19 +8797,19 @@
     </row>
     <row r="250">
       <c r="A250" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C250" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B250" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>589</v>
-      </c>
       <c r="D250" s="2">
-        <v>45765.0</v>
+        <v>45917.0</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="F250" s="3">
         <v>1.0</v>
@@ -8810,44 +8822,44 @@
     </row>
     <row r="251">
       <c r="A251" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>81</v>
+        <v>231</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="D251" s="2">
-        <v>44763.0</v>
+        <v>45</v>
+      </c>
+      <c r="D251" s="4">
+        <v>45954.0</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="F251" s="3">
         <v>1.0</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H251" s="1"/>
       <c r="I251" s="1"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>81</v>
+        <v>393</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D252" s="2">
-        <v>44957.0</v>
+        <v>44979.0</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="F252" s="3">
         <v>1.0</v>
@@ -8860,44 +8872,44 @@
     </row>
     <row r="253">
       <c r="A253" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D253" s="2">
-        <v>44868.0</v>
+        <v>45765.0</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="F253" s="3">
         <v>1.0</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H253" s="1"/>
       <c r="I253" s="1"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D254" s="2">
-        <v>44681.0</v>
+        <v>44763.0</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="F254" s="3">
         <v>1.0</v>
@@ -8910,19 +8922,19 @@
     </row>
     <row r="255">
       <c r="A255" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D255" s="2">
-        <v>44953.0</v>
+        <v>44957.0</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F255" s="3">
         <v>1.0</v>
@@ -8935,69 +8947,69 @@
     </row>
     <row r="256">
       <c r="A256" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D256" s="2">
-        <v>45870.0</v>
+        <v>44868.0</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F256" s="3">
         <v>1.0</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H256" s="1"/>
       <c r="I256" s="1"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>603</v>
+        <v>15</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D257" s="4">
-        <v>45637.0</v>
+        <v>601</v>
+      </c>
+      <c r="D257" s="2">
+        <v>44681.0</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="F257" s="3">
         <v>1.0</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H257" s="1"/>
       <c r="I257" s="1"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B258" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C258" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="C258" s="1" t="s">
-        <v>606</v>
-      </c>
       <c r="D258" s="2">
-        <v>45532.0</v>
+        <v>44953.0</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="F258" s="3">
         <v>1.0</v>
@@ -9010,41 +9022,41 @@
     </row>
     <row r="259">
       <c r="A259" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>603</v>
+        <v>100</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="D259" s="4">
-        <v>45611.0</v>
+        <v>605</v>
+      </c>
+      <c r="D259" s="2">
+        <v>45870.0</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="F259" s="3">
         <v>1.0</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H259" s="1"/>
       <c r="I259" s="1"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="D260" s="2">
-        <v>45695.0</v>
+        <v>608</v>
+      </c>
+      <c r="D260" s="4">
+        <v>45637.0</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>35</v>
@@ -9053,98 +9065,98 @@
         <v>1.0</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H260" s="1"/>
       <c r="I260" s="1"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>116</v>
+        <v>607</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>94</v>
+        <v>610</v>
       </c>
       <c r="D261" s="2">
-        <v>45894.0</v>
+        <v>45532.0</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F261" s="3">
         <v>1.0</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H261" s="1"/>
       <c r="I261" s="1"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C262" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="B262" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="D262" s="2">
-        <v>45922.0</v>
+      <c r="D262" s="4">
+        <v>45611.0</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F262" s="3">
         <v>1.0</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H262" s="1"/>
       <c r="I262" s="1"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C263" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B263" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>615</v>
-      </c>
       <c r="D263" s="2">
-        <v>45874.0</v>
+        <v>45695.0</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F263" s="3">
         <v>1.0</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H263" s="1"/>
       <c r="I263" s="1"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>617</v>
+        <v>94</v>
       </c>
       <c r="D264" s="2">
-        <v>45750.0</v>
+        <v>45894.0</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>62</v>
@@ -9160,16 +9172,16 @@
     </row>
     <row r="265">
       <c r="A265" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D265" s="2">
-        <v>45737.0</v>
+        <v>45922.0</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>62</v>
@@ -9185,16 +9197,16 @@
     </row>
     <row r="266">
       <c r="A266" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D266" s="2">
-        <v>45924.0</v>
+        <v>45874.0</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>62</v>
@@ -9210,94 +9222,94 @@
     </row>
     <row r="267">
       <c r="A267" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D267" s="2">
-        <v>44805.0</v>
+        <v>45750.0</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="F267" s="3">
         <v>1.0</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H267" s="1"/>
       <c r="I267" s="1"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D268" s="2">
-        <v>44679.0</v>
+        <v>45737.0</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="F268" s="3">
         <v>1.0</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H268" s="1"/>
       <c r="I268" s="1"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D269" s="2">
-        <v>44707.0</v>
+        <v>45924.0</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F269" s="3">
         <v>1.0</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H269" s="1"/>
       <c r="I269" s="1"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D270" s="2">
-        <v>45568.0</v>
+        <v>44805.0</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="F270" s="3">
         <v>1.0</v>
@@ -9310,19 +9322,19 @@
     </row>
     <row r="271">
       <c r="A271" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="D271" s="4">
-        <v>44861.0</v>
+        <v>629</v>
+      </c>
+      <c r="D271" s="2">
+        <v>44679.0</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F271" s="3">
         <v>1.0</v>
@@ -9335,16 +9347,16 @@
     </row>
     <row r="272">
       <c r="A272" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D272" s="2">
-        <v>44935.0</v>
+        <v>44707.0</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>35</v>
@@ -9360,19 +9372,19 @@
     </row>
     <row r="273">
       <c r="A273" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>101</v>
+        <v>633</v>
       </c>
       <c r="D273" s="2">
-        <v>44784.0</v>
+        <v>45568.0</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F273" s="3">
         <v>1.0</v>
@@ -9385,16 +9397,16 @@
     </row>
     <row r="274">
       <c r="A274" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="D274" s="2">
-        <v>44784.0</v>
+        <v>635</v>
+      </c>
+      <c r="D274" s="4">
+        <v>44861.0</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>35</v>
@@ -9410,19 +9422,19 @@
     </row>
     <row r="275">
       <c r="A275" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="D275" s="4">
-        <v>44551.0</v>
+        <v>637</v>
+      </c>
+      <c r="D275" s="2">
+        <v>44935.0</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>278</v>
+        <v>35</v>
       </c>
       <c r="F275" s="3">
         <v>1.0</v>
@@ -9435,16 +9447,16 @@
     </row>
     <row r="276">
       <c r="A276" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>640</v>
+        <v>101</v>
       </c>
       <c r="D276" s="2">
-        <v>44750.0</v>
+        <v>44784.0</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>35</v>
@@ -9460,44 +9472,44 @@
     </row>
     <row r="277">
       <c r="A277" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D277" s="2">
-        <v>45200.0</v>
+        <v>44784.0</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F277" s="3">
         <v>1.0</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>643</v>
+        <v>15</v>
       </c>
       <c r="H277" s="1"/>
       <c r="I277" s="1"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>408</v>
+        <v>84</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="D278" s="2">
-        <v>44609.0</v>
+        <v>642</v>
+      </c>
+      <c r="D278" s="4">
+        <v>44551.0</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>156</v>
+        <v>279</v>
       </c>
       <c r="F278" s="3">
         <v>1.0</v>
@@ -9510,19 +9522,19 @@
     </row>
     <row r="279">
       <c r="A279" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>647</v>
+        <v>84</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="D279" s="2">
-        <v>45052.0</v>
+        <v>44750.0</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="F279" s="3">
         <v>1.0</v>
@@ -9535,44 +9547,44 @@
     </row>
     <row r="280">
       <c r="A280" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>650</v>
+        <v>15</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D280" s="4">
-        <v>44915.0</v>
+        <v>646</v>
+      </c>
+      <c r="D280" s="2">
+        <v>45200.0</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F280" s="3">
         <v>1.0</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>15</v>
+        <v>647</v>
       </c>
       <c r="H280" s="1"/>
       <c r="I280" s="1"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>37</v>
+        <v>409</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D281" s="2">
-        <v>44669.0</v>
+        <v>44609.0</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="F281" s="3">
         <v>1.0</v>
@@ -9585,19 +9597,19 @@
     </row>
     <row r="282">
       <c r="A282" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>37</v>
+        <v>651</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D282" s="2">
-        <v>44398.0</v>
+        <v>45052.0</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="F282" s="3">
         <v>1.0</v>
@@ -9610,19 +9622,19 @@
     </row>
     <row r="283">
       <c r="A283" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>217</v>
+        <v>654</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>656</v>
+        <v>15</v>
       </c>
       <c r="D283" s="4">
-        <v>44557.0</v>
+        <v>44915.0</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="F283" s="3">
         <v>1.0</v>
@@ -9635,19 +9647,19 @@
     </row>
     <row r="284">
       <c r="A284" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>217</v>
+        <v>37</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="D284" s="4">
-        <v>45281.0</v>
+        <v>656</v>
+      </c>
+      <c r="D284" s="2">
+        <v>44669.0</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="F284" s="3">
         <v>1.0</v>
@@ -9660,19 +9672,19 @@
     </row>
     <row r="285">
       <c r="A285" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>217</v>
+        <v>37</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D285" s="2">
-        <v>44742.0</v>
+        <v>44398.0</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="F285" s="3">
         <v>1.0</v>
@@ -9685,16 +9697,16 @@
     </row>
     <row r="286">
       <c r="A286" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>217</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="D286" s="2">
-        <v>44446.0</v>
+        <v>660</v>
+      </c>
+      <c r="D286" s="4">
+        <v>44557.0</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>144</v>
@@ -9710,16 +9722,16 @@
     </row>
     <row r="287">
       <c r="A287" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>217</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="D287" s="2">
-        <v>44756.0</v>
+        <v>662</v>
+      </c>
+      <c r="D287" s="4">
+        <v>45281.0</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>144</v>
@@ -9735,16 +9747,16 @@
     </row>
     <row r="288">
       <c r="A288" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>217</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D288" s="2">
-        <v>45092.0</v>
+        <v>44742.0</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>144</v>
@@ -9760,19 +9772,19 @@
     </row>
     <row r="289">
       <c r="A289" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>668</v>
+        <v>217</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D289" s="2">
-        <v>44532.0</v>
+        <v>44446.0</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="F289" s="3">
         <v>1.0</v>
@@ -9785,19 +9797,19 @@
     </row>
     <row r="290">
       <c r="A290" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>342</v>
+        <v>217</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>519</v>
+        <v>668</v>
       </c>
       <c r="D290" s="2">
-        <v>44958.0</v>
+        <v>44756.0</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="F290" s="3">
         <v>1.0</v>
@@ -9810,44 +9822,44 @@
     </row>
     <row r="291">
       <c r="A291" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D291" s="2">
-        <v>45740.0</v>
+        <v>45092.0</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="F291" s="3">
         <v>1.0</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H291" s="1"/>
       <c r="I291" s="1"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C292" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="B292" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>674</v>
-      </c>
       <c r="D292" s="2">
-        <v>45524.0</v>
+        <v>44532.0</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="F292" s="3">
         <v>1.0</v>
@@ -9860,19 +9872,19 @@
     </row>
     <row r="293">
       <c r="A293" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>220</v>
+        <v>343</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>610</v>
+        <v>520</v>
       </c>
       <c r="D293" s="2">
-        <v>45530.0</v>
+        <v>44958.0</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="F293" s="3">
         <v>1.0</v>
@@ -9885,16 +9897,16 @@
     </row>
     <row r="294">
       <c r="A294" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D294" s="2">
-        <v>44833.0</v>
+        <v>45740.0</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>62</v>
@@ -9903,26 +9915,26 @@
         <v>1.0</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H294" s="1"/>
       <c r="I294" s="1"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D295" s="2">
-        <v>45141.0</v>
+        <v>45524.0</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="F295" s="3">
         <v>1.0</v>
@@ -9935,16 +9947,16 @@
     </row>
     <row r="296">
       <c r="A296" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>681</v>
+        <v>614</v>
       </c>
       <c r="D296" s="2">
-        <v>45852.0</v>
+        <v>45530.0</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>43</v>
@@ -9953,26 +9965,26 @@
         <v>1.0</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H296" s="1"/>
       <c r="I296" s="1"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>683</v>
+        <v>220</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D297" s="2">
-        <v>42026.0</v>
+        <v>44833.0</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F297" s="3">
         <v>1.0</v>
@@ -9985,19 +9997,19 @@
     </row>
     <row r="298">
       <c r="A298" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>348</v>
+        <v>220</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D298" s="2">
-        <v>45064.0</v>
+        <v>45141.0</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c r="F298" s="3">
         <v>1.0</v>
@@ -10010,44 +10022,44 @@
     </row>
     <row r="299">
       <c r="A299" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>688</v>
+        <v>220</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D299" s="2">
-        <v>44873.0</v>
+        <v>45852.0</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="F299" s="3">
         <v>1.0</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H299" s="1"/>
       <c r="I299" s="1"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D300" s="2">
-        <v>43770.0</v>
+        <v>42026.0</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F300" s="3">
         <v>1.0</v>
@@ -10060,16 +10072,16 @@
     </row>
     <row r="301">
       <c r="A301" s="1" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>694</v>
+        <v>349</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="D301" s="2">
-        <v>45903.0</v>
+        <v>45064.0</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>62</v>
@@ -10078,26 +10090,26 @@
         <v>1.0</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H301" s="1"/>
       <c r="I301" s="1"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>67</v>
+        <v>692</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="D302" s="2">
-        <v>44763.0</v>
+        <v>44873.0</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F302" s="3">
         <v>1.0</v>
@@ -10110,19 +10122,19 @@
     </row>
     <row r="303">
       <c r="A303" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>67</v>
+        <v>695</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D303" s="2">
-        <v>44781.0</v>
+        <v>43770.0</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F303" s="3">
         <v>1.0</v>
@@ -10135,41 +10147,41 @@
     </row>
     <row r="304">
       <c r="A304" s="1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>67</v>
+        <v>698</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D304" s="2">
-        <v>44978.0</v>
+        <v>45903.0</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F304" s="3">
         <v>1.0</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H304" s="1"/>
       <c r="I304" s="1"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="D305" s="4">
-        <v>44515.0</v>
+        <v>701</v>
+      </c>
+      <c r="D305" s="2">
+        <v>44763.0</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>69</v>
@@ -10185,16 +10197,16 @@
     </row>
     <row r="306">
       <c r="A306" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D306" s="2">
-        <v>45870.0</v>
+        <v>44781.0</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>69</v>
@@ -10203,23 +10215,23 @@
         <v>1.0</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H306" s="1"/>
       <c r="I306" s="1"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D307" s="2">
-        <v>43598.0</v>
+        <v>44978.0</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>69</v>
@@ -10235,19 +10247,19 @@
     </row>
     <row r="308">
       <c r="A308" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="D308" s="2">
-        <v>44231.0</v>
+        <v>707</v>
+      </c>
+      <c r="D308" s="4">
+        <v>44515.0</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>433</v>
+        <v>69</v>
       </c>
       <c r="F308" s="3">
         <v>1.0</v>
@@ -10260,69 +10272,69 @@
     </row>
     <row r="309">
       <c r="A309" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="D309" s="4">
-        <v>44923.0</v>
+        <v>709</v>
+      </c>
+      <c r="D309" s="2">
+        <v>45870.0</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>248</v>
+        <v>69</v>
       </c>
       <c r="F309" s="3">
         <v>1.0</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H309" s="1"/>
       <c r="I309" s="1"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>521</v>
+        <v>67</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="D310" s="4">
-        <v>45643.0</v>
+        <v>711</v>
+      </c>
+      <c r="D310" s="2">
+        <v>43598.0</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="F310" s="3">
         <v>1.0</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H310" s="1"/>
       <c r="I310" s="1"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>715</v>
+        <v>67</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D311" s="2">
-        <v>44767.0</v>
+        <v>44231.0</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>278</v>
+        <v>434</v>
       </c>
       <c r="F311" s="3">
         <v>1.0</v>
@@ -10335,19 +10347,19 @@
     </row>
     <row r="312">
       <c r="A312" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="D312" s="2">
-        <v>45413.0</v>
+        <v>715</v>
+      </c>
+      <c r="D312" s="4">
+        <v>44923.0</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="F312" s="3">
         <v>1.0</v>
@@ -10360,44 +10372,44 @@
     </row>
     <row r="313">
       <c r="A313" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>18</v>
+        <v>522</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="D313" s="2">
-        <v>44753.0</v>
+        <v>717</v>
+      </c>
+      <c r="D313" s="4">
+        <v>45643.0</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F313" s="3">
         <v>1.0</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H313" s="1"/>
       <c r="I313" s="1"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>15</v>
+        <v>719</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D314" s="2">
-        <v>45539.0</v>
+        <v>44767.0</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>144</v>
+        <v>279</v>
       </c>
       <c r="F314" s="3">
         <v>1.0</v>
@@ -10410,16 +10422,16 @@
     </row>
     <row r="315">
       <c r="A315" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D315" s="2">
-        <v>44208.0</v>
+        <v>45413.0</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>69</v>
@@ -10435,19 +10447,19 @@
     </row>
     <row r="316">
       <c r="A316" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D316" s="2">
-        <v>44236.0</v>
+        <v>44753.0</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="F316" s="3">
         <v>1.0</v>
@@ -10460,19 +10472,19 @@
     </row>
     <row r="317">
       <c r="A317" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D317" s="2">
-        <v>44291.0</v>
+        <v>45539.0</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="F317" s="3">
         <v>1.0</v>
@@ -10485,19 +10497,19 @@
     </row>
     <row r="318">
       <c r="A318" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>730</v>
+        <v>15</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D318" s="2">
-        <v>44435.0</v>
+        <v>44208.0</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="F318" s="3">
         <v>1.0</v>
@@ -10510,19 +10522,19 @@
     </row>
     <row r="319">
       <c r="A319" s="1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B319" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C319" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="C319" s="1" t="s">
-        <v>733</v>
-      </c>
       <c r="D319" s="2">
-        <v>43314.0</v>
+        <v>44236.0</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="F319" s="3">
         <v>1.0</v>
@@ -10535,16 +10547,16 @@
     </row>
     <row r="320">
       <c r="A320" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>735</v>
+        <v>15</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="D320" s="2">
-        <v>45182.0</v>
+        <v>44291.0</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>59</v>
@@ -10560,19 +10572,19 @@
     </row>
     <row r="321">
       <c r="A321" s="1" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>8</v>
+        <v>734</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D321" s="2">
-        <v>45356.0</v>
+        <v>44435.0</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="F321" s="3">
         <v>1.0</v>
@@ -10585,19 +10597,19 @@
     </row>
     <row r="322">
       <c r="A322" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>8</v>
+        <v>734</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D322" s="2">
-        <v>45328.0</v>
+        <v>43314.0</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="F322" s="3">
         <v>1.0</v>
@@ -10610,19 +10622,19 @@
     </row>
     <row r="323">
       <c r="A323" s="1" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>42</v>
+        <v>739</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D323" s="2">
-        <v>45091.0</v>
+        <v>45182.0</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>201</v>
+        <v>59</v>
       </c>
       <c r="F323" s="3">
         <v>1.0</v>
@@ -10635,19 +10647,19 @@
     </row>
     <row r="324">
       <c r="A324" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D324" s="2">
-        <v>45001.0</v>
+        <v>45356.0</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F324" s="3">
         <v>1.0</v>
@@ -10660,19 +10672,19 @@
     </row>
     <row r="325">
       <c r="A325" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>746</v>
+        <v>8</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D325" s="2">
-        <v>45055.0</v>
+        <v>45328.0</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="F325" s="3">
         <v>1.0</v>
@@ -10685,19 +10697,19 @@
     </row>
     <row r="326">
       <c r="A326" s="1" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D326" s="2">
-        <v>45121.0</v>
+        <v>45091.0</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>43</v>
+        <v>201</v>
       </c>
       <c r="F326" s="3">
         <v>1.0</v>
@@ -10710,16 +10722,16 @@
     </row>
     <row r="327">
       <c r="A327" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>275</v>
+        <v>748</v>
       </c>
       <c r="D327" s="2">
-        <v>42916.0</v>
+        <v>45001.0</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>43</v>
@@ -10735,19 +10747,19 @@
     </row>
     <row r="328">
       <c r="A328" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="C328" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="B328" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="D328" s="2">
-        <v>42958.0</v>
+        <v>45055.0</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="F328" s="3">
         <v>1.0</v>
@@ -10763,13 +10775,13 @@
         <v>752</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>753</v>
       </c>
       <c r="D329" s="2">
-        <v>44750.0</v>
+        <v>45121.0</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>43</v>
@@ -10791,13 +10803,13 @@
         <v>45</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>755</v>
+        <v>276</v>
       </c>
       <c r="D330" s="2">
-        <v>43126.0</v>
+        <v>42916.0</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>756</v>
+        <v>43</v>
       </c>
       <c r="F330" s="3">
         <v>1.0</v>
@@ -10809,35 +10821,77 @@
       <c r="I330" s="1"/>
     </row>
     <row r="331">
-      <c r="A331" s="1"/>
-      <c r="B331" s="1"/>
-      <c r="C331" s="1"/>
-      <c r="D331" s="1"/>
-      <c r="E331" s="1"/>
-      <c r="F331" s="1"/>
-      <c r="G331" s="1"/>
+      <c r="A331" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D331" s="2">
+        <v>42958.0</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F331" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G331" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H331" s="1"/>
       <c r="I331" s="1"/>
     </row>
     <row r="332">
-      <c r="A332" s="1"/>
-      <c r="B332" s="1"/>
-      <c r="C332" s="1"/>
-      <c r="D332" s="1"/>
-      <c r="E332" s="1"/>
-      <c r="F332" s="1"/>
-      <c r="G332" s="1"/>
+      <c r="A332" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="D332" s="2">
+        <v>44750.0</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F332" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G332" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H332" s="1"/>
       <c r="I332" s="1"/>
     </row>
     <row r="333">
-      <c r="A333" s="1"/>
-      <c r="B333" s="1"/>
-      <c r="C333" s="1"/>
-      <c r="D333" s="1"/>
-      <c r="E333" s="1"/>
-      <c r="F333" s="1"/>
-      <c r="G333" s="1"/>
+      <c r="A333" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="D333" s="2">
+        <v>43126.0</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="F333" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G333" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H333" s="1"/>
       <c r="I333" s="1"/>
     </row>
@@ -18180,7 +18234,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B133"/>
+    <hyperlink r:id="rId1" ref="B134"/>
   </hyperlinks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/Car_Wash_Advisory_Top_Acquisitions.xlsx
+++ b/Car_Wash_Advisory_Top_Acquisitions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="771">
   <si>
     <t>Title -- Who Bought What?</t>
   </si>
@@ -301,6 +301,12 @@
     <t>Nebraska</t>
   </si>
   <si>
+    <t>WhiteWater Express Car Wash Acquires Time to Shine Car Wash</t>
+  </si>
+  <si>
+    <t>Time To Shine Car Wash</t>
+  </si>
+  <si>
     <t>Caliber Car Wash Acquires Q Car Wash</t>
   </si>
   <si>
@@ -325,6 +331,15 @@
     <t>Speedy Splash</t>
   </si>
   <si>
+    <t>QuickTrip Acquires The Bubble Bath Car Wash</t>
+  </si>
+  <si>
+    <t>QuickTrip</t>
+  </si>
+  <si>
+    <t>The Bubble Bath Car Wash</t>
+  </si>
+  <si>
     <t>Spotless Brands acquires Living Water Express</t>
   </si>
   <si>
@@ -514,9 +529,6 @@
     <t>Zips Car Wash acquires Time To Shine</t>
   </si>
   <si>
-    <t>Time To Shine Car Wash</t>
-  </si>
-  <si>
     <t>Zips Car Wash acquires Wiki Wiki</t>
   </si>
   <si>
@@ -670,6 +682,15 @@
     <t>Coates Car Care</t>
   </si>
   <si>
+    <t>Prairie Capital Fund VII Acquired a Majority Stake in Sgt. Clean Car Wash</t>
+  </si>
+  <si>
+    <t>Prairie Capital</t>
+  </si>
+  <si>
+    <t>Sgt. Clean Car Wash</t>
+  </si>
+  <si>
     <t>Raceway Express Car Wash Acquires Sierra Express Car Wash</t>
   </si>
   <si>
@@ -679,6 +700,12 @@
     <t>Sierra Express Car Wash</t>
   </si>
   <si>
+    <t>Spotless Brands Acquires Pete’s Express Car Wash</t>
+  </si>
+  <si>
+    <t>Pete's Express Car Wash</t>
+  </si>
+  <si>
     <t>True Blue Car Wash Acquires Six Clean Freak Car Wash Locations</t>
   </si>
   <si>
@@ -1714,6 +1741,12 @@
     <t>Rapid Shine Car Wash</t>
   </si>
   <si>
+    <t>Club Car Wash Acquires Shorty's Car Wash</t>
+  </si>
+  <si>
+    <t>Shorty's Car Wash</t>
+  </si>
+  <si>
     <t>Club Car Wash Acquires Slyde’s Car Wash Wylie, TX Location</t>
   </si>
   <si>
@@ -2095,10 +2128,7 @@
     <t>Minute Man Car Wash</t>
   </si>
   <si>
-    <t>Sgt. Clean's Car Wash Acquires Splash 'N Dash of Green</t>
-  </si>
-  <si>
-    <t>Sgt. Clean’s Car Wash</t>
+    <t>Sgt. Clean Car Wash Acquires Splash 'N Dash of Green</t>
   </si>
   <si>
     <t>Splash 'n Dash of Green</t>
@@ -3225,41 +3255,41 @@
         <v>96</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="2">
-        <v>44740.0</v>
+      <c r="D27" s="4">
+        <v>45985.0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="F27" s="3">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="D28" s="2">
-        <v>44782.0</v>
+        <v>44740.0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F28" s="3">
         <v>11.0</v>
@@ -3272,19 +3302,19 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D29" s="2">
-        <v>44774.0</v>
+        <v>44782.0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F29" s="3">
         <v>11.0</v>
@@ -3300,16 +3330,16 @@
         <v>104</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" s="4">
-        <v>44523.0</v>
+      <c r="D30" s="2">
+        <v>44774.0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="F30" s="3">
         <v>11.0</v>
@@ -3322,44 +3352,44 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="D31" s="2">
-        <v>44211.0</v>
+        <v>44927.0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="F31" s="3">
         <v>11.0</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="4">
+        <v>44523.0</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="D32" s="4">
-        <v>44852.0</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F32" s="3">
         <v>11.0</v>
@@ -3375,19 +3405,19 @@
         <v>113</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D33" s="2">
-        <v>45568.0</v>
+        <v>44211.0</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="F33" s="3">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>15</v>
@@ -3397,22 +3427,22 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D34" s="2">
-        <v>44624.0</v>
+      <c r="D34" s="4">
+        <v>44852.0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F34" s="3">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>15</v>
@@ -3425,16 +3455,16 @@
         <v>118</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D35" s="4">
-        <v>44193.0</v>
+      <c r="D35" s="2">
+        <v>45568.0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="F35" s="3">
         <v>10.0</v>
@@ -3450,16 +3480,16 @@
         <v>120</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D36" s="2">
-        <v>42828.0</v>
+        <v>44624.0</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F36" s="3">
         <v>10.0</v>
@@ -3472,44 +3502,44 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D37" s="2">
-        <v>45876.0</v>
+      <c r="D37" s="4">
+        <v>44193.0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="F37" s="3">
         <v>10.0</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="D38" s="2">
-        <v>44291.0</v>
+        <v>42828.0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F38" s="3">
         <v>10.0</v>
@@ -3522,25 +3552,25 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D39" s="2">
-        <v>43867.0</v>
+        <v>45876.0</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F39" s="3">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -3550,19 +3580,19 @@
         <v>131</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>132</v>
       </c>
       <c r="D40" s="2">
-        <v>44823.0</v>
+        <v>44291.0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="F40" s="3">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>15</v>
@@ -3575,19 +3605,19 @@
         <v>133</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D41" s="2">
-        <v>44811.0</v>
+        <v>43867.0</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F41" s="3">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>15</v>
@@ -3597,22 +3627,22 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D42" s="2">
-        <v>44035.0</v>
+        <v>44823.0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F42" s="3">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>15</v>
@@ -3622,19 +3652,19 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="4">
-        <v>44882.0</v>
+        <v>139</v>
+      </c>
+      <c r="D43" s="2">
+        <v>44811.0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="F43" s="3">
         <v>8.0</v>
@@ -3647,19 +3677,19 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D44" s="2">
-        <v>44070.0</v>
+        <v>44035.0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F44" s="3">
         <v>8.0</v>
@@ -3672,19 +3702,19 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D45" s="2">
-        <v>44671.0</v>
+        <v>15</v>
+      </c>
+      <c r="D45" s="4">
+        <v>44882.0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="F45" s="3">
         <v>8.0</v>
@@ -3697,19 +3727,19 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D46" s="4">
-        <v>44910.0</v>
+        <v>144</v>
+      </c>
+      <c r="D46" s="2">
+        <v>44070.0</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="F46" s="3">
         <v>8.0</v>
@@ -3725,16 +3755,16 @@
         <v>145</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D47" s="2">
-        <v>44629.0</v>
+        <v>44671.0</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F47" s="3">
         <v>8.0</v>
@@ -3750,16 +3780,16 @@
         <v>147</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D48" s="4">
-        <v>45274.0</v>
+        <v>44910.0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="F48" s="3">
         <v>8.0</v>
@@ -3772,19 +3802,19 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="2">
-        <v>43601.0</v>
+        <v>44629.0</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="F49" s="3">
         <v>8.0</v>
@@ -3800,16 +3830,16 @@
         <v>152</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D50" s="2">
-        <v>43552.0</v>
+      <c r="D50" s="4">
+        <v>45274.0</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F50" s="3">
         <v>8.0</v>
@@ -3825,13 +3855,13 @@
         <v>154</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D51" s="4">
-        <v>45615.0</v>
+      <c r="D51" s="2">
+        <v>43601.0</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>156</v>
@@ -3840,7 +3870,7 @@
         <v>8.0</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -3850,16 +3880,16 @@
         <v>157</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="D52" s="2">
-        <v>44823.0</v>
+        <v>43552.0</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F52" s="3">
         <v>8.0</v>
@@ -3872,44 +3902,44 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="D53" s="4">
+        <v>45615.0</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D53" s="2">
-        <v>44682.0</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="F53" s="3">
         <v>8.0</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="D54" s="2">
-        <v>44385.0</v>
+        <v>44823.0</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F54" s="3">
         <v>8.0</v>
@@ -3922,19 +3952,19 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D55" s="4">
-        <v>44511.0</v>
+      <c r="D55" s="2">
+        <v>44682.0</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="F55" s="3">
         <v>8.0</v>
@@ -3947,19 +3977,19 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="2">
-        <v>43594.0</v>
+        <v>44385.0</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F56" s="3">
         <v>8.0</v>
@@ -3972,22 +4002,22 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="D57" s="4">
-        <v>45615.0</v>
+        <v>44511.0</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>156</v>
       </c>
       <c r="F57" s="3">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>15</v>
@@ -4000,19 +4030,19 @@
         <v>172</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D58" s="2">
-        <v>43839.0</v>
+        <v>43594.0</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F58" s="3">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>15</v>
@@ -4025,16 +4055,16 @@
         <v>174</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D59" s="4">
-        <v>43787.0</v>
+        <v>45615.0</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="F59" s="3">
         <v>7.0</v>
@@ -4050,16 +4080,16 @@
         <v>176</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>177</v>
       </c>
       <c r="D60" s="2">
-        <v>44419.0</v>
+        <v>43839.0</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F60" s="3">
         <v>7.0</v>
@@ -4075,16 +4105,16 @@
         <v>178</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D61" s="2">
-        <v>44720.0</v>
+      <c r="D61" s="4">
+        <v>43787.0</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="F61" s="3">
         <v>7.0</v>
@@ -4097,19 +4127,19 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="D62" s="2">
-        <v>45033.0</v>
+        <v>44419.0</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F62" s="3">
         <v>7.0</v>
@@ -4122,19 +4152,19 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D63" s="4">
-        <v>43391.0</v>
+      <c r="D63" s="2">
+        <v>44720.0</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>186</v>
+        <v>65</v>
       </c>
       <c r="F63" s="3">
         <v>7.0</v>
@@ -4147,19 +4177,19 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="D64" s="2">
-        <v>44095.0</v>
+        <v>45033.0</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="F64" s="3">
         <v>7.0</v>
@@ -4172,19 +4202,19 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D65" s="4">
+        <v>43391.0</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D65" s="2">
-        <v>43003.0</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="F65" s="3">
         <v>7.0</v>
@@ -4197,19 +4227,19 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D66" s="2">
+        <v>44095.0</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="D66" s="2">
-        <v>43741.0</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="F66" s="3">
         <v>7.0</v>
@@ -4225,16 +4255,16 @@
         <v>194</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D67" s="2">
-        <v>44562.0</v>
+        <v>43003.0</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="F67" s="3">
         <v>7.0</v>
@@ -4250,16 +4280,16 @@
         <v>196</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="D68" s="2">
-        <v>44774.0</v>
+        <v>43741.0</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F68" s="3">
         <v>7.0</v>
@@ -4272,19 +4302,19 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="D69" s="2">
-        <v>44798.0</v>
+        <v>44562.0</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="F69" s="3">
         <v>7.0</v>
@@ -4297,19 +4327,19 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D70" s="4">
-        <v>44195.0</v>
+      <c r="D70" s="2">
+        <v>44774.0</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="F70" s="3">
         <v>7.0</v>
@@ -4322,19 +4352,19 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="2">
+        <v>44798.0</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="D71" s="2">
-        <v>43252.0</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="F71" s="3">
         <v>7.0</v>
@@ -4350,16 +4380,16 @@
         <v>206</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D72" s="2">
-        <v>43007.0</v>
+      <c r="D72" s="4">
+        <v>44195.0</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="F72" s="3">
         <v>7.0</v>
@@ -4375,19 +4405,19 @@
         <v>208</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>15</v>
+        <v>209</v>
       </c>
       <c r="D73" s="2">
-        <v>44896.0</v>
+        <v>43252.0</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F73" s="3">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>15</v>
@@ -4397,44 +4427,44 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="D74" s="2">
-        <v>45700.0</v>
+        <v>43007.0</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="F74" s="3">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>211</v>
+        <v>15</v>
       </c>
       <c r="D75" s="2">
-        <v>44566.0</v>
+        <v>44896.0</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="F75" s="3">
         <v>6.0</v>
@@ -4447,25 +4477,25 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="D76" s="2">
-        <v>44265.0</v>
+        <v>45700.0</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="F76" s="3">
         <v>6.0</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -4475,16 +4505,16 @@
         <v>214</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>215</v>
       </c>
       <c r="D77" s="2">
-        <v>42779.0</v>
+        <v>44566.0</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="F77" s="3">
         <v>6.0</v>
@@ -4500,16 +4530,16 @@
         <v>216</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="D78" s="2">
-        <v>45448.0</v>
+        <v>44265.0</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F78" s="3">
         <v>6.0</v>
@@ -4522,19 +4552,19 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="D79" s="2">
-        <v>42401.0</v>
+        <v>42779.0</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="F79" s="3">
         <v>6.0</v>
@@ -4547,19 +4577,19 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D80" s="4">
-        <v>43762.0</v>
+      <c r="D80" s="2">
+        <v>45448.0</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="F80" s="3">
         <v>6.0</v>
@@ -4572,25 +4602,25 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D81" s="2">
-        <v>44830.0</v>
+        <v>44287.0</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="F81" s="3">
         <v>6.0</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -4600,19 +4630,19 @@
         <v>226</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>9</v>
+        <v>227</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D82" s="4">
-        <v>44482.0</v>
+        <v>228</v>
+      </c>
+      <c r="D82" s="2">
+        <v>42401.0</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="F82" s="3">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>15</v>
@@ -4622,22 +4652,22 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D83" s="2">
-        <v>45811.0</v>
+        <v>230</v>
+      </c>
+      <c r="D83" s="4">
+        <v>45981.0</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>35</v>
+        <v>149</v>
       </c>
       <c r="F83" s="3">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>28</v>
@@ -4647,22 +4677,22 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>231</v>
+        <v>18</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D84" s="2">
-        <v>44322.0</v>
+      <c r="D84" s="4">
+        <v>43762.0</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F84" s="3">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>15</v>
@@ -4675,19 +4705,19 @@
         <v>233</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="D85" s="2">
-        <v>44684.0</v>
+        <v>44830.0</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F85" s="3">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>15</v>
@@ -4697,19 +4727,19 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D86" s="2">
-        <v>43636.0</v>
+      <c r="D86" s="4">
+        <v>44482.0</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c r="F86" s="3">
         <v>5.0</v>
@@ -4722,44 +4752,44 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="D87" s="2">
-        <v>44580.0</v>
+        <v>45811.0</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="F87" s="3">
         <v>5.0</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>241</v>
       </c>
       <c r="D88" s="2">
-        <v>44712.0</v>
+        <v>44322.0</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="F88" s="3">
         <v>5.0</v>
@@ -4775,16 +4805,16 @@
         <v>242</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>116</v>
+        <v>243</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D89" s="2">
-        <v>44566.0</v>
+        <v>44684.0</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="F89" s="3">
         <v>5.0</v>
@@ -4797,19 +4827,19 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D90" s="2">
-        <v>44818.0</v>
+        <v>43636.0</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="F90" s="3">
         <v>5.0</v>
@@ -4822,19 +4852,19 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>14</v>
+        <v>248</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D91" s="2">
-        <v>44475.0</v>
+        <v>44580.0</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>248</v>
+        <v>149</v>
       </c>
       <c r="F91" s="3">
         <v>5.0</v>
@@ -4850,16 +4880,16 @@
         <v>249</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="D92" s="2">
-        <v>44477.0</v>
+        <v>44712.0</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F92" s="3">
         <v>5.0</v>
@@ -4872,19 +4902,19 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="D93" s="2">
-        <v>44539.0</v>
+        <v>44566.0</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F93" s="3">
         <v>5.0</v>
@@ -4897,25 +4927,25 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" s="4">
-        <v>45951.0</v>
+      <c r="D94" s="2">
+        <v>44818.0</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F94" s="3">
         <v>5.0</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -4925,16 +4955,16 @@
         <v>255</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>256</v>
       </c>
       <c r="D95" s="2">
-        <v>44377.0</v>
+        <v>44475.0</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>35</v>
+        <v>257</v>
       </c>
       <c r="F95" s="3">
         <v>5.0</v>
@@ -4947,19 +4977,19 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="D96" s="2">
-        <v>44140.0</v>
+        <v>44477.0</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F96" s="3">
         <v>5.0</v>
@@ -4972,41 +5002,41 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D97" s="2">
-        <v>45747.0</v>
+        <v>44539.0</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="F97" s="3">
         <v>5.0</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>158</v>
+        <v>37</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D98" s="2">
-        <v>44760.0</v>
+        <v>8</v>
+      </c>
+      <c r="D98" s="4">
+        <v>45951.0</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>43</v>
@@ -5015,26 +5045,26 @@
         <v>5.0</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>264</v>
+        <v>37</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>265</v>
       </c>
       <c r="D99" s="2">
-        <v>44805.0</v>
+        <v>44377.0</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>266</v>
+        <v>35</v>
       </c>
       <c r="F99" s="3">
         <v>5.0</v>
@@ -5047,19 +5077,19 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C100" s="1" t="s">
-        <v>223</v>
+        <v>45</v>
       </c>
       <c r="D100" s="2">
-        <v>44042.0</v>
+        <v>44140.0</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F100" s="3">
         <v>5.0</v>
@@ -5075,41 +5105,41 @@
         <v>268</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="D101" s="2">
-        <v>44562.0</v>
+        <v>45747.0</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="F101" s="3">
         <v>5.0</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="D102" s="2">
-        <v>45397.0</v>
+        <v>44760.0</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="F102" s="3">
         <v>5.0</v>
@@ -5122,19 +5152,19 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>274</v>
       </c>
       <c r="D103" s="2">
-        <v>44538.0</v>
+        <v>44805.0</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>72</v>
+        <v>275</v>
       </c>
       <c r="F103" s="3">
         <v>5.0</v>
@@ -5147,19 +5177,19 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="D104" s="2">
-        <v>42831.0</v>
+        <v>44042.0</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="F104" s="3">
         <v>5.0</v>
@@ -5175,16 +5205,16 @@
         <v>277</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D105" s="4">
-        <v>44545.0</v>
+        <v>279</v>
+      </c>
+      <c r="D105" s="2">
+        <v>44562.0</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>279</v>
+        <v>19</v>
       </c>
       <c r="F105" s="3">
         <v>5.0</v>
@@ -5200,16 +5230,16 @@
         <v>280</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>281</v>
       </c>
       <c r="D106" s="2">
-        <v>42929.0</v>
+        <v>45397.0</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="F106" s="3">
         <v>5.0</v>
@@ -5225,16 +5255,16 @@
         <v>282</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>167</v>
+        <v>283</v>
       </c>
       <c r="D107" s="2">
-        <v>42786.0</v>
+        <v>44538.0</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>248</v>
+        <v>72</v>
       </c>
       <c r="F107" s="3">
         <v>5.0</v>
@@ -5247,19 +5277,19 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D108" s="2">
-        <v>44777.0</v>
+        <v>42831.0</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F108" s="3">
         <v>5.0</v>
@@ -5272,22 +5302,22 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D109" s="2">
-        <v>45009.0</v>
+      <c r="D109" s="4">
+        <v>44545.0</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>19</v>
+        <v>288</v>
       </c>
       <c r="F109" s="3">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>15</v>
@@ -5297,22 +5327,22 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>290</v>
       </c>
       <c r="D110" s="2">
-        <v>44531.0</v>
+        <v>42929.0</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>291</v>
+        <v>35</v>
       </c>
       <c r="F110" s="3">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>15</v>
@@ -5322,22 +5352,22 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="D111" s="2">
-        <v>45016.0</v>
+        <v>42786.0</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>47</v>
+        <v>257</v>
       </c>
       <c r="F111" s="3">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>15</v>
@@ -5347,22 +5377,22 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="D112" s="2">
-        <v>44362.0</v>
+        <v>44777.0</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F112" s="3">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>15</v>
@@ -5372,19 +5402,19 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>296</v>
       </c>
       <c r="D113" s="2">
-        <v>43839.0</v>
+        <v>45009.0</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="F113" s="3">
         <v>4.0</v>
@@ -5400,16 +5430,16 @@
         <v>297</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D114" s="2">
-        <v>44004.0</v>
+        <v>44531.0</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="F114" s="3">
         <v>4.0</v>
@@ -5422,19 +5452,19 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="D115" s="2">
-        <v>44334.0</v>
+        <v>45016.0</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="F115" s="3">
         <v>4.0</v>
@@ -5447,19 +5477,19 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D116" s="2">
-        <v>43839.0</v>
+        <v>44362.0</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F116" s="3">
         <v>4.0</v>
@@ -5472,19 +5502,19 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D117" s="2">
-        <v>44651.0</v>
+        <v>43839.0</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="F117" s="3">
         <v>4.0</v>
@@ -5497,19 +5527,19 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D118" s="2">
-        <v>44826.0</v>
+        <v>44004.0</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>307</v>
+        <v>257</v>
       </c>
       <c r="F118" s="3">
         <v>4.0</v>
@@ -5525,16 +5555,16 @@
         <v>308</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>309</v>
       </c>
       <c r="D119" s="2">
-        <v>44678.0</v>
+        <v>44334.0</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="F119" s="3">
         <v>4.0</v>
@@ -5550,16 +5580,16 @@
         <v>310</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>311</v>
       </c>
       <c r="D120" s="2">
-        <v>44803.0</v>
+        <v>43839.0</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>312</v>
+        <v>43</v>
       </c>
       <c r="F120" s="3">
         <v>4.0</v>
@@ -5572,19 +5602,19 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>314</v>
-      </c>
       <c r="D121" s="2">
-        <v>44937.0</v>
+        <v>44651.0</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="F121" s="3">
         <v>4.0</v>
@@ -5597,19 +5627,19 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C122" s="1" t="s">
+      <c r="D122" s="2">
+        <v>44826.0</v>
+      </c>
+      <c r="E122" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="D122" s="2">
-        <v>44812.0</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F122" s="3">
         <v>4.0</v>
@@ -5625,16 +5655,16 @@
         <v>317</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>318</v>
       </c>
       <c r="D123" s="2">
-        <v>44812.0</v>
+        <v>44678.0</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F123" s="3">
         <v>4.0</v>
@@ -5650,16 +5680,16 @@
         <v>319</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>320</v>
       </c>
       <c r="D124" s="2">
-        <v>44812.0</v>
+        <v>44803.0</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>10</v>
+        <v>321</v>
       </c>
       <c r="F124" s="3">
         <v>4.0</v>
@@ -5672,19 +5702,19 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D125" s="2">
-        <v>44617.0</v>
+        <v>44937.0</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F125" s="3">
         <v>4.0</v>
@@ -5697,19 +5727,19 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D126" s="2">
         <v>44812.0</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="F126" s="3">
         <v>4.0</v>
@@ -5722,19 +5752,19 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D127" s="2">
-        <v>44567.0</v>
+        <v>44812.0</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F127" s="3">
         <v>4.0</v>
@@ -5747,19 +5777,19 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D128" s="4">
-        <v>44546.0</v>
+        <v>329</v>
+      </c>
+      <c r="D128" s="2">
+        <v>44812.0</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="F128" s="3">
         <v>4.0</v>
@@ -5772,19 +5802,19 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D129" s="4">
-        <v>43769.0</v>
+        <v>331</v>
+      </c>
+      <c r="D129" s="2">
+        <v>44617.0</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>279</v>
+        <v>24</v>
       </c>
       <c r="F129" s="3">
         <v>4.0</v>
@@ -5797,19 +5827,19 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D130" s="2">
-        <v>42877.0</v>
+        <v>44812.0</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F130" s="3">
         <v>4.0</v>
@@ -5822,19 +5852,19 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D131" s="2">
-        <v>43272.0</v>
+        <v>44567.0</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>291</v>
+        <v>24</v>
       </c>
       <c r="F131" s="3">
         <v>4.0</v>
@@ -5847,19 +5877,19 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D132" s="2">
-        <v>44690.0</v>
+        <v>337</v>
+      </c>
+      <c r="D132" s="4">
+        <v>44546.0</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="F132" s="3">
         <v>4.0</v>
@@ -5872,19 +5902,19 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>217</v>
+        <v>84</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D133" s="2">
-        <v>44467.0</v>
+        <v>339</v>
+      </c>
+      <c r="D133" s="4">
+        <v>43769.0</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>144</v>
+        <v>288</v>
       </c>
       <c r="F133" s="3">
         <v>4.0</v>
@@ -5897,19 +5927,19 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D134" s="2">
-        <v>45135.0</v>
+        <v>42877.0</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F134" s="3">
         <v>4.0</v>
@@ -5922,19 +5952,19 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>262</v>
+        <v>37</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>15</v>
+        <v>343</v>
       </c>
       <c r="D135" s="2">
-        <v>44697.0</v>
+        <v>43272.0</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>43</v>
+        <v>300</v>
       </c>
       <c r="F135" s="3">
         <v>4.0</v>
@@ -5947,19 +5977,19 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>343</v>
+        <v>37</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>344</v>
+        <v>252</v>
       </c>
       <c r="D136" s="2">
-        <v>44789.0</v>
+        <v>44690.0</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>279</v>
+        <v>62</v>
       </c>
       <c r="F136" s="3">
         <v>4.0</v>
@@ -5975,16 +6005,16 @@
         <v>345</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C137" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D137" s="4">
-        <v>44522.0</v>
+      <c r="D137" s="2">
+        <v>44467.0</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="F137" s="3">
         <v>4.0</v>
@@ -5997,19 +6027,19 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B138" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="D138" s="2">
-        <v>45026.0</v>
+        <v>45135.0</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>351</v>
+        <v>65</v>
       </c>
       <c r="F138" s="3">
         <v>4.0</v>
@@ -6022,19 +6052,19 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>116</v>
+        <v>271</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D139" s="4">
-        <v>44552.0</v>
+        <v>15</v>
+      </c>
+      <c r="D139" s="2">
+        <v>44697.0</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F139" s="3">
         <v>4.0</v>
@@ -6047,19 +6077,19 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>67</v>
+        <v>352</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D140" s="4">
-        <v>44497.0</v>
+        <v>353</v>
+      </c>
+      <c r="D140" s="2">
+        <v>44789.0</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>69</v>
+        <v>288</v>
       </c>
       <c r="F140" s="3">
         <v>4.0</v>
@@ -6072,19 +6102,19 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="D141" s="2">
-        <v>45455.0</v>
+      <c r="D141" s="4">
+        <v>44522.0</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>248</v>
+        <v>115</v>
       </c>
       <c r="F141" s="3">
         <v>4.0</v>
@@ -6097,19 +6127,19 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="D142" s="2">
+        <v>45026.0</v>
+      </c>
+      <c r="E142" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D142" s="2">
-        <v>44823.0</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="F142" s="3">
         <v>4.0</v>
@@ -6122,19 +6152,19 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D143" s="4">
         <v>44552.0</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="F143" s="3">
         <v>4.0</v>
@@ -6147,19 +6177,19 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D144" s="2">
-        <v>44606.0</v>
+        <v>364</v>
+      </c>
+      <c r="D144" s="4">
+        <v>44497.0</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F144" s="3">
         <v>4.0</v>
@@ -6172,19 +6202,19 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>368</v>
-      </c>
       <c r="D145" s="2">
-        <v>44781.0</v>
+        <v>45455.0</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>43</v>
+        <v>257</v>
       </c>
       <c r="F145" s="3">
         <v>4.0</v>
@@ -6197,19 +6227,19 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>370</v>
       </c>
       <c r="D146" s="2">
-        <v>44714.0</v>
+        <v>44823.0</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>65</v>
+        <v>371</v>
       </c>
       <c r="F146" s="3">
         <v>4.0</v>
@@ -6222,19 +6252,19 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D147" s="4">
-        <v>43098.0</v>
+        <v>44552.0</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="F147" s="3">
         <v>4.0</v>
@@ -6247,22 +6277,22 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>374</v>
+        <v>42</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>375</v>
       </c>
       <c r="D148" s="2">
-        <v>45030.0</v>
+        <v>44606.0</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F148" s="3">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>15</v>
@@ -6275,44 +6305,44 @@
         <v>376</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C149" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="D149" s="2">
-        <v>45750.0</v>
+        <v>44781.0</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F149" s="3">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>381</v>
-      </c>
       <c r="D150" s="2">
-        <v>45183.0</v>
+        <v>44714.0</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="F150" s="3">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>15</v>
@@ -6322,22 +6352,22 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D151" s="2">
-        <v>44958.0</v>
+        <v>381</v>
+      </c>
+      <c r="D151" s="4">
+        <v>43098.0</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>248</v>
+        <v>35</v>
       </c>
       <c r="F151" s="3">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>15</v>
@@ -6347,50 +6377,50 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>385</v>
-      </c>
       <c r="D152" s="2">
-        <v>45798.0</v>
+        <v>45030.0</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="F152" s="3">
         <v>3.0</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>387</v>
       </c>
       <c r="D153" s="2">
-        <v>44704.0</v>
+        <v>45750.0</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F153" s="3">
         <v>3.0</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
@@ -6400,41 +6430,41 @@
         <v>388</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>34</v>
+        <v>389</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D154" s="2">
-        <v>45700.0</v>
+        <v>45183.0</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="F154" s="3">
         <v>3.0</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D155" s="2">
-        <v>44952.0</v>
+        <v>44958.0</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>35</v>
+        <v>257</v>
       </c>
       <c r="F155" s="3">
         <v>3.0</v>
@@ -6447,94 +6477,94 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>393</v>
+        <v>51</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>232</v>
+        <v>394</v>
       </c>
       <c r="D156" s="2">
-        <v>45348.0</v>
+        <v>45798.0</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="F156" s="3">
         <v>3.0</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>395</v>
+        <v>9</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="D157" s="2">
-        <v>45870.0</v>
+        <v>44704.0</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F157" s="3">
         <v>3.0</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="D158" s="2">
-        <v>44299.0</v>
+        <v>45700.0</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F158" s="3">
         <v>3.0</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D159" s="2">
-        <v>44813.0</v>
+        <v>44952.0</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>399</v>
+        <v>35</v>
       </c>
       <c r="F159" s="3">
         <v>3.0</v>
@@ -6547,19 +6577,19 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>179</v>
+        <v>402</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>401</v>
+        <v>241</v>
       </c>
       <c r="D160" s="2">
-        <v>45050.0</v>
+        <v>45348.0</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>248</v>
+        <v>31</v>
       </c>
       <c r="F160" s="3">
         <v>3.0</v>
@@ -6572,44 +6602,44 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>14</v>
+        <v>404</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>403</v>
+        <v>45</v>
       </c>
       <c r="D161" s="2">
-        <v>44707.0</v>
+        <v>45870.0</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F161" s="3">
         <v>3.0</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>405</v>
+        <v>327</v>
       </c>
       <c r="D162" s="2">
-        <v>44683.0</v>
+        <v>44299.0</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F162" s="3">
         <v>3.0</v>
@@ -6625,16 +6655,16 @@
         <v>406</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>407</v>
       </c>
       <c r="D163" s="2">
-        <v>44750.0</v>
+        <v>44813.0</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>186</v>
+        <v>408</v>
       </c>
       <c r="F163" s="3">
         <v>3.0</v>
@@ -6647,19 +6677,19 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>409</v>
+        <v>183</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>410</v>
       </c>
       <c r="D164" s="2">
-        <v>44320.0</v>
+        <v>45050.0</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>156</v>
+        <v>257</v>
       </c>
       <c r="F164" s="3">
         <v>3.0</v>
@@ -6675,22 +6705,22 @@
         <v>411</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>250</v>
+        <v>14</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>343</v>
+        <v>412</v>
       </c>
       <c r="D165" s="2">
-        <v>43405.0</v>
+        <v>44707.0</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F165" s="3">
         <v>3.0</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>412</v>
+        <v>15</v>
       </c>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
@@ -6700,16 +6730,16 @@
         <v>413</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D166" s="4">
-        <v>44525.0</v>
+      <c r="D166" s="2">
+        <v>44683.0</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F166" s="3">
         <v>3.0</v>
@@ -6725,16 +6755,16 @@
         <v>415</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D167" s="4">
-        <v>44917.0</v>
+        <v>416</v>
+      </c>
+      <c r="D167" s="2">
+        <v>44750.0</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c r="F167" s="3">
         <v>3.0</v>
@@ -6747,19 +6777,19 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>37</v>
+        <v>418</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D168" s="2">
-        <v>44776.0</v>
+        <v>44320.0</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>418</v>
+        <v>161</v>
       </c>
       <c r="F168" s="3">
         <v>3.0</v>
@@ -6772,44 +6802,44 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>420</v>
+        <v>352</v>
       </c>
       <c r="D169" s="2">
-        <v>44795.0</v>
+        <v>43405.0</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F169" s="3">
         <v>3.0</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>15</v>
+        <v>421</v>
       </c>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D170" s="2">
-        <v>44424.0</v>
+        <v>423</v>
+      </c>
+      <c r="D170" s="4">
+        <v>44525.0</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>248</v>
+        <v>43</v>
       </c>
       <c r="F170" s="3">
         <v>3.0</v>
@@ -6822,19 +6852,19 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>424</v>
+        <v>37</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D171" s="2">
-        <v>44978.0</v>
+        <v>52</v>
+      </c>
+      <c r="D171" s="4">
+        <v>44917.0</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F171" s="3">
         <v>3.0</v>
@@ -6847,19 +6877,19 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C172" s="1" t="s">
+      <c r="D172" s="2">
+        <v>44776.0</v>
+      </c>
+      <c r="E172" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="D172" s="2">
-        <v>44704.0</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F172" s="3">
         <v>3.0</v>
@@ -6875,16 +6905,16 @@
         <v>428</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>105</v>
+        <v>267</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>429</v>
       </c>
       <c r="D173" s="2">
-        <v>44454.0</v>
+        <v>44795.0</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="F173" s="3">
         <v>3.0</v>
@@ -6900,16 +6930,16 @@
         <v>430</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>105</v>
+        <v>267</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="D174" s="4">
-        <v>44847.0</v>
+      <c r="D174" s="2">
+        <v>44424.0</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>110</v>
+        <v>257</v>
       </c>
       <c r="F174" s="3">
         <v>3.0</v>
@@ -6925,16 +6955,16 @@
         <v>432</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>123</v>
+        <v>433</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D175" s="2">
-        <v>45733.0</v>
+        <v>44978.0</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>434</v>
+        <v>59</v>
       </c>
       <c r="F175" s="3">
         <v>3.0</v>
@@ -6950,16 +6980,16 @@
         <v>435</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>223</v>
+        <v>436</v>
       </c>
       <c r="D176" s="2">
-        <v>44379.0</v>
+        <v>44704.0</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F176" s="3">
         <v>3.0</v>
@@ -6972,44 +7002,44 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D177" s="2">
-        <v>45014.0</v>
+        <v>44454.0</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>438</v>
+        <v>112</v>
       </c>
       <c r="F177" s="3">
         <v>3.0</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>439</v>
+        <v>15</v>
       </c>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B178" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="D178" s="2">
-        <v>44305.0</v>
+      <c r="D178" s="4">
+        <v>44847.0</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="F178" s="3">
         <v>3.0</v>
@@ -7022,19 +7052,19 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B179" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" s="1" t="s">
+      <c r="D179" s="2">
+        <v>45733.0</v>
+      </c>
+      <c r="E179" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="D179" s="2">
-        <v>45328.0</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="F179" s="3">
         <v>3.0</v>
@@ -7050,16 +7080,16 @@
         <v>444</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>445</v>
+        <v>232</v>
       </c>
       <c r="D180" s="2">
-        <v>45301.0</v>
+        <v>44379.0</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="F180" s="3">
         <v>3.0</v>
@@ -7072,44 +7102,44 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B181" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C181" s="1" t="s">
+      <c r="D181" s="2">
+        <v>45014.0</v>
+      </c>
+      <c r="E181" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="D181" s="2">
-        <v>43853.0</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="F181" s="3">
         <v>3.0</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>15</v>
+        <v>448</v>
       </c>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="D182" s="4">
-        <v>44887.0</v>
+        <v>450</v>
+      </c>
+      <c r="D182" s="2">
+        <v>44305.0</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="F182" s="3">
         <v>3.0</v>
@@ -7122,19 +7152,19 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>451</v>
+        <v>8</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>452</v>
       </c>
       <c r="D183" s="2">
-        <v>44700.0</v>
+        <v>45328.0</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>35</v>
+        <v>447</v>
       </c>
       <c r="F183" s="3">
         <v>3.0</v>
@@ -7150,16 +7180,16 @@
         <v>453</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="D184" s="4">
-        <v>44855.0</v>
+      <c r="D184" s="2">
+        <v>45301.0</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="F184" s="3">
         <v>3.0</v>
@@ -7175,19 +7205,19 @@
         <v>455</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>456</v>
       </c>
       <c r="D185" s="2">
-        <v>45231.0</v>
+        <v>43853.0</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F185" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>15</v>
@@ -7200,19 +7230,19 @@
         <v>457</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="D186" s="2">
-        <v>44810.0</v>
+      <c r="D186" s="4">
+        <v>44887.0</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>24</v>
+        <v>205</v>
       </c>
       <c r="F186" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>15</v>
@@ -7225,19 +7255,19 @@
         <v>459</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>289</v>
+        <v>460</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="D187" s="4">
-        <v>44547.0</v>
+        <v>461</v>
+      </c>
+      <c r="D187" s="2">
+        <v>44700.0</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>351</v>
+        <v>35</v>
       </c>
       <c r="F187" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>15</v>
@@ -7247,22 +7277,22 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>462</v>
+        <v>45</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="D188" s="2">
-        <v>43859.0</v>
+      <c r="D188" s="4">
+        <v>44855.0</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>351</v>
+        <v>43</v>
       </c>
       <c r="F188" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>15</v>
@@ -7275,22 +7305,22 @@
         <v>464</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>465</v>
       </c>
       <c r="D189" s="2">
-        <v>45910.0</v>
+        <v>45231.0</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>351</v>
+        <v>43</v>
       </c>
       <c r="F189" s="3">
         <v>2.0</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
@@ -7300,41 +7330,41 @@
         <v>466</v>
       </c>
       <c r="B190" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C190" s="1" t="s">
-        <v>468</v>
-      </c>
       <c r="D190" s="2">
-        <v>45839.0</v>
+        <v>44810.0</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F190" s="3">
         <v>2.0</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B191" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D191" s="2">
-        <v>45559.0</v>
+      <c r="D191" s="4">
+        <v>44547.0</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>35</v>
+        <v>360</v>
       </c>
       <c r="F191" s="3">
         <v>2.0</v>
@@ -7350,16 +7380,16 @@
         <v>470</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>34</v>
+        <v>471</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D192" s="2">
-        <v>45021.0</v>
+        <v>43859.0</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>35</v>
+        <v>360</v>
       </c>
       <c r="F192" s="3">
         <v>2.0</v>
@@ -7372,66 +7402,66 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D193" s="2">
-        <v>45066.0</v>
+        <v>45910.0</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>35</v>
+        <v>360</v>
       </c>
       <c r="F193" s="3">
         <v>2.0</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>34</v>
+        <v>476</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="D194" s="4">
-        <v>45247.0</v>
+        <v>477</v>
+      </c>
+      <c r="D194" s="2">
+        <v>45839.0</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F194" s="3">
         <v>2.0</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="D195" s="4">
-        <v>44529.0</v>
+        <v>262</v>
+      </c>
+      <c r="D195" s="2">
+        <v>45559.0</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>35</v>
@@ -7447,19 +7477,19 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>231</v>
+        <v>34</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D196" s="2">
-        <v>45352.0</v>
+        <v>45021.0</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="F196" s="3">
         <v>2.0</v>
@@ -7472,19 +7502,19 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D197" s="2">
-        <v>44778.0</v>
+        <v>45066.0</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F197" s="3">
         <v>2.0</v>
@@ -7497,19 +7527,19 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="D198" s="2">
-        <v>44728.0</v>
+        <v>484</v>
+      </c>
+      <c r="D198" s="4">
+        <v>45247.0</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>248</v>
+        <v>35</v>
       </c>
       <c r="F198" s="3">
         <v>2.0</v>
@@ -7522,19 +7552,19 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D199" s="4">
-        <v>45281.0</v>
+        <v>44529.0</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F199" s="3">
         <v>2.0</v>
@@ -7547,19 +7577,19 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>84</v>
+        <v>240</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D200" s="2">
-        <v>44693.0</v>
+        <v>45352.0</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>201</v>
+        <v>59</v>
       </c>
       <c r="F200" s="3">
         <v>2.0</v>
@@ -7572,19 +7602,19 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D201" s="2">
-        <v>43636.0</v>
+        <v>44778.0</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>312</v>
+        <v>62</v>
       </c>
       <c r="F201" s="3">
         <v>2.0</v>
@@ -7597,19 +7627,19 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>220</v>
+        <v>14</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D202" s="2">
-        <v>45530.0</v>
+        <v>44728.0</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>43</v>
+        <v>257</v>
       </c>
       <c r="F202" s="3">
         <v>2.0</v>
@@ -7622,19 +7652,19 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>220</v>
+        <v>84</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D203" s="4">
-        <v>44123.0</v>
+        <v>45281.0</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>163</v>
+        <v>43</v>
       </c>
       <c r="F203" s="3">
         <v>2.0</v>
@@ -7647,19 +7677,19 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>495</v>
+        <v>84</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>496</v>
       </c>
       <c r="D204" s="2">
-        <v>44798.0</v>
+        <v>44693.0</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>72</v>
+        <v>205</v>
       </c>
       <c r="F204" s="3">
         <v>2.0</v>
@@ -7675,16 +7705,16 @@
         <v>497</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D205" s="4">
-        <v>44552.0</v>
+        <v>498</v>
+      </c>
+      <c r="D205" s="2">
+        <v>43636.0</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>35</v>
+        <v>321</v>
       </c>
       <c r="F205" s="3">
         <v>2.0</v>
@@ -7697,44 +7727,44 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>67</v>
+        <v>227</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D206" s="2">
-        <v>45881.0</v>
+        <v>45530.0</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="F206" s="3">
         <v>2.0</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>67</v>
+        <v>227</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="D207" s="2">
-        <v>44802.0</v>
+        <v>502</v>
+      </c>
+      <c r="D207" s="4">
+        <v>44123.0</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>69</v>
+        <v>168</v>
       </c>
       <c r="F207" s="3">
         <v>2.0</v>
@@ -7747,19 +7777,19 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>67</v>
+        <v>504</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D208" s="2">
-        <v>44231.0</v>
+        <v>44798.0</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F208" s="3">
         <v>2.0</v>
@@ -7772,19 +7802,19 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D209" s="2">
-        <v>43559.0</v>
+        <v>287</v>
+      </c>
+      <c r="D209" s="4">
+        <v>44552.0</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="F209" s="3">
         <v>2.0</v>
@@ -7797,44 +7827,44 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>507</v>
+        <v>67</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>508</v>
       </c>
       <c r="D210" s="2">
-        <v>44821.0</v>
+        <v>45881.0</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>509</v>
+        <v>69</v>
       </c>
       <c r="F210" s="3">
         <v>2.0</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B211" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>511</v>
-      </c>
       <c r="D211" s="2">
-        <v>44650.0</v>
+        <v>44802.0</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="F211" s="3">
         <v>2.0</v>
@@ -7847,19 +7877,19 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B212" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>513</v>
-      </c>
       <c r="D212" s="2">
-        <v>44701.0</v>
+        <v>44231.0</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="F212" s="3">
         <v>2.0</v>
@@ -7872,19 +7902,19 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B213" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="D213" s="4">
-        <v>44847.0</v>
+      <c r="D213" s="2">
+        <v>43559.0</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="F213" s="3">
         <v>2.0</v>
@@ -7897,19 +7927,19 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C214" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B214" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C214" s="1" t="s">
+      <c r="D214" s="2">
+        <v>44821.0</v>
+      </c>
+      <c r="E214" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="D214" s="2">
-        <v>44727.0</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="F214" s="3">
         <v>2.0</v>
@@ -7925,16 +7955,16 @@
         <v>519</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>520</v>
       </c>
       <c r="D215" s="2">
-        <v>44531.0</v>
+        <v>44650.0</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="F215" s="3">
         <v>2.0</v>
@@ -7950,22 +7980,22 @@
         <v>521</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="C216" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D216" s="4">
-        <v>45643.0</v>
+      <c r="D216" s="2">
+        <v>44701.0</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="F216" s="3">
         <v>2.0</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
@@ -7981,10 +8011,10 @@
         <v>525</v>
       </c>
       <c r="D217" s="4">
-        <v>43448.0</v>
+        <v>44847.0</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="F217" s="3">
         <v>2.0</v>
@@ -8000,16 +8030,16 @@
         <v>526</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D218" s="2">
-        <v>44274.0</v>
+        <v>44727.0</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="F218" s="3">
         <v>2.0</v>
@@ -8025,16 +8055,16 @@
         <v>528</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>360</v>
+        <v>110</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>529</v>
       </c>
       <c r="D219" s="2">
-        <v>44539.0</v>
+        <v>44531.0</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>530</v>
+        <v>19</v>
       </c>
       <c r="F219" s="3">
         <v>2.0</v>
@@ -8047,41 +8077,41 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B220" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C220" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="D220" s="2">
-        <v>45356.0</v>
+        <v>296</v>
+      </c>
+      <c r="D220" s="4">
+        <v>45643.0</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="F220" s="3">
         <v>2.0</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="D221" s="2">
-        <v>45383.0</v>
+      <c r="D221" s="4">
+        <v>43448.0</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>43</v>
@@ -8100,16 +8130,16 @@
         <v>535</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>536</v>
       </c>
       <c r="D222" s="2">
-        <v>44823.0</v>
+        <v>44274.0</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="F222" s="3">
         <v>2.0</v>
@@ -8125,16 +8155,16 @@
         <v>537</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>45</v>
+        <v>369</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>451</v>
+        <v>538</v>
       </c>
       <c r="D223" s="2">
-        <v>45345.0</v>
+        <v>44539.0</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>35</v>
+        <v>539</v>
       </c>
       <c r="F223" s="3">
         <v>2.0</v>
@@ -8147,19 +8177,19 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>15</v>
+        <v>541</v>
       </c>
       <c r="D224" s="2">
-        <v>44872.0</v>
+        <v>45356.0</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>248</v>
+        <v>65</v>
       </c>
       <c r="F224" s="3">
         <v>2.0</v>
@@ -8172,22 +8202,22 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="D225" s="2">
-        <v>44592.0</v>
+        <v>45383.0</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="F225" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G225" s="1" t="s">
         <v>15</v>
@@ -8197,22 +8227,22 @@
     </row>
     <row r="226">
       <c r="A226" s="1" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D226" s="2">
-        <v>44958.0</v>
+        <v>44823.0</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="F226" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G226" s="1" t="s">
         <v>15</v>
@@ -8222,22 +8252,22 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>544</v>
+        <v>460</v>
       </c>
       <c r="D227" s="2">
-        <v>44000.0</v>
+        <v>45345.0</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F227" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>15</v>
@@ -8247,22 +8277,22 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>546</v>
+        <v>15</v>
       </c>
       <c r="D228" s="2">
-        <v>45139.0</v>
+        <v>44872.0</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>144</v>
+        <v>257</v>
       </c>
       <c r="F228" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G228" s="1" t="s">
         <v>15</v>
@@ -8272,19 +8302,19 @@
     </row>
     <row r="229">
       <c r="A229" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D229" s="2">
-        <v>44091.0</v>
+        <v>44592.0</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F229" s="3">
         <v>1.0</v>
@@ -8297,19 +8327,19 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="D230" s="4">
-        <v>45282.0</v>
+        <v>551</v>
+      </c>
+      <c r="D230" s="2">
+        <v>44958.0</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>35</v>
+        <v>149</v>
       </c>
       <c r="F230" s="3">
         <v>1.0</v>
@@ -8322,16 +8352,16 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>552</v>
+        <v>15</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>522</v>
+        <v>553</v>
       </c>
       <c r="D231" s="2">
-        <v>45261.0</v>
+        <v>44000.0</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>35</v>
@@ -8347,19 +8377,19 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>289</v>
+        <v>15</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D232" s="2">
-        <v>44806.0</v>
+        <v>45139.0</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>351</v>
+        <v>149</v>
       </c>
       <c r="F232" s="3">
         <v>1.0</v>
@@ -8372,19 +8402,19 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>289</v>
+        <v>15</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="D233" s="4">
-        <v>44547.0</v>
+        <v>557</v>
+      </c>
+      <c r="D233" s="2">
+        <v>44091.0</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>351</v>
+        <v>149</v>
       </c>
       <c r="F233" s="3">
         <v>1.0</v>
@@ -8397,19 +8427,19 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>380</v>
+        <v>15</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="D234" s="2">
-        <v>45030.0</v>
+        <v>559</v>
+      </c>
+      <c r="D234" s="4">
+        <v>45282.0</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>248</v>
+        <v>35</v>
       </c>
       <c r="F234" s="3">
         <v>1.0</v>
@@ -8422,119 +8452,119 @@
     </row>
     <row r="235">
       <c r="A235" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>380</v>
+        <v>561</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>560</v>
+        <v>531</v>
       </c>
       <c r="D235" s="2">
-        <v>45840.0</v>
+        <v>45261.0</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>151</v>
+        <v>35</v>
       </c>
       <c r="F235" s="3">
         <v>1.0</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>231</v>
+        <v>298</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D236" s="2">
-        <v>45810.0</v>
+        <v>44806.0</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>72</v>
+        <v>360</v>
       </c>
       <c r="F236" s="3">
         <v>1.0</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>51</v>
+        <v>298</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D237" s="4">
-        <v>45946.0</v>
+        <v>44547.0</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>43</v>
+        <v>360</v>
       </c>
       <c r="F237" s="3">
         <v>1.0</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>51</v>
+        <v>389</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D238" s="2">
-        <v>45912.0</v>
+        <v>45030.0</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>47</v>
+        <v>257</v>
       </c>
       <c r="F238" s="3">
         <v>1.0</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>51</v>
+        <v>389</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="D239" s="4">
-        <v>45943.0</v>
+        <v>569</v>
+      </c>
+      <c r="D239" s="2">
+        <v>45840.0</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="F239" s="3">
         <v>1.0</v>
@@ -8547,144 +8577,144 @@
     </row>
     <row r="240">
       <c r="A240" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>9</v>
+        <v>240</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D240" s="4">
-        <v>44524.0</v>
+        <v>571</v>
+      </c>
+      <c r="D240" s="2">
+        <v>45810.0</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>201</v>
+        <v>72</v>
       </c>
       <c r="F240" s="3">
         <v>1.0</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="D241" s="2">
-        <v>44208.0</v>
+        <v>573</v>
+      </c>
+      <c r="D241" s="4">
+        <v>45946.0</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F241" s="3">
         <v>1.0</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D242" s="4">
-        <v>44496.0</v>
+        <v>575</v>
+      </c>
+      <c r="D242" s="2">
+        <v>45912.0</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>307</v>
+        <v>47</v>
       </c>
       <c r="F242" s="3">
         <v>1.0</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D243" s="2">
-        <v>44112.0</v>
+        <v>45926.0</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="F243" s="3">
         <v>1.0</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="D244" s="2">
-        <v>45121.0</v>
+        <v>579</v>
+      </c>
+      <c r="D244" s="4">
+        <v>45943.0</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F244" s="3">
         <v>1.0</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="D245" s="2">
-        <v>45559.0</v>
+        <v>581</v>
+      </c>
+      <c r="D245" s="4">
+        <v>44524.0</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>35</v>
+        <v>205</v>
       </c>
       <c r="F245" s="3">
         <v>1.0</v>
@@ -8697,19 +8727,19 @@
     </row>
     <row r="246">
       <c r="A246" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>287</v>
+        <v>583</v>
       </c>
       <c r="D246" s="2">
-        <v>45559.0</v>
+        <v>44208.0</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F246" s="3">
         <v>1.0</v>
@@ -8722,19 +8752,19 @@
     </row>
     <row r="247">
       <c r="A247" s="1" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="D247" s="2">
-        <v>45365.0</v>
+        <v>315</v>
+      </c>
+      <c r="D247" s="4">
+        <v>44496.0</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>35</v>
+        <v>316</v>
       </c>
       <c r="F247" s="3">
         <v>1.0</v>
@@ -8747,19 +8777,19 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D248" s="2">
-        <v>44768.0</v>
+        <v>44112.0</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="F248" s="3">
         <v>1.0</v>
@@ -8772,19 +8802,19 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D249" s="2">
-        <v>45365.0</v>
+        <v>45121.0</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F249" s="3">
         <v>1.0</v>
@@ -8797,69 +8827,69 @@
     </row>
     <row r="250">
       <c r="A250" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>231</v>
+        <v>34</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D250" s="2">
-        <v>45917.0</v>
+        <v>45559.0</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="F250" s="3">
         <v>1.0</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H250" s="1"/>
       <c r="I250" s="1"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>231</v>
+        <v>34</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D251" s="4">
-        <v>45954.0</v>
+        <v>296</v>
+      </c>
+      <c r="D251" s="2">
+        <v>45559.0</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="F251" s="3">
         <v>1.0</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H251" s="1"/>
       <c r="I251" s="1"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>393</v>
+        <v>34</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D252" s="2">
-        <v>44979.0</v>
+        <v>45365.0</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F252" s="3">
         <v>1.0</v>
@@ -8872,44 +8902,44 @@
     </row>
     <row r="253">
       <c r="A253" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>205</v>
+        <v>34</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D253" s="2">
-        <v>45765.0</v>
+        <v>44768.0</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F253" s="3">
         <v>1.0</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H253" s="1"/>
       <c r="I253" s="1"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D254" s="2">
-        <v>44763.0</v>
+        <v>45365.0</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F254" s="3">
         <v>1.0</v>
@@ -8922,69 +8952,69 @@
     </row>
     <row r="255">
       <c r="A255" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D255" s="2">
-        <v>44957.0</v>
+        <v>45917.0</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F255" s="3">
         <v>1.0</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H255" s="1"/>
       <c r="I255" s="1"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="D256" s="2">
-        <v>44868.0</v>
+        <v>45</v>
+      </c>
+      <c r="D256" s="4">
+        <v>45954.0</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F256" s="3">
         <v>1.0</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H256" s="1"/>
       <c r="I256" s="1"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>15</v>
+        <v>402</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D257" s="2">
-        <v>44681.0</v>
+        <v>44979.0</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="F257" s="3">
         <v>1.0</v>
@@ -8997,75 +9027,75 @@
     </row>
     <row r="258">
       <c r="A258" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>100</v>
+        <v>209</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D258" s="2">
-        <v>44953.0</v>
+        <v>45765.0</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="F258" s="3">
         <v>1.0</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H258" s="1"/>
       <c r="I258" s="1"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D259" s="2">
-        <v>45870.0</v>
+        <v>44763.0</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F259" s="3">
         <v>1.0</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H259" s="1"/>
       <c r="I259" s="1"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>607</v>
+        <v>81</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="D260" s="4">
-        <v>45637.0</v>
+      <c r="D260" s="2">
+        <v>44957.0</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F260" s="3">
         <v>1.0</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H260" s="1"/>
       <c r="I260" s="1"/>
@@ -9075,16 +9105,16 @@
         <v>609</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>607</v>
+        <v>81</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>610</v>
       </c>
       <c r="D261" s="2">
-        <v>45532.0</v>
+        <v>44868.0</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="F261" s="3">
         <v>1.0</v>
@@ -9100,16 +9130,16 @@
         <v>611</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>607</v>
+        <v>15</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="D262" s="4">
-        <v>45611.0</v>
+      <c r="D262" s="2">
+        <v>44681.0</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="F262" s="3">
         <v>1.0</v>
@@ -9125,16 +9155,16 @@
         <v>613</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>607</v>
+        <v>102</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>614</v>
       </c>
       <c r="D263" s="2">
-        <v>45695.0</v>
+        <v>44953.0</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="F263" s="3">
         <v>1.0</v>
@@ -9150,16 +9180,16 @@
         <v>615</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>94</v>
+        <v>616</v>
       </c>
       <c r="D264" s="2">
-        <v>45894.0</v>
+        <v>45870.0</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F264" s="3">
         <v>1.0</v>
@@ -9172,19 +9202,19 @@
     </row>
     <row r="265">
       <c r="A265" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>116</v>
+        <v>618</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="D265" s="2">
-        <v>45922.0</v>
+        <v>619</v>
+      </c>
+      <c r="D265" s="4">
+        <v>45637.0</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F265" s="3">
         <v>1.0</v>
@@ -9197,91 +9227,91 @@
     </row>
     <row r="266">
       <c r="A266" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B266" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="B266" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="C266" s="1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D266" s="2">
-        <v>45874.0</v>
+        <v>45532.0</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F266" s="3">
         <v>1.0</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H266" s="1"/>
       <c r="I266" s="1"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>116</v>
+        <v>618</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="D267" s="2">
-        <v>45750.0</v>
+        <v>623</v>
+      </c>
+      <c r="D267" s="4">
+        <v>45611.0</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F267" s="3">
         <v>1.0</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H267" s="1"/>
       <c r="I267" s="1"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>116</v>
+        <v>618</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D268" s="2">
-        <v>45737.0</v>
+        <v>45695.0</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F268" s="3">
         <v>1.0</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H268" s="1"/>
       <c r="I268" s="1"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>625</v>
+        <v>94</v>
       </c>
       <c r="D269" s="2">
-        <v>45924.0</v>
+        <v>45894.0</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>62</v>
@@ -9297,144 +9327,144 @@
     </row>
     <row r="270">
       <c r="A270" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D270" s="2">
-        <v>44805.0</v>
+        <v>45922.0</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="F270" s="3">
         <v>1.0</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H270" s="1"/>
       <c r="I270" s="1"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D271" s="2">
-        <v>44679.0</v>
+        <v>45874.0</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="F271" s="3">
         <v>1.0</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H271" s="1"/>
       <c r="I271" s="1"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D272" s="2">
-        <v>44707.0</v>
+        <v>45750.0</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F272" s="3">
         <v>1.0</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H272" s="1"/>
       <c r="I272" s="1"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D273" s="2">
-        <v>45568.0</v>
+        <v>45737.0</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="F273" s="3">
         <v>1.0</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H273" s="1"/>
       <c r="I273" s="1"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="D274" s="4">
-        <v>44861.0</v>
+        <v>636</v>
+      </c>
+      <c r="D274" s="2">
+        <v>45924.0</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F274" s="3">
         <v>1.0</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H274" s="1"/>
       <c r="I274" s="1"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D275" s="2">
-        <v>44935.0</v>
+        <v>44805.0</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>35</v>
+        <v>168</v>
       </c>
       <c r="F275" s="3">
         <v>1.0</v>
@@ -9447,19 +9477,19 @@
     </row>
     <row r="276">
       <c r="A276" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>101</v>
+        <v>640</v>
       </c>
       <c r="D276" s="2">
-        <v>44784.0</v>
+        <v>44679.0</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F276" s="3">
         <v>1.0</v>
@@ -9472,16 +9502,16 @@
     </row>
     <row r="277">
       <c r="A277" s="1" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D277" s="2">
-        <v>44784.0</v>
+        <v>44707.0</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>35</v>
@@ -9497,19 +9527,19 @@
     </row>
     <row r="278">
       <c r="A278" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="D278" s="4">
-        <v>44551.0</v>
+        <v>644</v>
+      </c>
+      <c r="D278" s="2">
+        <v>45568.0</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>279</v>
+        <v>24</v>
       </c>
       <c r="F278" s="3">
         <v>1.0</v>
@@ -9522,16 +9552,16 @@
     </row>
     <row r="279">
       <c r="A279" s="1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D279" s="2">
-        <v>44750.0</v>
+        <v>646</v>
+      </c>
+      <c r="D279" s="4">
+        <v>44861.0</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>35</v>
@@ -9547,44 +9577,44 @@
     </row>
     <row r="280">
       <c r="A280" s="1" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D280" s="2">
-        <v>45200.0</v>
+        <v>44935.0</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F280" s="3">
         <v>1.0</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>647</v>
+        <v>15</v>
       </c>
       <c r="H280" s="1"/>
       <c r="I280" s="1"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>409</v>
+        <v>84</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>649</v>
+        <v>103</v>
       </c>
       <c r="D281" s="2">
-        <v>44609.0</v>
+        <v>44784.0</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>156</v>
+        <v>35</v>
       </c>
       <c r="F281" s="3">
         <v>1.0</v>
@@ -9600,16 +9630,16 @@
         <v>650</v>
       </c>
       <c r="B282" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C282" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="C282" s="1" t="s">
-        <v>652</v>
-      </c>
       <c r="D282" s="2">
-        <v>45052.0</v>
+        <v>44784.0</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="F282" s="3">
         <v>1.0</v>
@@ -9622,19 +9652,19 @@
     </row>
     <row r="283">
       <c r="A283" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C283" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="B283" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D283" s="4">
-        <v>44915.0</v>
+        <v>44551.0</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>35</v>
+        <v>288</v>
       </c>
       <c r="F283" s="3">
         <v>1.0</v>
@@ -9647,19 +9677,19 @@
     </row>
     <row r="284">
       <c r="A284" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C284" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="B284" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>656</v>
-      </c>
       <c r="D284" s="2">
-        <v>44669.0</v>
+        <v>44750.0</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F284" s="3">
         <v>1.0</v>
@@ -9672,25 +9702,25 @@
     </row>
     <row r="285">
       <c r="A285" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C285" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="B285" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>658</v>
-      </c>
       <c r="D285" s="2">
-        <v>44398.0</v>
+        <v>45200.0</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="F285" s="3">
         <v>1.0</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>15</v>
+        <v>658</v>
       </c>
       <c r="H285" s="1"/>
       <c r="I285" s="1"/>
@@ -9700,16 +9730,16 @@
         <v>659</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>217</v>
+        <v>418</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="D286" s="4">
-        <v>44557.0</v>
+      <c r="D286" s="2">
+        <v>44609.0</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="F286" s="3">
         <v>1.0</v>
@@ -9725,16 +9755,16 @@
         <v>661</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>217</v>
+        <v>662</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="D287" s="4">
-        <v>45281.0</v>
+        <v>663</v>
+      </c>
+      <c r="D287" s="2">
+        <v>45052.0</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="F287" s="3">
         <v>1.0</v>
@@ -9747,19 +9777,19 @@
     </row>
     <row r="288">
       <c r="A288" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>217</v>
+        <v>665</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="D288" s="2">
-        <v>44742.0</v>
+        <v>15</v>
+      </c>
+      <c r="D288" s="4">
+        <v>44915.0</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="F288" s="3">
         <v>1.0</v>
@@ -9772,19 +9802,19 @@
     </row>
     <row r="289">
       <c r="A289" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>217</v>
+        <v>37</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D289" s="2">
-        <v>44446.0</v>
+        <v>44669.0</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="F289" s="3">
         <v>1.0</v>
@@ -9797,19 +9827,19 @@
     </row>
     <row r="290">
       <c r="A290" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>217</v>
+        <v>37</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D290" s="2">
-        <v>44756.0</v>
+        <v>44398.0</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="F290" s="3">
         <v>1.0</v>
@@ -9822,19 +9852,19 @@
     </row>
     <row r="291">
       <c r="A291" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="D291" s="2">
-        <v>45092.0</v>
+        <v>671</v>
+      </c>
+      <c r="D291" s="4">
+        <v>44557.0</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F291" s="3">
         <v>1.0</v>
@@ -9847,19 +9877,19 @@
     </row>
     <row r="292">
       <c r="A292" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>672</v>
+        <v>221</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="D292" s="2">
-        <v>44532.0</v>
+      <c r="D292" s="4">
+        <v>45281.0</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="F292" s="3">
         <v>1.0</v>
@@ -9875,16 +9905,16 @@
         <v>674</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>343</v>
+        <v>221</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>520</v>
+        <v>675</v>
       </c>
       <c r="D293" s="2">
-        <v>44958.0</v>
+        <v>44742.0</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="F293" s="3">
         <v>1.0</v>
@@ -9897,44 +9927,44 @@
     </row>
     <row r="294">
       <c r="A294" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D294" s="2">
-        <v>45740.0</v>
+        <v>44446.0</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="F294" s="3">
         <v>1.0</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H294" s="1"/>
       <c r="I294" s="1"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D295" s="2">
-        <v>45524.0</v>
+        <v>44756.0</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="F295" s="3">
         <v>1.0</v>
@@ -9947,19 +9977,19 @@
     </row>
     <row r="296">
       <c r="A296" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>614</v>
+        <v>681</v>
       </c>
       <c r="D296" s="2">
-        <v>45530.0</v>
+        <v>45092.0</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="F296" s="3">
         <v>1.0</v>
@@ -9972,19 +10002,19 @@
     </row>
     <row r="297">
       <c r="A297" s="1" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>220</v>
+        <v>683</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="D297" s="2">
-        <v>44833.0</v>
+        <v>44532.0</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="F297" s="3">
         <v>1.0</v>
@@ -9997,19 +10027,19 @@
     </row>
     <row r="298">
       <c r="A298" s="1" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>220</v>
+        <v>352</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>683</v>
+        <v>529</v>
       </c>
       <c r="D298" s="2">
-        <v>45141.0</v>
+        <v>44958.0</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="F298" s="3">
         <v>1.0</v>
@@ -10022,19 +10052,19 @@
     </row>
     <row r="299">
       <c r="A299" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="D299" s="2">
-        <v>45852.0</v>
+        <v>45740.0</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="F299" s="3">
         <v>1.0</v>
@@ -10047,19 +10077,19 @@
     </row>
     <row r="300">
       <c r="A300" s="1" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>687</v>
+        <v>227</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D300" s="2">
-        <v>42026.0</v>
+        <v>45524.0</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F300" s="3">
         <v>1.0</v>
@@ -10072,19 +10102,19 @@
     </row>
     <row r="301">
       <c r="A301" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>349</v>
+        <v>227</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>690</v>
+        <v>625</v>
       </c>
       <c r="D301" s="2">
-        <v>45064.0</v>
+        <v>45530.0</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F301" s="3">
         <v>1.0</v>
@@ -10100,16 +10130,16 @@
         <v>691</v>
       </c>
       <c r="B302" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C302" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="C302" s="1" t="s">
-        <v>693</v>
-      </c>
       <c r="D302" s="2">
-        <v>44873.0</v>
+        <v>44833.0</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="F302" s="3">
         <v>1.0</v>
@@ -10122,19 +10152,19 @@
     </row>
     <row r="303">
       <c r="A303" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C303" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="B303" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>696</v>
-      </c>
       <c r="D303" s="2">
-        <v>43770.0</v>
+        <v>45141.0</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="F303" s="3">
         <v>1.0</v>
@@ -10147,19 +10177,19 @@
     </row>
     <row r="304">
       <c r="A304" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>698</v>
+        <v>227</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D304" s="2">
-        <v>45903.0</v>
+        <v>45852.0</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F304" s="3">
         <v>1.0</v>
@@ -10172,19 +10202,19 @@
     </row>
     <row r="305">
       <c r="A305" s="1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>67</v>
+        <v>698</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D305" s="2">
-        <v>44763.0</v>
+        <v>42026.0</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="F305" s="3">
         <v>1.0</v>
@@ -10197,19 +10227,19 @@
     </row>
     <row r="306">
       <c r="A306" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>67</v>
+        <v>358</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D306" s="2">
-        <v>44781.0</v>
+        <v>45064.0</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F306" s="3">
         <v>1.0</v>
@@ -10222,19 +10252,19 @@
     </row>
     <row r="307">
       <c r="A307" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C307" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="B307" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C307" s="1" t="s">
-        <v>705</v>
-      </c>
       <c r="D307" s="2">
-        <v>44978.0</v>
+        <v>44873.0</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F307" s="3">
         <v>1.0</v>
@@ -10247,19 +10277,19 @@
     </row>
     <row r="308">
       <c r="A308" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C308" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="B308" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="D308" s="4">
-        <v>44515.0</v>
+      <c r="D308" s="2">
+        <v>43770.0</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F308" s="3">
         <v>1.0</v>
@@ -10272,19 +10302,19 @@
     </row>
     <row r="309">
       <c r="A309" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B309" s="1" t="s">
         <v>708</v>
-      </c>
-      <c r="B309" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>709</v>
       </c>
       <c r="D309" s="2">
-        <v>45870.0</v>
+        <v>45903.0</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F309" s="3">
         <v>1.0</v>
@@ -10306,7 +10336,7 @@
         <v>711</v>
       </c>
       <c r="D310" s="2">
-        <v>43598.0</v>
+        <v>44763.0</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>69</v>
@@ -10331,10 +10361,10 @@
         <v>713</v>
       </c>
       <c r="D311" s="2">
-        <v>44231.0</v>
+        <v>44781.0</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>434</v>
+        <v>69</v>
       </c>
       <c r="F311" s="3">
         <v>1.0</v>
@@ -10350,16 +10380,16 @@
         <v>714</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="D312" s="4">
-        <v>44923.0</v>
+      <c r="D312" s="2">
+        <v>44978.0</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>248</v>
+        <v>69</v>
       </c>
       <c r="F312" s="3">
         <v>1.0</v>
@@ -10375,22 +10405,22 @@
         <v>716</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>522</v>
+        <v>67</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>717</v>
       </c>
       <c r="D313" s="4">
-        <v>45643.0</v>
+        <v>44515.0</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="F313" s="3">
         <v>1.0</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H313" s="1"/>
       <c r="I313" s="1"/>
@@ -10400,38 +10430,38 @@
         <v>718</v>
       </c>
       <c r="B314" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C314" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="C314" s="1" t="s">
-        <v>720</v>
-      </c>
       <c r="D314" s="2">
-        <v>44767.0</v>
+        <v>45870.0</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>279</v>
+        <v>69</v>
       </c>
       <c r="F314" s="3">
         <v>1.0</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H314" s="1"/>
       <c r="I314" s="1"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C315" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="B315" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C315" s="1" t="s">
-        <v>722</v>
-      </c>
       <c r="D315" s="2">
-        <v>45413.0</v>
+        <v>43598.0</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>69</v>
@@ -10447,19 +10477,19 @@
     </row>
     <row r="316">
       <c r="A316" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C316" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="B316" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>724</v>
-      </c>
       <c r="D316" s="2">
-        <v>44753.0</v>
+        <v>44231.0</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>27</v>
+        <v>443</v>
       </c>
       <c r="F316" s="3">
         <v>1.0</v>
@@ -10472,19 +10502,19 @@
     </row>
     <row r="317">
       <c r="A317" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C317" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="B317" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="D317" s="2">
-        <v>45539.0</v>
+      <c r="D317" s="4">
+        <v>44923.0</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>144</v>
+        <v>257</v>
       </c>
       <c r="F317" s="3">
         <v>1.0</v>
@@ -10497,44 +10527,44 @@
     </row>
     <row r="318">
       <c r="A318" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C318" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="B318" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="D318" s="2">
-        <v>44208.0</v>
+      <c r="D318" s="4">
+        <v>45643.0</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="F318" s="3">
         <v>1.0</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H318" s="1"/>
       <c r="I318" s="1"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B319" s="1" t="s">
         <v>729</v>
-      </c>
-      <c r="B319" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>730</v>
       </c>
       <c r="D319" s="2">
-        <v>44236.0</v>
+        <v>44767.0</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>144</v>
+        <v>288</v>
       </c>
       <c r="F319" s="3">
         <v>1.0</v>
@@ -10556,10 +10586,10 @@
         <v>732</v>
       </c>
       <c r="D320" s="2">
-        <v>44291.0</v>
+        <v>45413.0</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F320" s="3">
         <v>1.0</v>
@@ -10575,16 +10605,16 @@
         <v>733</v>
       </c>
       <c r="B321" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C321" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="C321" s="1" t="s">
-        <v>735</v>
-      </c>
       <c r="D321" s="2">
-        <v>44435.0</v>
+        <v>44753.0</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="F321" s="3">
         <v>1.0</v>
@@ -10597,19 +10627,19 @@
     </row>
     <row r="322">
       <c r="A322" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C322" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="B322" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>737</v>
-      </c>
       <c r="D322" s="2">
-        <v>43314.0</v>
+        <v>45539.0</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="F322" s="3">
         <v>1.0</v>
@@ -10622,19 +10652,19 @@
     </row>
     <row r="323">
       <c r="A323" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C323" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="B323" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>740</v>
-      </c>
       <c r="D323" s="2">
-        <v>45182.0</v>
+        <v>44208.0</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F323" s="3">
         <v>1.0</v>
@@ -10647,19 +10677,19 @@
     </row>
     <row r="324">
       <c r="A324" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D324" s="2">
-        <v>45356.0</v>
+        <v>44236.0</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="F324" s="3">
         <v>1.0</v>
@@ -10672,19 +10702,19 @@
     </row>
     <row r="325">
       <c r="A325" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D325" s="2">
-        <v>45328.0</v>
+        <v>44291.0</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>151</v>
+        <v>59</v>
       </c>
       <c r="F325" s="3">
         <v>1.0</v>
@@ -10697,19 +10727,19 @@
     </row>
     <row r="326">
       <c r="A326" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C326" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="B326" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C326" s="1" t="s">
-        <v>746</v>
-      </c>
       <c r="D326" s="2">
-        <v>45091.0</v>
+        <v>44435.0</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="F326" s="3">
         <v>1.0</v>
@@ -10722,19 +10752,19 @@
     </row>
     <row r="327">
       <c r="A327" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C327" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="B327" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>748</v>
-      </c>
       <c r="D327" s="2">
-        <v>45001.0</v>
+        <v>43314.0</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F327" s="3">
         <v>1.0</v>
@@ -10747,19 +10777,19 @@
     </row>
     <row r="328">
       <c r="A328" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B328" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="B328" s="1" t="s">
+      <c r="C328" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="C328" s="1" t="s">
-        <v>751</v>
-      </c>
       <c r="D328" s="2">
-        <v>45055.0</v>
+        <v>45182.0</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="F328" s="3">
         <v>1.0</v>
@@ -10772,19 +10802,19 @@
     </row>
     <row r="329">
       <c r="A329" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C329" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="B329" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>753</v>
-      </c>
       <c r="D329" s="2">
-        <v>45121.0</v>
+        <v>45356.0</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F329" s="3">
         <v>1.0</v>
@@ -10797,19 +10827,19 @@
     </row>
     <row r="330">
       <c r="A330" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C330" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="B330" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C330" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="D330" s="2">
-        <v>42916.0</v>
+        <v>45328.0</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="F330" s="3">
         <v>1.0</v>
@@ -10825,16 +10855,16 @@
         <v>755</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>54</v>
+        <v>756</v>
       </c>
       <c r="D331" s="2">
-        <v>42958.0</v>
+        <v>45091.0</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>35</v>
+        <v>205</v>
       </c>
       <c r="F331" s="3">
         <v>1.0</v>
@@ -10847,16 +10877,16 @@
     </row>
     <row r="332">
       <c r="A332" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D332" s="2">
-        <v>44750.0</v>
+        <v>45001.0</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>43</v>
@@ -10872,19 +10902,19 @@
     </row>
     <row r="333">
       <c r="A333" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>45</v>
+        <v>760</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="D333" s="2">
-        <v>43126.0</v>
+        <v>45055.0</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>760</v>
+        <v>168</v>
       </c>
       <c r="F333" s="3">
         <v>1.0</v>
@@ -10896,57 +10926,127 @@
       <c r="I333" s="1"/>
     </row>
     <row r="334">
-      <c r="A334" s="1"/>
-      <c r="B334" s="1"/>
-      <c r="C334" s="1"/>
-      <c r="D334" s="1"/>
-      <c r="E334" s="1"/>
-      <c r="F334" s="1"/>
-      <c r="G334" s="1"/>
+      <c r="A334" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="D334" s="2">
+        <v>45121.0</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F334" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G334" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H334" s="1"/>
       <c r="I334" s="1"/>
     </row>
     <row r="335">
-      <c r="A335" s="1"/>
-      <c r="B335" s="1"/>
-      <c r="C335" s="1"/>
-      <c r="D335" s="1"/>
-      <c r="E335" s="1"/>
-      <c r="F335" s="1"/>
-      <c r="G335" s="1"/>
+      <c r="A335" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D335" s="2">
+        <v>42916.0</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F335" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G335" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H335" s="1"/>
       <c r="I335" s="1"/>
     </row>
     <row r="336">
-      <c r="A336" s="1"/>
-      <c r="B336" s="1"/>
-      <c r="C336" s="1"/>
-      <c r="D336" s="1"/>
-      <c r="E336" s="1"/>
-      <c r="F336" s="1"/>
-      <c r="G336" s="1"/>
+      <c r="A336" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D336" s="2">
+        <v>42958.0</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F336" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G336" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H336" s="1"/>
       <c r="I336" s="1"/>
     </row>
     <row r="337">
-      <c r="A337" s="1"/>
-      <c r="B337" s="1"/>
-      <c r="C337" s="1"/>
-      <c r="D337" s="1"/>
-      <c r="E337" s="1"/>
-      <c r="F337" s="1"/>
-      <c r="G337" s="1"/>
+      <c r="A337" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="D337" s="2">
+        <v>44750.0</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F337" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G337" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H337" s="1"/>
       <c r="I337" s="1"/>
     </row>
     <row r="338">
-      <c r="A338" s="1"/>
-      <c r="B338" s="1"/>
-      <c r="C338" s="1"/>
-      <c r="D338" s="1"/>
-      <c r="E338" s="1"/>
-      <c r="F338" s="1"/>
-      <c r="G338" s="1"/>
+      <c r="A338" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="D338" s="2">
+        <v>43126.0</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F338" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G338" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H338" s="1"/>
       <c r="I338" s="1"/>
     </row>
@@ -18234,7 +18334,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B134"/>
+    <hyperlink r:id="rId1" ref="B138"/>
   </hyperlinks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/Car_Wash_Advisory_Top_Acquisitions.xlsx
+++ b/Car_Wash_Advisory_Top_Acquisitions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Car Wash Advisory - Top Acquisi" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Car Wash Advisory - Top Acquisi" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="816">
   <si>
     <t>Title -- Who Bought What?</t>
   </si>
@@ -1795,12 +1795,24 @@
     <t>Cleanland Car Wash</t>
   </si>
   <si>
+    <t>Club Car Wash Acquires Gold Car Wash</t>
+  </si>
+  <si>
+    <t>Gold Car Wash</t>
+  </si>
+  <si>
     <t>Club Car Wash Acquires Groove Carwash in Hurst, Texas</t>
   </si>
   <si>
     <t>Groove Car Wash</t>
   </si>
   <si>
+    <t>Club Car Wash Acquires In &amp; Out Car Wash Site</t>
+  </si>
+  <si>
+    <t>In &amp; Out Car Wash</t>
+  </si>
+  <si>
     <t>Club Car Wash Acquires Matt's Carwash</t>
   </si>
   <si>
@@ -1856,6 +1868,12 @@
   </si>
   <si>
     <t>Greenlight Car Wash</t>
+  </si>
+  <si>
+    <t>El Car Wash Acquires Miracle Car Wash</t>
+  </si>
+  <si>
+    <t>Miracle Car Wash</t>
   </si>
   <si>
     <t>El Car Wash Acquires Octopus Car Wash</t>
@@ -2514,6 +2532,10 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9480,8 +9502,8 @@
       <c r="C251" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="D251" s="5">
-        <v>45946.0</v>
+      <c r="D251" s="2">
+        <v>46065.0</v>
       </c>
       <c r="E251" s="3" t="b">
         <v>0</v>
@@ -9507,14 +9529,14 @@
       <c r="C252" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="D252" s="2">
-        <v>46031.0</v>
+      <c r="D252" s="5">
+        <v>45946.0</v>
       </c>
       <c r="E252" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G252" s="4">
         <v>1.0</v>
@@ -9535,13 +9557,13 @@
         <v>599</v>
       </c>
       <c r="D253" s="2">
-        <v>45912.0</v>
+        <v>46062.0</v>
       </c>
       <c r="E253" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="G253" s="4">
         <v>1.0</v>
@@ -9562,13 +9584,13 @@
         <v>601</v>
       </c>
       <c r="D254" s="2">
-        <v>45926.0</v>
+        <v>46031.0</v>
       </c>
       <c r="E254" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G254" s="4">
         <v>1.0</v>
@@ -9588,14 +9610,14 @@
       <c r="C255" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D255" s="5">
-        <v>45943.0</v>
+      <c r="D255" s="2">
+        <v>45912.0</v>
       </c>
       <c r="E255" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="G255" s="4">
         <v>1.0</v>
@@ -9610,25 +9632,25 @@
         <v>604</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="D256" s="5">
-        <v>44524.0</v>
+      <c r="D256" s="2">
+        <v>45926.0</v>
       </c>
       <c r="E256" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>212</v>
+        <v>51</v>
       </c>
       <c r="G256" s="4">
         <v>1.0</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I256" s="1"/>
     </row>
@@ -9637,25 +9659,25 @@
         <v>606</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="D257" s="2">
-        <v>44208.0</v>
+      <c r="D257" s="5">
+        <v>45943.0</v>
       </c>
       <c r="E257" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G257" s="4">
         <v>1.0</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I257" s="1"/>
     </row>
@@ -9667,16 +9689,16 @@
         <v>10</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>326</v>
+        <v>609</v>
       </c>
       <c r="D258" s="5">
-        <v>44496.0</v>
+        <v>44524.0</v>
       </c>
       <c r="E258" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>327</v>
+        <v>212</v>
       </c>
       <c r="G258" s="4">
         <v>1.0</v>
@@ -9688,22 +9710,22 @@
     </row>
     <row r="259">
       <c r="A259" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D259" s="2">
-        <v>44112.0</v>
+        <v>44208.0</v>
       </c>
       <c r="E259" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="G259" s="4">
         <v>1.0</v>
@@ -9715,22 +9737,22 @@
     </row>
     <row r="260">
       <c r="A260" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="D260" s="2">
-        <v>45121.0</v>
+        <v>326</v>
+      </c>
+      <c r="D260" s="5">
+        <v>44496.0</v>
       </c>
       <c r="E260" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>33</v>
+        <v>327</v>
       </c>
       <c r="G260" s="4">
         <v>1.0</v>
@@ -9745,19 +9767,19 @@
         <v>613</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>614</v>
       </c>
       <c r="D261" s="2">
-        <v>45559.0</v>
+        <v>44112.0</v>
       </c>
       <c r="E261" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="G261" s="4">
         <v>1.0</v>
@@ -9772,19 +9794,19 @@
         <v>615</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>307</v>
+        <v>616</v>
       </c>
       <c r="D262" s="2">
-        <v>45559.0</v>
+        <v>45121.0</v>
       </c>
       <c r="E262" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G262" s="4">
         <v>1.0</v>
@@ -9796,16 +9818,16 @@
     </row>
     <row r="263">
       <c r="A263" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D263" s="2">
-        <v>45365.0</v>
+        <v>45559.0</v>
       </c>
       <c r="E263" s="3" t="b">
         <v>0</v>
@@ -9823,16 +9845,16 @@
     </row>
     <row r="264">
       <c r="A264" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D264" s="2">
-        <v>44768.0</v>
+        <v>46079.0</v>
       </c>
       <c r="E264" s="3" t="b">
         <v>0</v>
@@ -9844,22 +9866,22 @@
         <v>1.0</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I264" s="1"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>621</v>
+        <v>307</v>
       </c>
       <c r="D265" s="2">
-        <v>45365.0</v>
+        <v>45559.0</v>
       </c>
       <c r="E265" s="3" t="b">
         <v>0</v>
@@ -9880,25 +9902,25 @@
         <v>622</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>247</v>
+        <v>39</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>623</v>
       </c>
       <c r="D266" s="2">
-        <v>45917.0</v>
+        <v>45365.0</v>
       </c>
       <c r="E266" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="G266" s="4">
         <v>1.0</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I266" s="1"/>
     </row>
@@ -9907,73 +9929,73 @@
         <v>624</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>247</v>
+        <v>39</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D267" s="5">
-        <v>45954.0</v>
+        <v>625</v>
+      </c>
+      <c r="D267" s="2">
+        <v>44768.0</v>
       </c>
       <c r="E267" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="G267" s="4">
         <v>1.0</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I267" s="1"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>413</v>
+        <v>39</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D268" s="2">
-        <v>45993.0</v>
+        <v>45365.0</v>
       </c>
       <c r="E268" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G268" s="4">
         <v>1.0</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I268" s="1"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>413</v>
+        <v>247</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D269" s="2">
-        <v>45993.0</v>
+        <v>45917.0</v>
       </c>
       <c r="E269" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="G269" s="4">
         <v>1.0</v>
@@ -9985,28 +10007,28 @@
     </row>
     <row r="270">
       <c r="A270" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>413</v>
+        <v>247</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="D270" s="2">
-        <v>44979.0</v>
+        <v>49</v>
+      </c>
+      <c r="D270" s="5">
+        <v>45954.0</v>
       </c>
       <c r="E270" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="G270" s="4">
         <v>1.0</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I270" s="1"/>
     </row>
@@ -10015,19 +10037,19 @@
         <v>631</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>216</v>
+        <v>413</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>632</v>
       </c>
       <c r="D271" s="2">
-        <v>45765.0</v>
+        <v>45993.0</v>
       </c>
       <c r="E271" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G271" s="4">
         <v>1.0</v>
@@ -10042,25 +10064,25 @@
         <v>633</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>85</v>
+        <v>413</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>634</v>
       </c>
       <c r="D272" s="2">
-        <v>44763.0</v>
+        <v>45993.0</v>
       </c>
       <c r="E272" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G272" s="4">
         <v>1.0</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I272" s="1"/>
     </row>
@@ -10069,19 +10091,19 @@
         <v>635</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>85</v>
+        <v>413</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>636</v>
       </c>
       <c r="D273" s="2">
-        <v>44957.0</v>
+        <v>44979.0</v>
       </c>
       <c r="E273" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G273" s="4">
         <v>1.0</v>
@@ -10096,25 +10118,25 @@
         <v>637</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>85</v>
+        <v>216</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>638</v>
       </c>
       <c r="D274" s="2">
-        <v>44868.0</v>
+        <v>45765.0</v>
       </c>
       <c r="E274" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="G274" s="4">
         <v>1.0</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I274" s="1"/>
     </row>
@@ -10123,46 +10145,46 @@
         <v>639</v>
       </c>
       <c r="B275" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C275" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="C275" s="1" t="s">
-        <v>641</v>
-      </c>
       <c r="D275" s="2">
-        <v>46035.0</v>
+        <v>44763.0</v>
       </c>
       <c r="E275" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>537</v>
+        <v>25</v>
       </c>
       <c r="G275" s="4">
         <v>1.0</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I275" s="1"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C276" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="B276" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>643</v>
-      </c>
       <c r="D276" s="2">
-        <v>44681.0</v>
+        <v>44957.0</v>
       </c>
       <c r="E276" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="G276" s="4">
         <v>1.0</v>
@@ -10174,22 +10196,22 @@
     </row>
     <row r="277">
       <c r="A277" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C277" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B277" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>645</v>
-      </c>
       <c r="D277" s="2">
-        <v>44953.0</v>
+        <v>44868.0</v>
       </c>
       <c r="E277" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="G277" s="4">
         <v>1.0</v>
@@ -10201,22 +10223,22 @@
     </row>
     <row r="278">
       <c r="A278" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B278" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>647</v>
       </c>
       <c r="D278" s="2">
-        <v>45870.0</v>
+        <v>46035.0</v>
       </c>
       <c r="E278" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>63</v>
+        <v>537</v>
       </c>
       <c r="G278" s="4">
         <v>1.0</v>
@@ -10231,25 +10253,25 @@
         <v>648</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="D279" s="5">
-        <v>45637.0</v>
+      <c r="D279" s="2">
+        <v>44681.0</v>
       </c>
       <c r="E279" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="G279" s="4">
         <v>1.0</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I279" s="1"/>
     </row>
@@ -10258,25 +10280,25 @@
         <v>650</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>651</v>
       </c>
       <c r="D280" s="2">
-        <v>46029.0</v>
+        <v>44953.0</v>
       </c>
       <c r="E280" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="G280" s="4">
         <v>1.0</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I280" s="1"/>
     </row>
@@ -10285,25 +10307,25 @@
         <v>652</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>653</v>
       </c>
       <c r="D281" s="2">
-        <v>45532.0</v>
+        <v>45870.0</v>
       </c>
       <c r="E281" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="G281" s="4">
         <v>1.0</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I281" s="1"/>
     </row>
@@ -10317,14 +10339,14 @@
       <c r="C282" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="D282" s="2">
-        <v>46029.0</v>
+      <c r="D282" s="5">
+        <v>45637.0</v>
       </c>
       <c r="E282" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="G282" s="4">
         <v>1.0</v>
@@ -10348,7 +10370,7 @@
         <v>46029.0</v>
       </c>
       <c r="E283" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F283" s="1" t="s">
         <v>40</v>
@@ -10371,8 +10393,8 @@
       <c r="C284" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="D284" s="5">
-        <v>45611.0</v>
+      <c r="D284" s="2">
+        <v>45532.0</v>
       </c>
       <c r="E284" s="3" t="b">
         <v>0</v>
@@ -10399,19 +10421,19 @@
         <v>661</v>
       </c>
       <c r="D285" s="2">
-        <v>45695.0</v>
+        <v>46029.0</v>
       </c>
       <c r="E285" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="G285" s="4">
         <v>1.0</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I285" s="1"/>
     </row>
@@ -10420,19 +10442,19 @@
         <v>662</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>98</v>
+        <v>663</v>
       </c>
       <c r="D286" s="2">
-        <v>45894.0</v>
+        <v>46029.0</v>
       </c>
       <c r="E286" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="G286" s="4">
         <v>1.0</v>
@@ -10444,70 +10466,70 @@
     </row>
     <row r="287">
       <c r="A287" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="D287" s="2">
-        <v>45922.0</v>
+        <v>665</v>
+      </c>
+      <c r="D287" s="5">
+        <v>45611.0</v>
       </c>
       <c r="E287" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="G287" s="4">
         <v>1.0</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I287" s="1"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D288" s="2">
-        <v>45874.0</v>
+        <v>45695.0</v>
       </c>
       <c r="E288" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="G288" s="4">
         <v>1.0</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I288" s="1"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="D289" s="5">
-        <v>46014.0</v>
+        <v>98</v>
+      </c>
+      <c r="D289" s="2">
+        <v>45894.0</v>
       </c>
       <c r="E289" s="3" t="b">
         <v>0</v>
@@ -10534,7 +10556,7 @@
         <v>670</v>
       </c>
       <c r="D290" s="2">
-        <v>45995.0</v>
+        <v>45922.0</v>
       </c>
       <c r="E290" s="3" t="b">
         <v>0</v>
@@ -10561,7 +10583,7 @@
         <v>672</v>
       </c>
       <c r="D291" s="2">
-        <v>45750.0</v>
+        <v>45874.0</v>
       </c>
       <c r="E291" s="3" t="b">
         <v>0</v>
@@ -10587,8 +10609,8 @@
       <c r="C292" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D292" s="2">
-        <v>45737.0</v>
+      <c r="D292" s="5">
+        <v>46014.0</v>
       </c>
       <c r="E292" s="3" t="b">
         <v>0</v>
@@ -10615,7 +10637,7 @@
         <v>676</v>
       </c>
       <c r="D293" s="2">
-        <v>45924.0</v>
+        <v>45995.0</v>
       </c>
       <c r="E293" s="3" t="b">
         <v>0</v>
@@ -10642,19 +10664,19 @@
         <v>678</v>
       </c>
       <c r="D294" s="2">
-        <v>44805.0</v>
+        <v>45750.0</v>
       </c>
       <c r="E294" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>172</v>
+        <v>66</v>
       </c>
       <c r="G294" s="4">
         <v>1.0</v>
       </c>
       <c r="H294" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I294" s="1"/>
     </row>
@@ -10663,25 +10685,25 @@
         <v>679</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>680</v>
       </c>
       <c r="D295" s="2">
-        <v>44679.0</v>
+        <v>45737.0</v>
       </c>
       <c r="E295" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="G295" s="4">
         <v>1.0</v>
       </c>
       <c r="H295" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I295" s="1"/>
     </row>
@@ -10690,25 +10712,25 @@
         <v>681</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>682</v>
       </c>
       <c r="D296" s="2">
-        <v>44707.0</v>
+        <v>45924.0</v>
       </c>
       <c r="E296" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G296" s="4">
         <v>1.0</v>
       </c>
       <c r="H296" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I296" s="1"/>
     </row>
@@ -10717,19 +10739,19 @@
         <v>683</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>684</v>
       </c>
       <c r="D297" s="2">
-        <v>45568.0</v>
+        <v>44805.0</v>
       </c>
       <c r="E297" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="G297" s="4">
         <v>1.0</v>
@@ -10744,19 +10766,19 @@
         <v>685</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="D298" s="5">
-        <v>44861.0</v>
+      <c r="D298" s="2">
+        <v>44679.0</v>
       </c>
       <c r="E298" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G298" s="4">
         <v>1.0</v>
@@ -10771,13 +10793,13 @@
         <v>687</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>688</v>
       </c>
       <c r="D299" s="2">
-        <v>44935.0</v>
+        <v>44707.0</v>
       </c>
       <c r="E299" s="3" t="b">
         <v>0</v>
@@ -10801,16 +10823,16 @@
         <v>88</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>107</v>
+        <v>690</v>
       </c>
       <c r="D300" s="2">
-        <v>44784.0</v>
+        <v>45568.0</v>
       </c>
       <c r="E300" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G300" s="4">
         <v>1.0</v>
@@ -10822,16 +10844,16 @@
     </row>
     <row r="301">
       <c r="A301" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="D301" s="2">
-        <v>44784.0</v>
+        <v>692</v>
+      </c>
+      <c r="D301" s="5">
+        <v>44861.0</v>
       </c>
       <c r="E301" s="3" t="b">
         <v>0</v>
@@ -10849,22 +10871,22 @@
     </row>
     <row r="302">
       <c r="A302" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="D302" s="5">
-        <v>44551.0</v>
+        <v>694</v>
+      </c>
+      <c r="D302" s="2">
+        <v>44935.0</v>
       </c>
       <c r="E302" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>299</v>
+        <v>40</v>
       </c>
       <c r="G302" s="4">
         <v>1.0</v>
@@ -10876,16 +10898,16 @@
     </row>
     <row r="303">
       <c r="A303" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>695</v>
+        <v>107</v>
       </c>
       <c r="D303" s="2">
-        <v>44750.0</v>
+        <v>44784.0</v>
       </c>
       <c r="E303" s="3" t="b">
         <v>0</v>
@@ -10906,46 +10928,46 @@
         <v>696</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>697</v>
       </c>
       <c r="D304" s="2">
-        <v>45200.0</v>
+        <v>44784.0</v>
       </c>
       <c r="E304" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="G304" s="4">
         <v>1.0</v>
       </c>
       <c r="H304" s="1" t="s">
-        <v>698</v>
+        <v>16</v>
       </c>
       <c r="I304" s="1"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C305" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="B305" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C305" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="D305" s="2">
-        <v>44609.0</v>
+      <c r="D305" s="5">
+        <v>44551.0</v>
       </c>
       <c r="E305" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>165</v>
+        <v>299</v>
       </c>
       <c r="G305" s="4">
         <v>1.0</v>
@@ -10957,22 +10979,22 @@
     </row>
     <row r="306">
       <c r="A306" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C306" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="B306" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="C306" s="1" t="s">
-        <v>703</v>
-      </c>
       <c r="D306" s="2">
-        <v>45052.0</v>
+        <v>44750.0</v>
       </c>
       <c r="E306" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="G306" s="4">
         <v>1.0</v>
@@ -10984,49 +11006,49 @@
     </row>
     <row r="307">
       <c r="A307" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>705</v>
+        <v>16</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D307" s="5">
-        <v>44915.0</v>
+        <v>703</v>
+      </c>
+      <c r="D307" s="2">
+        <v>45200.0</v>
       </c>
       <c r="E307" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G307" s="4">
         <v>1.0</v>
       </c>
       <c r="H307" s="1" t="s">
-        <v>16</v>
+        <v>704</v>
       </c>
       <c r="I307" s="1"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C308" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="B308" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>707</v>
-      </c>
       <c r="D308" s="2">
-        <v>44669.0</v>
+        <v>44609.0</v>
       </c>
       <c r="E308" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="G308" s="4">
         <v>1.0</v>
@@ -11038,22 +11060,22 @@
     </row>
     <row r="309">
       <c r="A309" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B309" s="1" t="s">
         <v>708</v>
-      </c>
-      <c r="B309" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>709</v>
       </c>
       <c r="D309" s="2">
-        <v>44398.0</v>
+        <v>45052.0</v>
       </c>
       <c r="E309" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="G309" s="4">
         <v>1.0</v>
@@ -11068,19 +11090,19 @@
         <v>710</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>228</v>
+        <v>711</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>711</v>
+        <v>16</v>
       </c>
       <c r="D310" s="5">
-        <v>44557.0</v>
+        <v>44915.0</v>
       </c>
       <c r="E310" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="G310" s="4">
         <v>1.0</v>
@@ -11095,19 +11117,19 @@
         <v>712</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>228</v>
+        <v>42</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="D311" s="5">
-        <v>45281.0</v>
+      <c r="D311" s="2">
+        <v>44669.0</v>
       </c>
       <c r="E311" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="G311" s="4">
         <v>1.0</v>
@@ -11122,19 +11144,19 @@
         <v>714</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>228</v>
+        <v>42</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>715</v>
       </c>
       <c r="D312" s="2">
-        <v>44742.0</v>
+        <v>44398.0</v>
       </c>
       <c r="E312" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="G312" s="4">
         <v>1.0</v>
@@ -11154,8 +11176,8 @@
       <c r="C313" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="D313" s="2">
-        <v>44446.0</v>
+      <c r="D313" s="5">
+        <v>44557.0</v>
       </c>
       <c r="E313" s="3" t="b">
         <v>0</v>
@@ -11181,8 +11203,8 @@
       <c r="C314" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="D314" s="2">
-        <v>44756.0</v>
+      <c r="D314" s="5">
+        <v>45281.0</v>
       </c>
       <c r="E314" s="3" t="b">
         <v>0</v>
@@ -11209,7 +11231,7 @@
         <v>721</v>
       </c>
       <c r="D315" s="2">
-        <v>45092.0</v>
+        <v>44742.0</v>
       </c>
       <c r="E315" s="3" t="b">
         <v>0</v>
@@ -11230,19 +11252,19 @@
         <v>722</v>
       </c>
       <c r="B316" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C316" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="C316" s="1" t="s">
-        <v>724</v>
-      </c>
       <c r="D316" s="2">
-        <v>44532.0</v>
+        <v>44446.0</v>
       </c>
       <c r="E316" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="G316" s="4">
         <v>1.0</v>
@@ -11254,22 +11276,22 @@
     </row>
     <row r="317">
       <c r="A317" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C317" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="B317" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>548</v>
-      </c>
       <c r="D317" s="2">
-        <v>44958.0</v>
+        <v>44756.0</v>
       </c>
       <c r="E317" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="G317" s="4">
         <v>1.0</v>
@@ -11284,25 +11306,25 @@
         <v>726</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>727</v>
       </c>
       <c r="D318" s="2">
-        <v>45740.0</v>
+        <v>45092.0</v>
       </c>
       <c r="E318" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="G318" s="4">
         <v>1.0</v>
       </c>
       <c r="H318" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I318" s="1"/>
     </row>
@@ -11311,19 +11333,19 @@
         <v>728</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>234</v>
+        <v>729</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D319" s="2">
-        <v>45524.0</v>
+        <v>44532.0</v>
       </c>
       <c r="E319" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="G319" s="4">
         <v>1.0</v>
@@ -11335,22 +11357,22 @@
     </row>
     <row r="320">
       <c r="A320" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>234</v>
+        <v>363</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>661</v>
+        <v>548</v>
       </c>
       <c r="D320" s="2">
-        <v>45530.0</v>
+        <v>44958.0</v>
       </c>
       <c r="E320" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="G320" s="4">
         <v>1.0</v>
@@ -11362,16 +11384,16 @@
     </row>
     <row r="321">
       <c r="A321" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>234</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D321" s="2">
-        <v>44833.0</v>
+        <v>45740.0</v>
       </c>
       <c r="E321" s="3" t="b">
         <v>0</v>
@@ -11383,28 +11405,28 @@
         <v>1.0</v>
       </c>
       <c r="H321" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I321" s="1"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>234</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D322" s="2">
-        <v>45141.0</v>
+        <v>45524.0</v>
       </c>
       <c r="E322" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>172</v>
+        <v>66</v>
       </c>
       <c r="G322" s="4">
         <v>1.0</v>
@@ -11416,16 +11438,16 @@
     </row>
     <row r="323">
       <c r="A323" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>234</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>736</v>
+        <v>667</v>
       </c>
       <c r="D323" s="2">
-        <v>45852.0</v>
+        <v>45530.0</v>
       </c>
       <c r="E323" s="3" t="b">
         <v>0</v>
@@ -11437,7 +11459,7 @@
         <v>1.0</v>
       </c>
       <c r="H323" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I323" s="1"/>
     </row>
@@ -11446,19 +11468,19 @@
         <v>737</v>
       </c>
       <c r="B324" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C324" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="C324" s="1" t="s">
-        <v>739</v>
-      </c>
       <c r="D324" s="2">
-        <v>42026.0</v>
+        <v>44833.0</v>
       </c>
       <c r="E324" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="G324" s="4">
         <v>1.0</v>
@@ -11470,22 +11492,22 @@
     </row>
     <row r="325">
       <c r="A325" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C325" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="B325" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C325" s="1" t="s">
-        <v>741</v>
-      </c>
       <c r="D325" s="2">
-        <v>45064.0</v>
+        <v>45141.0</v>
       </c>
       <c r="E325" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="G325" s="4">
         <v>1.0</v>
@@ -11497,49 +11519,49 @@
     </row>
     <row r="326">
       <c r="A326" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C326" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="B326" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="C326" s="1" t="s">
-        <v>744</v>
-      </c>
       <c r="D326" s="2">
-        <v>44873.0</v>
+        <v>45852.0</v>
       </c>
       <c r="E326" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="G326" s="4">
         <v>1.0</v>
       </c>
       <c r="H326" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I326" s="1"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C327" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="B327" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>746</v>
-      </c>
       <c r="D327" s="2">
-        <v>43770.0</v>
+        <v>42026.0</v>
       </c>
       <c r="E327" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="G327" s="4">
         <v>1.0</v>
@@ -11551,16 +11573,16 @@
     </row>
     <row r="328">
       <c r="A328" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C328" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="B328" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>749</v>
-      </c>
       <c r="D328" s="2">
-        <v>45903.0</v>
+        <v>45064.0</v>
       </c>
       <c r="E328" s="3" t="b">
         <v>0</v>
@@ -11572,28 +11594,28 @@
         <v>1.0</v>
       </c>
       <c r="H328" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I328" s="1"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C329" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="B329" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>751</v>
-      </c>
       <c r="D329" s="2">
-        <v>44763.0</v>
+        <v>44873.0</v>
       </c>
       <c r="E329" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G329" s="4">
         <v>1.0</v>
@@ -11605,22 +11627,22 @@
     </row>
     <row r="330">
       <c r="A330" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C330" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="B330" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C330" s="1" t="s">
-        <v>753</v>
-      </c>
       <c r="D330" s="2">
-        <v>44781.0</v>
+        <v>43770.0</v>
       </c>
       <c r="E330" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G330" s="4">
         <v>1.0</v>
@@ -11632,28 +11654,28 @@
     </row>
     <row r="331">
       <c r="A331" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B331" s="1" t="s">
         <v>754</v>
-      </c>
-      <c r="B331" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>755</v>
       </c>
       <c r="D331" s="2">
-        <v>44978.0</v>
+        <v>45903.0</v>
       </c>
       <c r="E331" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G331" s="4">
         <v>1.0</v>
       </c>
       <c r="H331" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I331" s="1"/>
     </row>
@@ -11667,8 +11689,8 @@
       <c r="C332" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="D332" s="5">
-        <v>44515.0</v>
+      <c r="D332" s="2">
+        <v>44763.0</v>
       </c>
       <c r="E332" s="3" t="b">
         <v>0</v>
@@ -11695,7 +11717,7 @@
         <v>759</v>
       </c>
       <c r="D333" s="2">
-        <v>45870.0</v>
+        <v>44781.0</v>
       </c>
       <c r="E333" s="3" t="b">
         <v>0</v>
@@ -11707,7 +11729,7 @@
         <v>1.0</v>
       </c>
       <c r="H333" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I333" s="1"/>
     </row>
@@ -11722,7 +11744,7 @@
         <v>761</v>
       </c>
       <c r="D334" s="2">
-        <v>43598.0</v>
+        <v>44978.0</v>
       </c>
       <c r="E334" s="3" t="b">
         <v>0</v>
@@ -11748,14 +11770,14 @@
       <c r="C335" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="D335" s="2">
-        <v>44231.0</v>
+      <c r="D335" s="5">
+        <v>44515.0</v>
       </c>
       <c r="E335" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>458</v>
+        <v>73</v>
       </c>
       <c r="G335" s="4">
         <v>1.0</v>
@@ -11770,25 +11792,25 @@
         <v>764</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="D336" s="5">
-        <v>44923.0</v>
+      <c r="D336" s="2">
+        <v>45870.0</v>
       </c>
       <c r="E336" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>268</v>
+        <v>73</v>
       </c>
       <c r="G336" s="4">
         <v>1.0</v>
       </c>
       <c r="H336" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I336" s="1"/>
     </row>
@@ -11797,25 +11819,25 @@
         <v>766</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>550</v>
+        <v>71</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="D337" s="5">
-        <v>45643.0</v>
+      <c r="D337" s="2">
+        <v>43598.0</v>
       </c>
       <c r="E337" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="G337" s="4">
         <v>1.0</v>
       </c>
       <c r="H337" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I337" s="1"/>
     </row>
@@ -11824,19 +11846,19 @@
         <v>768</v>
       </c>
       <c r="B338" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C338" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="C338" s="1" t="s">
-        <v>770</v>
-      </c>
       <c r="D338" s="2">
-        <v>44767.0</v>
+        <v>44231.0</v>
       </c>
       <c r="E338" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>299</v>
+        <v>458</v>
       </c>
       <c r="G338" s="4">
         <v>1.0</v>
@@ -11848,22 +11870,22 @@
     </row>
     <row r="339">
       <c r="A339" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C339" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="B339" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C339" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="D339" s="2">
-        <v>45413.0</v>
+      <c r="D339" s="5">
+        <v>44923.0</v>
       </c>
       <c r="E339" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>73</v>
+        <v>268</v>
       </c>
       <c r="G339" s="4">
         <v>1.0</v>
@@ -11875,49 +11897,49 @@
     </row>
     <row r="340">
       <c r="A340" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C340" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="B340" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C340" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="D340" s="2">
-        <v>44753.0</v>
+      <c r="D340" s="5">
+        <v>45643.0</v>
       </c>
       <c r="E340" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G340" s="4">
         <v>1.0</v>
       </c>
       <c r="H340" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I340" s="1"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B341" s="1" t="s">
         <v>775</v>
-      </c>
-      <c r="B341" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>776</v>
       </c>
       <c r="D341" s="2">
-        <v>45539.0</v>
+        <v>44767.0</v>
       </c>
       <c r="E341" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>153</v>
+        <v>299</v>
       </c>
       <c r="G341" s="4">
         <v>1.0</v>
@@ -11938,7 +11960,7 @@
         <v>778</v>
       </c>
       <c r="D342" s="2">
-        <v>44208.0</v>
+        <v>45413.0</v>
       </c>
       <c r="E342" s="3" t="b">
         <v>0</v>
@@ -11959,19 +11981,19 @@
         <v>779</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>780</v>
       </c>
       <c r="D343" s="2">
-        <v>44236.0</v>
+        <v>44753.0</v>
       </c>
       <c r="E343" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c r="G343" s="4">
         <v>1.0</v>
@@ -11992,13 +12014,13 @@
         <v>782</v>
       </c>
       <c r="D344" s="2">
-        <v>44291.0</v>
+        <v>45539.0</v>
       </c>
       <c r="E344" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="G344" s="4">
         <v>1.0</v>
@@ -12013,19 +12035,19 @@
         <v>783</v>
       </c>
       <c r="B345" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C345" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="C345" s="1" t="s">
-        <v>785</v>
-      </c>
       <c r="D345" s="2">
-        <v>44435.0</v>
+        <v>44208.0</v>
       </c>
       <c r="E345" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="G345" s="4">
         <v>1.0</v>
@@ -12037,22 +12059,22 @@
     </row>
     <row r="346">
       <c r="A346" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C346" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="B346" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="C346" s="1" t="s">
-        <v>787</v>
-      </c>
       <c r="D346" s="2">
-        <v>43314.0</v>
+        <v>44236.0</v>
       </c>
       <c r="E346" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="G346" s="4">
         <v>1.0</v>
@@ -12064,16 +12086,16 @@
     </row>
     <row r="347">
       <c r="A347" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C347" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="B347" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="C347" s="1" t="s">
-        <v>790</v>
-      </c>
       <c r="D347" s="2">
-        <v>45182.0</v>
+        <v>44291.0</v>
       </c>
       <c r="E347" s="3" t="b">
         <v>0</v>
@@ -12091,22 +12113,22 @@
     </row>
     <row r="348">
       <c r="A348" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="C348" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="B348" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C348" s="1" t="s">
-        <v>792</v>
-      </c>
       <c r="D348" s="2">
-        <v>45356.0</v>
+        <v>44435.0</v>
       </c>
       <c r="E348" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="G348" s="4">
         <v>1.0</v>
@@ -12118,22 +12140,22 @@
     </row>
     <row r="349">
       <c r="A349" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="C349" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="B349" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C349" s="1" t="s">
-        <v>794</v>
-      </c>
       <c r="D349" s="2">
-        <v>45328.0</v>
+        <v>43314.0</v>
       </c>
       <c r="E349" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>160</v>
+        <v>33</v>
       </c>
       <c r="G349" s="4">
         <v>1.0</v>
@@ -12145,22 +12167,22 @@
     </row>
     <row r="350">
       <c r="A350" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B350" s="1" t="s">
         <v>795</v>
-      </c>
-      <c r="B350" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>796</v>
       </c>
       <c r="D350" s="2">
-        <v>45091.0</v>
+        <v>45182.0</v>
       </c>
       <c r="E350" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>212</v>
+        <v>63</v>
       </c>
       <c r="G350" s="4">
         <v>1.0</v>
@@ -12175,19 +12197,19 @@
         <v>797</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>798</v>
       </c>
       <c r="D351" s="2">
-        <v>45001.0</v>
+        <v>45356.0</v>
       </c>
       <c r="E351" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G351" s="4">
         <v>1.0</v>
@@ -12202,19 +12224,19 @@
         <v>799</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>564</v>
+        <v>9</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>800</v>
       </c>
       <c r="D352" s="2">
-        <v>45055.0</v>
+        <v>45328.0</v>
       </c>
       <c r="E352" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="G352" s="4">
         <v>1.0</v>
@@ -12229,19 +12251,19 @@
         <v>801</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>802</v>
       </c>
       <c r="D353" s="2">
-        <v>45121.0</v>
+        <v>45091.0</v>
       </c>
       <c r="E353" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>25</v>
+        <v>212</v>
       </c>
       <c r="G353" s="4">
         <v>1.0</v>
@@ -12256,13 +12278,13 @@
         <v>803</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>296</v>
+        <v>804</v>
       </c>
       <c r="D354" s="2">
-        <v>42916.0</v>
+        <v>45001.0</v>
       </c>
       <c r="E354" s="3" t="b">
         <v>0</v>
@@ -12280,22 +12302,22 @@
     </row>
     <row r="355">
       <c r="A355" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>49</v>
+        <v>564</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>58</v>
+        <v>806</v>
       </c>
       <c r="D355" s="2">
-        <v>42958.0</v>
+        <v>45055.0</v>
       </c>
       <c r="E355" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="G355" s="4">
         <v>1.0</v>
@@ -12307,16 +12329,16 @@
     </row>
     <row r="356">
       <c r="A356" s="1" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D356" s="2">
-        <v>44750.0</v>
+        <v>45121.0</v>
       </c>
       <c r="E356" s="3" t="b">
         <v>0</v>
@@ -12334,22 +12356,22 @@
     </row>
     <row r="357">
       <c r="A357" s="1" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>808</v>
+        <v>296</v>
       </c>
       <c r="D357" s="2">
-        <v>43126.0</v>
+        <v>42916.0</v>
       </c>
       <c r="E357" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>809</v>
+        <v>25</v>
       </c>
       <c r="G357" s="4">
         <v>1.0</v>
@@ -12360,36 +12382,84 @@
       <c r="I357" s="1"/>
     </row>
     <row r="358">
-      <c r="A358" s="1"/>
-      <c r="B358" s="1"/>
-      <c r="C358" s="1"/>
-      <c r="D358" s="1"/>
-      <c r="E358" s="1"/>
-      <c r="F358" s="1"/>
-      <c r="G358" s="1"/>
-      <c r="H358" s="1"/>
+      <c r="A358" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D358" s="2">
+        <v>42958.0</v>
+      </c>
+      <c r="E358" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F358" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G358" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H358" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I358" s="1"/>
     </row>
     <row r="359">
-      <c r="A359" s="1"/>
-      <c r="B359" s="1"/>
-      <c r="C359" s="1"/>
-      <c r="D359" s="1"/>
-      <c r="E359" s="1"/>
-      <c r="F359" s="1"/>
-      <c r="G359" s="1"/>
-      <c r="H359" s="1"/>
+      <c r="A359" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="D359" s="2">
+        <v>44750.0</v>
+      </c>
+      <c r="E359" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F359" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G359" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H359" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I359" s="1"/>
     </row>
     <row r="360">
-      <c r="A360" s="1"/>
-      <c r="B360" s="1"/>
-      <c r="C360" s="1"/>
-      <c r="D360" s="1"/>
-      <c r="E360" s="1"/>
-      <c r="F360" s="1"/>
-      <c r="G360" s="1"/>
-      <c r="H360" s="1"/>
+      <c r="A360" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="D360" s="2">
+        <v>43126.0</v>
+      </c>
+      <c r="E360" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F360" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="G360" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H360" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I360" s="1"/>
     </row>
     <row r="361">
